--- a/certus_16x24_CMYK.xlsx
+++ b/certus_16x24_CMYK.xlsx
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>22.467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.168</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.935</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>11.131</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>11.114</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.02</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.995</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>20.682</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>13.721</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.795</v>
+        <v>27.12</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -887,37 +887,37 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14.377</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.722</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="G6" t="n">
-        <v>16.019</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>40.588</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.371</v>
+        <v>33.465</v>
       </c>
       <c r="J6" t="n">
-        <v>44.003</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.438</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>24.332</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>11.632</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13.234</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>33.608</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -975,31 +975,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.411</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.525</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.779</v>
+        <v>14.415</v>
       </c>
       <c r="J7" t="n">
-        <v>41.299</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>41.671</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>13.929</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.154</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>11.277</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4.374</v>
+        <v>16.843</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>33.377</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.016</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1048,25 +1048,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.168</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.539</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.016</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.394</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.261</v>
+        <v>33.465</v>
       </c>
       <c r="J8" t="n">
-        <v>38.003</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.956</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>33.421</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>33.465</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1118,46 +1118,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>11.972</v>
       </c>
       <c r="C9" t="n">
-        <v>14.631</v>
+        <v>31.854</v>
       </c>
       <c r="D9" t="n">
-        <v>27.925</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.165</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15.075</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.361</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>31.268</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17.497</v>
+        <v>33.465</v>
       </c>
       <c r="J9" t="n">
-        <v>37.436</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>33.509</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>16.843</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1197,40 +1197,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.115</v>
+        <v>8.961</v>
       </c>
       <c r="C10" t="n">
-        <v>18.89</v>
+        <v>30.641</v>
       </c>
       <c r="D10" t="n">
-        <v>38.002</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.589</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.93</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.765</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>31.111</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.092</v>
+        <v>33.509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.218</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>32.194</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>23.423</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1276,37 +1276,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.771</v>
+        <v>10.89</v>
       </c>
       <c r="C11" t="n">
-        <v>9.656000000000001</v>
+        <v>30.326</v>
       </c>
       <c r="D11" t="n">
-        <v>25.283</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>38.366</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>42.144</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.495</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.341</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.789</v>
+        <v>33.509</v>
       </c>
       <c r="J11" t="n">
-        <v>6.795</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>26.985</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.31</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4.265</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.670999999999999</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.599</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1355,28 +1355,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.227</v>
+        <v>11.097</v>
       </c>
       <c r="C12" t="n">
-        <v>21.044</v>
+        <v>30.213</v>
       </c>
       <c r="D12" t="n">
-        <v>5.828</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.695</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>35.238</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>26.912</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>33.509</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20.451</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.433</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.434</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>4.453</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>25.404</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>39.401</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>31.934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.401</v>
       </c>
       <c r="C13" t="n">
-        <v>32.354</v>
+        <v>15.058</v>
       </c>
       <c r="D13" t="n">
-        <v>32.109</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.117</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1455,55 +1455,55 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.394</v>
+        <v>25.098</v>
       </c>
       <c r="J13" t="n">
-        <v>15.562</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9.092000000000001</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.214</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>9.19</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.866</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>9.622</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4.499</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.738</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.126</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.786</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>33.555</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>35.027</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>28.82</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1516,73 +1516,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.041</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>43.449</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.065</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>17.567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.427</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.443</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.311</v>
+        <v>15.77</v>
       </c>
       <c r="K14" t="n">
-        <v>22.696</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>13.023</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>24.831</v>
+        <v>37.219</v>
       </c>
       <c r="N14" t="n">
-        <v>33.339</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>29.247</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>9.766999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.704</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.383</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>29.081</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>39.186</v>
+        <v>7.932</v>
       </c>
       <c r="V14" t="n">
-        <v>37.705</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>24.462</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>30.52</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1595,73 +1595,73 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>12.079</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>20.188</v>
+        <v>54.316</v>
       </c>
       <c r="E15" t="n">
-        <v>28.151</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14.329</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9.683999999999999</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>10.706</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.465</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.196</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>16.989</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.102</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>6.218</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>31.203</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38.096</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>32.587</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.879</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.413</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>32.864</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>34.722</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>34.158</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>19.274</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>23.176</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>37.633</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1671,40 +1671,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.011</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.703</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>39.394</v>
+        <v>54.815</v>
       </c>
       <c r="E16" t="n">
-        <v>34.21</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.938</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.642</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.411</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.188</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.546</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.408</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.66</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>29.391</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1722,25 +1722,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.32</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>21.177</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>37.111</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>39.478</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.965</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1750,49 +1750,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.76</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>36.929</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.085</v>
+        <v>29.87</v>
       </c>
       <c r="E17" t="n">
-        <v>38.589</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>41.683</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>32.551</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>17.205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>15.866</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>15.636</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>34.997</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>17.333</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>21.626</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>24.837</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>10.13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.777</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1804,22 +1804,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>22.054</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.611</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.001</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>14.844</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.989</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1970,76 +1970,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.757</v>
+        <v>19.264</v>
       </c>
       <c r="C2" t="n">
-        <v>17.597</v>
+        <v>25.777</v>
       </c>
       <c r="D2" t="n">
-        <v>20.486</v>
+        <v>36.229</v>
       </c>
       <c r="E2" t="n">
-        <v>20.691</v>
+        <v>20.167</v>
       </c>
       <c r="F2" t="n">
-        <v>21.568</v>
+        <v>18.216</v>
       </c>
       <c r="G2" t="n">
-        <v>21.781</v>
+        <v>14.724</v>
       </c>
       <c r="H2" t="n">
-        <v>22.59</v>
+        <v>19.558</v>
       </c>
       <c r="I2" t="n">
-        <v>22.31</v>
+        <v>19.422</v>
       </c>
       <c r="J2" t="n">
-        <v>21.606</v>
+        <v>14.176</v>
       </c>
       <c r="K2" t="n">
-        <v>23.498</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.834</v>
+        <v>19.391</v>
       </c>
       <c r="M2" t="n">
-        <v>21.865</v>
+        <v>20.887</v>
       </c>
       <c r="N2" t="n">
-        <v>20.323</v>
+        <v>13.691</v>
       </c>
       <c r="O2" t="n">
-        <v>21.374</v>
+        <v>15.399</v>
       </c>
       <c r="P2" t="n">
-        <v>20.309</v>
+        <v>15.616</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.04</v>
+        <v>17.011</v>
       </c>
       <c r="R2" t="n">
-        <v>21.374</v>
+        <v>16.581</v>
       </c>
       <c r="S2" t="n">
-        <v>21.092</v>
+        <v>15.597</v>
       </c>
       <c r="T2" t="n">
-        <v>21.459</v>
+        <v>16.015</v>
       </c>
       <c r="U2" t="n">
-        <v>21.156</v>
+        <v>14.581</v>
       </c>
       <c r="V2" t="n">
-        <v>23.119</v>
+        <v>16.23</v>
       </c>
       <c r="W2" t="n">
-        <v>23.513</v>
+        <v>14.888</v>
       </c>
       <c r="X2" t="n">
-        <v>21.849</v>
+        <v>21.312</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.073</v>
+        <v>17.711</v>
       </c>
     </row>
     <row r="3">
@@ -2049,76 +2049,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.826</v>
+        <v>19.739</v>
       </c>
       <c r="C3" t="n">
-        <v>10.672</v>
+        <v>27.328</v>
       </c>
       <c r="D3" t="n">
-        <v>18.118</v>
+        <v>38.079</v>
       </c>
       <c r="E3" t="n">
-        <v>20.874</v>
+        <v>21.663</v>
       </c>
       <c r="F3" t="n">
-        <v>21.349</v>
+        <v>20.194</v>
       </c>
       <c r="G3" t="n">
-        <v>22.057</v>
+        <v>16.823</v>
       </c>
       <c r="H3" t="n">
-        <v>19.382</v>
+        <v>21.058</v>
       </c>
       <c r="I3" t="n">
-        <v>16.13</v>
+        <v>21.936</v>
       </c>
       <c r="J3" t="n">
-        <v>15.285</v>
+        <v>18.268</v>
       </c>
       <c r="K3" t="n">
-        <v>12.477</v>
+        <v>22.467</v>
       </c>
       <c r="L3" t="n">
-        <v>19.807</v>
+        <v>21.514</v>
       </c>
       <c r="M3" t="n">
-        <v>21.812</v>
+        <v>22.437</v>
       </c>
       <c r="N3" t="n">
-        <v>20.309</v>
+        <v>19.493</v>
       </c>
       <c r="O3" t="n">
-        <v>20.319</v>
+        <v>20.67</v>
       </c>
       <c r="P3" t="n">
-        <v>20.019</v>
+        <v>20.992</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.431</v>
+        <v>20.178</v>
       </c>
       <c r="R3" t="n">
-        <v>16.303</v>
+        <v>21.416</v>
       </c>
       <c r="S3" t="n">
-        <v>19.632</v>
+        <v>20.496</v>
       </c>
       <c r="T3" t="n">
-        <v>21.08</v>
+        <v>21.666</v>
       </c>
       <c r="U3" t="n">
-        <v>21.145</v>
+        <v>19.148</v>
       </c>
       <c r="V3" t="n">
-        <v>20.319</v>
+        <v>20.647</v>
       </c>
       <c r="W3" t="n">
-        <v>22.84</v>
+        <v>18.818</v>
       </c>
       <c r="X3" t="n">
-        <v>22.709</v>
+        <v>22.524</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.037</v>
+        <v>19.938</v>
       </c>
     </row>
     <row r="4">
@@ -2128,76 +2128,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.74</v>
+        <v>20.279</v>
       </c>
       <c r="C4" t="n">
-        <v>9.901</v>
+        <v>28.132</v>
       </c>
       <c r="D4" t="n">
-        <v>15.959</v>
+        <v>39.476</v>
       </c>
       <c r="E4" t="n">
-        <v>21.575</v>
+        <v>22.601</v>
       </c>
       <c r="F4" t="n">
-        <v>18.374</v>
+        <v>21.008</v>
       </c>
       <c r="G4" t="n">
-        <v>12.767</v>
+        <v>17.471</v>
       </c>
       <c r="H4" t="n">
-        <v>8.712</v>
+        <v>20.241</v>
       </c>
       <c r="I4" t="n">
-        <v>9.093</v>
+        <v>20.134</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.005</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.471</v>
       </c>
       <c r="M4" t="n">
-        <v>10.145</v>
+        <v>18.312</v>
       </c>
       <c r="N4" t="n">
-        <v>22.249</v>
+        <v>19.901</v>
       </c>
       <c r="O4" t="n">
-        <v>21.076</v>
+        <v>17.673</v>
       </c>
       <c r="P4" t="n">
-        <v>13.361</v>
+        <v>20.358</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.733</v>
+        <v>20.846</v>
       </c>
       <c r="R4" t="n">
-        <v>13.81</v>
+        <v>20.317</v>
       </c>
       <c r="S4" t="n">
-        <v>15.18</v>
+        <v>19.825</v>
       </c>
       <c r="T4" t="n">
-        <v>17.114</v>
+        <v>19.127</v>
       </c>
       <c r="U4" t="n">
-        <v>19.734</v>
+        <v>18.076</v>
       </c>
       <c r="V4" t="n">
-        <v>22.425</v>
+        <v>20.228</v>
       </c>
       <c r="W4" t="n">
-        <v>22.462</v>
+        <v>20.02</v>
       </c>
       <c r="X4" t="n">
-        <v>23.171</v>
+        <v>18.868</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.139</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="5">
@@ -2207,76 +2207,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.843</v>
+        <v>14.825</v>
       </c>
       <c r="C5" t="n">
-        <v>7.219</v>
+        <v>18.969</v>
       </c>
       <c r="D5" t="n">
-        <v>14.385</v>
+        <v>26.552</v>
       </c>
       <c r="E5" t="n">
-        <v>17.161</v>
+        <v>15.635</v>
       </c>
       <c r="F5" t="n">
-        <v>14.161</v>
+        <v>15.583</v>
       </c>
       <c r="G5" t="n">
-        <v>11.511</v>
+        <v>16.758</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>18.924</v>
       </c>
       <c r="I5" t="n">
-        <v>9.727</v>
+        <v>13.387</v>
       </c>
       <c r="J5" t="n">
-        <v>14.848</v>
+        <v>20.843</v>
       </c>
       <c r="K5" t="n">
-        <v>4.136</v>
+        <v>17.177</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>18.433</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>20.34</v>
       </c>
       <c r="N5" t="n">
-        <v>19.819</v>
+        <v>19.871</v>
       </c>
       <c r="O5" t="n">
-        <v>21.198</v>
+        <v>16.199</v>
       </c>
       <c r="P5" t="n">
-        <v>22.271</v>
+        <v>20.192</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.58</v>
+        <v>21.366</v>
       </c>
       <c r="R5" t="n">
-        <v>20.52</v>
+        <v>16.508</v>
       </c>
       <c r="S5" t="n">
-        <v>19.682</v>
+        <v>19.073</v>
       </c>
       <c r="T5" t="n">
-        <v>21.941</v>
+        <v>17.715</v>
       </c>
       <c r="U5" t="n">
-        <v>22.898</v>
+        <v>18.257</v>
       </c>
       <c r="V5" t="n">
-        <v>23.274</v>
+        <v>20.109</v>
       </c>
       <c r="W5" t="n">
-        <v>22.641</v>
+        <v>20.168</v>
       </c>
       <c r="X5" t="n">
-        <v>23.362</v>
+        <v>17.782</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2286,76 +2286,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.237</v>
+        <v>12.242</v>
       </c>
       <c r="C6" t="n">
-        <v>11.42</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13.284</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.534</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.677</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.456</v>
+        <v>17.163</v>
       </c>
       <c r="H6" t="n">
-        <v>19.66</v>
+        <v>19.066</v>
       </c>
       <c r="I6" t="n">
-        <v>20.24</v>
+        <v>33.465</v>
       </c>
       <c r="J6" t="n">
-        <v>20.873</v>
+        <v>19.819</v>
       </c>
       <c r="K6" t="n">
-        <v>19.062</v>
+        <v>18.356</v>
       </c>
       <c r="L6" t="n">
-        <v>4.294</v>
+        <v>18.192</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>16.968</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>20.547</v>
       </c>
       <c r="O6" t="n">
-        <v>4.374</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>22.111</v>
+        <v>19.378</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.063</v>
+        <v>20.878</v>
       </c>
       <c r="R6" t="n">
-        <v>21.364</v>
+        <v>25.206</v>
       </c>
       <c r="S6" t="n">
-        <v>20.092</v>
+        <v>18.433</v>
       </c>
       <c r="T6" t="n">
-        <v>21.141</v>
+        <v>17.504</v>
       </c>
       <c r="U6" t="n">
-        <v>21.982</v>
+        <v>18.987</v>
       </c>
       <c r="V6" t="n">
-        <v>22.193</v>
+        <v>19.185</v>
       </c>
       <c r="W6" t="n">
-        <v>23.274</v>
+        <v>20.012</v>
       </c>
       <c r="X6" t="n">
-        <v>23.018</v>
+        <v>19.472</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.031</v>
+        <v>12.808</v>
       </c>
     </row>
     <row r="7">
@@ -2365,76 +2365,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.299</v>
+        <v>21.08</v>
       </c>
       <c r="C7" t="n">
-        <v>10.007</v>
+        <v>21.314</v>
       </c>
       <c r="D7" t="n">
-        <v>15.446</v>
+        <v>26.441</v>
       </c>
       <c r="E7" t="n">
-        <v>7.501</v>
+        <v>11.588</v>
       </c>
       <c r="F7" t="n">
-        <v>7.961</v>
+        <v>13.404</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>21.074</v>
       </c>
       <c r="H7" t="n">
-        <v>12.381</v>
+        <v>18.597</v>
       </c>
       <c r="I7" t="n">
-        <v>19.448</v>
+        <v>28.83</v>
       </c>
       <c r="J7" t="n">
-        <v>19.725</v>
+        <v>20.389</v>
       </c>
       <c r="K7" t="n">
-        <v>19.929</v>
+        <v>17.603</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>20.976</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>21.498</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>20.558</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>16.843</v>
       </c>
       <c r="P7" t="n">
-        <v>18.44</v>
+        <v>17.603</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.262</v>
+        <v>19.577</v>
       </c>
       <c r="R7" t="n">
-        <v>18.688</v>
+        <v>33.377</v>
       </c>
       <c r="S7" t="n">
-        <v>18.286</v>
+        <v>18.711</v>
       </c>
       <c r="T7" t="n">
-        <v>20.917</v>
+        <v>17.595</v>
       </c>
       <c r="U7" t="n">
-        <v>20.804</v>
+        <v>18.054</v>
       </c>
       <c r="V7" t="n">
-        <v>21.782</v>
+        <v>19.291</v>
       </c>
       <c r="W7" t="n">
-        <v>19.46</v>
+        <v>18.378</v>
       </c>
       <c r="X7" t="n">
-        <v>21.129</v>
+        <v>22.242</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.791</v>
+        <v>18.865</v>
       </c>
     </row>
     <row r="8">
@@ -2444,76 +2444,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>18.565</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>19.991</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17.788</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8.118</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>9.855</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>18.542</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>18.809</v>
       </c>
       <c r="I8" t="n">
-        <v>1.526</v>
+        <v>33.465</v>
       </c>
       <c r="J8" t="n">
-        <v>17.965</v>
+        <v>20.675</v>
       </c>
       <c r="K8" t="n">
-        <v>13.698</v>
+        <v>18.012</v>
       </c>
       <c r="L8" t="n">
-        <v>15.789</v>
+        <v>20.998</v>
       </c>
       <c r="M8" t="n">
-        <v>14.474</v>
+        <v>18.479</v>
       </c>
       <c r="N8" t="n">
-        <v>8.346</v>
+        <v>15.112</v>
       </c>
       <c r="O8" t="n">
-        <v>3.943</v>
+        <v>33.421</v>
       </c>
       <c r="P8" t="n">
-        <v>21.612</v>
+        <v>18.223</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.252</v>
+        <v>20</v>
       </c>
       <c r="R8" t="n">
-        <v>19.647</v>
+        <v>33.465</v>
       </c>
       <c r="S8" t="n">
-        <v>18.875</v>
+        <v>18.201</v>
       </c>
       <c r="T8" t="n">
-        <v>20.917</v>
+        <v>17.185</v>
       </c>
       <c r="U8" t="n">
-        <v>18.262</v>
+        <v>17.901</v>
       </c>
       <c r="V8" t="n">
-        <v>18.286</v>
+        <v>19.24</v>
       </c>
       <c r="W8" t="n">
-        <v>20.128</v>
+        <v>8.56</v>
       </c>
       <c r="X8" t="n">
-        <v>19.408</v>
+        <v>19.694</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.926</v>
+        <v>20.805</v>
       </c>
     </row>
     <row r="9">
@@ -2523,76 +2523,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.731</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.702</v>
+        <v>19.712</v>
       </c>
       <c r="E9" t="n">
-        <v>7.659</v>
+        <v>17.139</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16.731</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>16.677</v>
       </c>
       <c r="H9" t="n">
-        <v>13.4</v>
+        <v>19.048</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>33.465</v>
       </c>
       <c r="J9" t="n">
-        <v>16.149</v>
+        <v>19.666</v>
       </c>
       <c r="K9" t="n">
-        <v>8.646000000000001</v>
+        <v>17.686</v>
       </c>
       <c r="L9" t="n">
-        <v>16.667</v>
+        <v>18.334</v>
       </c>
       <c r="M9" t="n">
-        <v>19.811</v>
+        <v>33.509</v>
       </c>
       <c r="N9" t="n">
-        <v>20.174</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>18.106</v>
+        <v>16.843</v>
       </c>
       <c r="P9" t="n">
-        <v>19.009</v>
+        <v>20.315</v>
       </c>
       <c r="Q9" t="n">
-        <v>18.462</v>
+        <v>21.108</v>
       </c>
       <c r="R9" t="n">
-        <v>19.377</v>
+        <v>11.412</v>
       </c>
       <c r="S9" t="n">
-        <v>19.377</v>
+        <v>18.427</v>
       </c>
       <c r="T9" t="n">
-        <v>18.115</v>
+        <v>17.613</v>
       </c>
       <c r="U9" t="n">
-        <v>20.101</v>
+        <v>17.103</v>
       </c>
       <c r="V9" t="n">
-        <v>20.895</v>
+        <v>19.264</v>
       </c>
       <c r="W9" t="n">
-        <v>21.65</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.788</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.848</v>
+        <v>20.385</v>
       </c>
     </row>
     <row r="10">
@@ -2605,73 +2605,73 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.519</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.491</v>
+        <v>26.558</v>
       </c>
       <c r="E10" t="n">
-        <v>14.479</v>
+        <v>23.335</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.958</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>17.251</v>
       </c>
       <c r="H10" t="n">
-        <v>10.694</v>
+        <v>19.011</v>
       </c>
       <c r="I10" t="n">
-        <v>19.728</v>
+        <v>33.509</v>
       </c>
       <c r="J10" t="n">
-        <v>18.426</v>
+        <v>19.46</v>
       </c>
       <c r="K10" t="n">
-        <v>14.402</v>
+        <v>17.42</v>
       </c>
       <c r="L10" t="n">
-        <v>23.652</v>
+        <v>19.419</v>
       </c>
       <c r="M10" t="n">
-        <v>20.536</v>
+        <v>23.423</v>
       </c>
       <c r="N10" t="n">
-        <v>20.519</v>
+        <v>14.55</v>
       </c>
       <c r="O10" t="n">
-        <v>21.256</v>
+        <v>17.048</v>
       </c>
       <c r="P10" t="n">
-        <v>21.232</v>
+        <v>20.312</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.702</v>
+        <v>20.395</v>
       </c>
       <c r="R10" t="n">
-        <v>21.198</v>
+        <v>16.726</v>
       </c>
       <c r="S10" t="n">
-        <v>20.853</v>
+        <v>18.89</v>
       </c>
       <c r="T10" t="n">
-        <v>20.491</v>
+        <v>19.551</v>
       </c>
       <c r="U10" t="n">
-        <v>20.159</v>
+        <v>18.197</v>
       </c>
       <c r="V10" t="n">
-        <v>15.892</v>
+        <v>19.162</v>
       </c>
       <c r="W10" t="n">
-        <v>11.478</v>
+        <v>13.664</v>
       </c>
       <c r="X10" t="n">
-        <v>12.525</v>
+        <v>14.373</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>20.192</v>
       </c>
     </row>
     <row r="11">
@@ -2687,70 +2687,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.428000000000001</v>
+        <v>24.294</v>
       </c>
       <c r="E11" t="n">
-        <v>16.341</v>
+        <v>21.387</v>
       </c>
       <c r="F11" t="n">
-        <v>18.934</v>
+        <v>21.291</v>
       </c>
       <c r="G11" t="n">
-        <v>18.819</v>
+        <v>17.704</v>
       </c>
       <c r="H11" t="n">
-        <v>17.444</v>
+        <v>19.062</v>
       </c>
       <c r="I11" t="n">
-        <v>6.33</v>
+        <v>33.509</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>19.615</v>
       </c>
       <c r="K11" t="n">
-        <v>11.417</v>
+        <v>16.462</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>20.433</v>
       </c>
       <c r="M11" t="n">
-        <v>12.593</v>
+        <v>19.319</v>
       </c>
       <c r="N11" t="n">
-        <v>11.15</v>
+        <v>19.096</v>
       </c>
       <c r="O11" t="n">
-        <v>11.362</v>
+        <v>16.796</v>
       </c>
       <c r="P11" t="n">
-        <v>10.446</v>
+        <v>18.894</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.417</v>
+        <v>18.282</v>
       </c>
       <c r="R11" t="n">
-        <v>10.531</v>
+        <v>17.734</v>
       </c>
       <c r="S11" t="n">
-        <v>9.194000000000001</v>
+        <v>17.881</v>
       </c>
       <c r="T11" t="n">
-        <v>7.608</v>
+        <v>21.108</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>20.886</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>17.406</v>
       </c>
       <c r="W11" t="n">
-        <v>15.053</v>
+        <v>18.919</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>20.565</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.559</v>
+        <v>20.505</v>
       </c>
     </row>
     <row r="12">
@@ -2763,73 +2763,73 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.714</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>25.441</v>
       </c>
       <c r="E12" t="n">
-        <v>1.41</v>
+        <v>23.289</v>
       </c>
       <c r="F12" t="n">
-        <v>7.516</v>
+        <v>22.482</v>
       </c>
       <c r="G12" t="n">
-        <v>14.878</v>
+        <v>17.56</v>
       </c>
       <c r="H12" t="n">
-        <v>7.34</v>
+        <v>19.231</v>
       </c>
       <c r="I12" t="n">
-        <v>4.545</v>
+        <v>33.509</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>19.912</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>14.478</v>
       </c>
       <c r="L12" t="n">
-        <v>5.113</v>
+        <v>19.847</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>22.214</v>
       </c>
       <c r="N12" t="n">
-        <v>2.643</v>
+        <v>17.596</v>
       </c>
       <c r="O12" t="n">
-        <v>2.582</v>
+        <v>18.433</v>
       </c>
       <c r="P12" t="n">
-        <v>2.727</v>
+        <v>17.275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.672</v>
+        <v>15.999</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.309</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>10.328</v>
       </c>
       <c r="T12" t="n">
-        <v>4.924</v>
+        <v>21.054</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>20.717</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>13.769</v>
       </c>
       <c r="W12" t="n">
-        <v>1.494</v>
+        <v>18.406</v>
       </c>
       <c r="X12" t="n">
-        <v>18.031</v>
+        <v>21.837</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.677</v>
+        <v>19.551</v>
       </c>
     </row>
     <row r="13">
@@ -2842,73 +2842,73 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>16.177</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.017</v>
+        <v>17.519</v>
       </c>
       <c r="E13" t="n">
-        <v>3.212</v>
+        <v>12.305</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.501</v>
       </c>
       <c r="G13" t="n">
-        <v>4.47</v>
+        <v>13.724</v>
       </c>
       <c r="H13" t="n">
-        <v>3.471</v>
+        <v>15.941</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.098</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>16.03</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10.143</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>15.404</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>17.641</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>11.395</v>
       </c>
       <c r="O13" t="n">
-        <v>2.749</v>
+        <v>14.915</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>15.344</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>11.359</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.482</v>
       </c>
       <c r="S13" t="n">
-        <v>10.66</v>
+        <v>20.063</v>
       </c>
       <c r="T13" t="n">
-        <v>8.427</v>
+        <v>15.504</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>14.945</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>10.414</v>
+        <v>12.665</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.778</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.925</v>
       </c>
     </row>
     <row r="14">
@@ -2918,46 +2918,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.614</v>
+        <v>15.063</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>16.848</v>
       </c>
       <c r="D14" t="n">
-        <v>2.483</v>
+        <v>17.702</v>
       </c>
       <c r="E14" t="n">
-        <v>7.123</v>
+        <v>10.487</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>11.791</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14.489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>15.77</v>
       </c>
       <c r="K14" t="n">
-        <v>4.005</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>26.585</v>
       </c>
       <c r="N14" t="n">
-        <v>10.103</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.666</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2969,25 +2969,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.098</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.498</v>
       </c>
       <c r="U14" t="n">
-        <v>8.038</v>
+        <v>15.863</v>
       </c>
       <c r="V14" t="n">
-        <v>12.568</v>
+        <v>10.196</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>16.938</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.565</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.869</v>
+        <v>14.425</v>
       </c>
     </row>
     <row r="15">
@@ -2997,76 +2997,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.144</v>
+        <v>21.443</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16.85</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11.199</v>
       </c>
       <c r="E15" t="n">
-        <v>5.63</v>
+        <v>22.579</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.72</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15.991</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>16.633</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.487</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.347</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14.851</v>
       </c>
       <c r="L15" t="n">
-        <v>14.992</v>
+        <v>13.747</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>15.561</v>
       </c>
       <c r="N15" t="n">
-        <v>9.058999999999999</v>
+        <v>14.963</v>
       </c>
       <c r="O15" t="n">
-        <v>16.931</v>
+        <v>15.248</v>
       </c>
       <c r="P15" t="n">
-        <v>9.584</v>
+        <v>15.193</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>13.996</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.094</v>
       </c>
       <c r="S15" t="n">
-        <v>7.421</v>
+        <v>11.217</v>
       </c>
       <c r="T15" t="n">
-        <v>12.153</v>
+        <v>15.531</v>
       </c>
       <c r="U15" t="n">
-        <v>12.809</v>
+        <v>17.646</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>15.858</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>14.601</v>
       </c>
       <c r="X15" t="n">
-        <v>13.328</v>
+        <v>17.66</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.189</v>
+        <v>17.424</v>
       </c>
     </row>
     <row r="16">
@@ -3076,76 +3076,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20.595</v>
       </c>
       <c r="C16" t="n">
-        <v>16.195</v>
+        <v>17.538</v>
       </c>
       <c r="D16" t="n">
-        <v>17.659</v>
+        <v>11.187</v>
       </c>
       <c r="E16" t="n">
-        <v>11.973</v>
+        <v>23.239</v>
       </c>
       <c r="F16" t="n">
-        <v>9.657</v>
+        <v>22.241</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.332</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>17.606</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.373</v>
       </c>
       <c r="J16" t="n">
-        <v>12.902</v>
+        <v>15.905</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.267</v>
       </c>
       <c r="L16" t="n">
-        <v>11.759</v>
+        <v>14.357</v>
       </c>
       <c r="M16" t="n">
-        <v>16.424</v>
+        <v>17.373</v>
       </c>
       <c r="N16" t="n">
-        <v>14.131</v>
+        <v>18.261</v>
       </c>
       <c r="O16" t="n">
-        <v>9.893000000000001</v>
+        <v>18.407</v>
       </c>
       <c r="P16" t="n">
-        <v>15.894</v>
+        <v>17.342</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.13</v>
+        <v>17.779</v>
       </c>
       <c r="R16" t="n">
-        <v>8.815</v>
+        <v>17.95</v>
       </c>
       <c r="S16" t="n">
-        <v>9.686999999999999</v>
+        <v>14.347</v>
       </c>
       <c r="T16" t="n">
-        <v>7.059</v>
+        <v>15.448</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16.14</v>
       </c>
       <c r="V16" t="n">
-        <v>11.808</v>
+        <v>16.836</v>
       </c>
       <c r="W16" t="n">
-        <v>15.073</v>
+        <v>14.564</v>
       </c>
       <c r="X16" t="n">
-        <v>11.939</v>
+        <v>17.196</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.971</v>
+        <v>16.202</v>
       </c>
     </row>
     <row r="17">
@@ -3155,76 +3155,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.487</v>
+        <v>10.918</v>
       </c>
       <c r="C17" t="n">
-        <v>18.103</v>
+        <v>9.907</v>
       </c>
       <c r="D17" t="n">
-        <v>18.038</v>
+        <v>3.734</v>
       </c>
       <c r="E17" t="n">
-        <v>17.151</v>
+        <v>11.484</v>
       </c>
       <c r="F17" t="n">
-        <v>20.21</v>
+        <v>12.984</v>
       </c>
       <c r="G17" t="n">
-        <v>12.849</v>
+        <v>14.817</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>13.315</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12.792</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>14.511</v>
       </c>
       <c r="K17" t="n">
-        <v>14.317</v>
+        <v>15.193</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>12.665</v>
       </c>
       <c r="M17" t="n">
-        <v>2.544</v>
+        <v>14.421</v>
       </c>
       <c r="N17" t="n">
-        <v>9.314</v>
+        <v>14.656</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>13.953</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.679</v>
+        <v>13.553</v>
       </c>
       <c r="R17" t="n">
-        <v>9.641</v>
+        <v>13.851</v>
       </c>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>12.707</v>
       </c>
       <c r="T17" t="n">
-        <v>1.297</v>
+        <v>12.883</v>
       </c>
       <c r="U17" t="n">
-        <v>7.186</v>
+        <v>14.051</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>14.617</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>14.373</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>14.974</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>13.294</v>
       </c>
     </row>
   </sheetData>
@@ -3375,76 +3375,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.523</v>
+        <v>57.791</v>
       </c>
       <c r="C2" t="n">
-        <v>54.99</v>
+        <v>55.402</v>
       </c>
       <c r="D2" t="n">
-        <v>61.457</v>
+        <v>47.197</v>
       </c>
       <c r="E2" t="n">
-        <v>62.072</v>
+        <v>60.905</v>
       </c>
       <c r="F2" t="n">
-        <v>60.391</v>
+        <v>48.923</v>
       </c>
       <c r="G2" t="n">
-        <v>63.051</v>
+        <v>39.754</v>
       </c>
       <c r="H2" t="n">
-        <v>66.514</v>
+        <v>50.759</v>
       </c>
       <c r="I2" t="n">
-        <v>66.929</v>
+        <v>42.192</v>
       </c>
       <c r="J2" t="n">
-        <v>67.35899999999999</v>
+        <v>31.187</v>
       </c>
       <c r="K2" t="n">
-        <v>69.25700000000001</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.64100000000001</v>
+        <v>37.761</v>
       </c>
       <c r="M2" t="n">
-        <v>68.16800000000001</v>
+        <v>43.039</v>
       </c>
       <c r="N2" t="n">
-        <v>70.453</v>
+        <v>20.537</v>
       </c>
       <c r="O2" t="n">
-        <v>70.8</v>
+        <v>30.797</v>
       </c>
       <c r="P2" t="n">
-        <v>71.759</v>
+        <v>29.498</v>
       </c>
       <c r="Q2" t="n">
-        <v>71.57299999999999</v>
+        <v>28.352</v>
       </c>
       <c r="R2" t="n">
-        <v>70.8</v>
+        <v>32.187</v>
       </c>
       <c r="S2" t="n">
-        <v>71.185</v>
+        <v>29.994</v>
       </c>
       <c r="T2" t="n">
-        <v>71.529</v>
+        <v>30.251</v>
       </c>
       <c r="U2" t="n">
-        <v>71.93000000000001</v>
+        <v>30.781</v>
       </c>
       <c r="V2" t="n">
-        <v>69.35599999999999</v>
+        <v>32.46</v>
       </c>
       <c r="W2" t="n">
-        <v>68.063</v>
+        <v>26.055</v>
       </c>
       <c r="X2" t="n">
-        <v>69.402</v>
+        <v>45.356</v>
       </c>
       <c r="Y2" t="n">
-        <v>66.911</v>
+        <v>40.735</v>
       </c>
     </row>
     <row r="3">
@@ -3454,76 +3454,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.477</v>
+        <v>60.295</v>
       </c>
       <c r="C3" t="n">
-        <v>37.351</v>
+        <v>58.705</v>
       </c>
       <c r="D3" t="n">
-        <v>56.943</v>
+        <v>49.796</v>
       </c>
       <c r="E3" t="n">
-        <v>63.782</v>
+        <v>64.279</v>
       </c>
       <c r="F3" t="n">
-        <v>61.8</v>
+        <v>55.039</v>
       </c>
       <c r="G3" t="n">
-        <v>66.17</v>
+        <v>44.582</v>
       </c>
       <c r="H3" t="n">
-        <v>62.3</v>
+        <v>55.652</v>
       </c>
       <c r="I3" t="n">
-        <v>59.681</v>
+        <v>49.006</v>
       </c>
       <c r="J3" t="n">
-        <v>61.142</v>
+        <v>41.517</v>
       </c>
       <c r="K3" t="n">
-        <v>51.692</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67.90900000000001</v>
+        <v>44.822</v>
       </c>
       <c r="M3" t="n">
-        <v>73.136</v>
+        <v>47.366</v>
       </c>
       <c r="N3" t="n">
-        <v>71.759</v>
+        <v>37.767</v>
       </c>
       <c r="O3" t="n">
-        <v>72.56699999999999</v>
+        <v>39.044</v>
       </c>
       <c r="P3" t="n">
-        <v>73.91800000000001</v>
+        <v>40.076</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.242</v>
+        <v>36.321</v>
       </c>
       <c r="R3" t="n">
-        <v>74.527</v>
+        <v>40.039</v>
       </c>
       <c r="S3" t="n">
-        <v>72.63800000000001</v>
+        <v>38.834</v>
       </c>
       <c r="T3" t="n">
-        <v>72.462</v>
+        <v>39</v>
       </c>
       <c r="U3" t="n">
-        <v>73.304</v>
+        <v>39.572</v>
       </c>
       <c r="V3" t="n">
-        <v>72.56699999999999</v>
+        <v>42.192</v>
       </c>
       <c r="W3" t="n">
-        <v>68.521</v>
+        <v>38.744</v>
       </c>
       <c r="X3" t="n">
-        <v>69.464</v>
+        <v>47.051</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.334</v>
+        <v>45.741</v>
       </c>
     </row>
     <row r="4">
@@ -3533,76 +3533,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.219</v>
+        <v>60.114</v>
       </c>
       <c r="C4" t="n">
-        <v>36.774</v>
+        <v>60.671</v>
       </c>
       <c r="D4" t="n">
-        <v>53.681</v>
+        <v>51.348</v>
       </c>
       <c r="E4" t="n">
-        <v>63.286</v>
+        <v>67.42700000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>55.122</v>
+        <v>56.53</v>
       </c>
       <c r="G4" t="n">
-        <v>55.324</v>
+        <v>45.265</v>
       </c>
       <c r="H4" t="n">
-        <v>58.08</v>
+        <v>53.134</v>
       </c>
       <c r="I4" t="n">
-        <v>86.379</v>
+        <v>46.255</v>
       </c>
       <c r="J4" t="n">
-        <v>28.422</v>
+        <v>44.634</v>
       </c>
       <c r="K4" t="n">
-        <v>15.309</v>
+        <v>35.9</v>
       </c>
       <c r="L4" t="n">
-        <v>20.037</v>
+        <v>45.491</v>
       </c>
       <c r="M4" t="n">
-        <v>49.035</v>
+        <v>41.75</v>
       </c>
       <c r="N4" t="n">
-        <v>71.69199999999999</v>
+        <v>44.445</v>
       </c>
       <c r="O4" t="n">
-        <v>72.009</v>
+        <v>33.382</v>
       </c>
       <c r="P4" t="n">
-        <v>73.48699999999999</v>
+        <v>43.344</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.66500000000001</v>
+        <v>40.025</v>
       </c>
       <c r="R4" t="n">
-        <v>75.955</v>
+        <v>35.946</v>
       </c>
       <c r="S4" t="n">
-        <v>72.866</v>
+        <v>38.484</v>
       </c>
       <c r="T4" t="n">
-        <v>70.901</v>
+        <v>39.62</v>
       </c>
       <c r="U4" t="n">
-        <v>69.06999999999999</v>
+        <v>38.933</v>
       </c>
       <c r="V4" t="n">
-        <v>68.59399999999999</v>
+        <v>41.336</v>
       </c>
       <c r="W4" t="n">
-        <v>66.066</v>
+        <v>41.708</v>
       </c>
       <c r="X4" t="n">
-        <v>65.652</v>
+        <v>37.735</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.631</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="5">
@@ -3612,76 +3612,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.505</v>
+        <v>41.695</v>
       </c>
       <c r="C5" t="n">
-        <v>28.877</v>
+        <v>39.518</v>
       </c>
       <c r="D5" t="n">
-        <v>47.079</v>
+        <v>35.164</v>
       </c>
       <c r="E5" t="n">
-        <v>52.913</v>
+        <v>39.498</v>
       </c>
       <c r="F5" t="n">
-        <v>48.552</v>
+        <v>38.438</v>
       </c>
       <c r="G5" t="n">
-        <v>66.18899999999999</v>
+        <v>45.245</v>
       </c>
       <c r="H5" t="n">
-        <v>11.114</v>
+        <v>49.799</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>24.097</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>43.641</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>42.083</v>
       </c>
       <c r="L5" t="n">
-        <v>20.581</v>
+        <v>45.424</v>
       </c>
       <c r="M5" t="n">
-        <v>24.667</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>59.458</v>
+        <v>47.261</v>
       </c>
       <c r="O5" t="n">
-        <v>61.829</v>
+        <v>32.397</v>
       </c>
       <c r="P5" t="n">
-        <v>66.812</v>
+        <v>48.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.081</v>
+        <v>47.7</v>
       </c>
       <c r="R5" t="n">
-        <v>66.121</v>
+        <v>28.888</v>
       </c>
       <c r="S5" t="n">
-        <v>66.919</v>
+        <v>41.613</v>
       </c>
       <c r="T5" t="n">
-        <v>67.39</v>
+        <v>41.682</v>
       </c>
       <c r="U5" t="n">
-        <v>64.879</v>
+        <v>38.035</v>
       </c>
       <c r="V5" t="n">
-        <v>62.063</v>
+        <v>41.894</v>
       </c>
       <c r="W5" t="n">
-        <v>63.393</v>
+        <v>41.887</v>
       </c>
       <c r="X5" t="n">
-        <v>65.41500000000001</v>
+        <v>32.008</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3691,76 +3691,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.755</v>
+        <v>12.242</v>
       </c>
       <c r="C6" t="n">
-        <v>39.97</v>
+        <v>13.95</v>
       </c>
       <c r="D6" t="n">
-        <v>44.279</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>51.675</v>
+        <v>37.221</v>
       </c>
       <c r="F6" t="n">
-        <v>90.32299999999999</v>
+        <v>32.97</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>43.36</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>50.355</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>42.575</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>46.207</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>47.961</v>
       </c>
       <c r="M6" t="n">
-        <v>23.264</v>
+        <v>40.724</v>
       </c>
       <c r="N6" t="n">
-        <v>15.44</v>
+        <v>51.587</v>
       </c>
       <c r="O6" t="n">
-        <v>32.802</v>
+        <v>18.722</v>
       </c>
       <c r="P6" t="n">
-        <v>62.313</v>
+        <v>49.687</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.876</v>
+        <v>51.981</v>
       </c>
       <c r="R6" t="n">
-        <v>64.092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>65.755</v>
+        <v>45.424</v>
       </c>
       <c r="T6" t="n">
-        <v>67.387</v>
+        <v>43.76</v>
       </c>
       <c r="U6" t="n">
-        <v>64.788</v>
+        <v>37.975</v>
       </c>
       <c r="V6" t="n">
-        <v>62.141</v>
+        <v>42.542</v>
       </c>
       <c r="W6" t="n">
-        <v>62.063</v>
+        <v>42.425</v>
       </c>
       <c r="X6" t="n">
-        <v>62.479</v>
+        <v>41.191</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3770,76 +3770,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.979</v>
+        <v>59.242</v>
       </c>
       <c r="C7" t="n">
-        <v>36.692</v>
+        <v>62.498</v>
       </c>
       <c r="D7" t="n">
-        <v>50.972</v>
+        <v>62.418</v>
       </c>
       <c r="E7" t="n">
-        <v>55.005</v>
+        <v>88.41200000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>68.998</v>
+        <v>71.858</v>
       </c>
       <c r="G7" t="n">
-        <v>24.263</v>
+        <v>41.395</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49.591</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.962</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>48.267</v>
       </c>
       <c r="L7" t="n">
-        <v>3.482</v>
+        <v>55.683</v>
       </c>
       <c r="M7" t="n">
-        <v>20.513</v>
+        <v>52.732</v>
       </c>
       <c r="N7" t="n">
-        <v>15.788</v>
+        <v>54.954</v>
       </c>
       <c r="O7" t="n">
-        <v>21.87</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>57.162</v>
+        <v>48.959</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.19799999999999</v>
+        <v>52.058</v>
       </c>
       <c r="R7" t="n">
-        <v>65.40900000000001</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>64.001</v>
+        <v>46.155</v>
       </c>
       <c r="T7" t="n">
-        <v>64.843</v>
+        <v>43.525</v>
       </c>
       <c r="U7" t="n">
-        <v>64.14400000000001</v>
+        <v>39.72</v>
       </c>
       <c r="V7" t="n">
-        <v>63.67</v>
+        <v>43.406</v>
       </c>
       <c r="W7" t="n">
-        <v>61.919</v>
+        <v>39.054</v>
       </c>
       <c r="X7" t="n">
-        <v>61.763</v>
+        <v>48.654</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.888</v>
+        <v>41.011</v>
       </c>
     </row>
     <row r="8">
@@ -3849,76 +3849,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.803</v>
+        <v>47.909</v>
       </c>
       <c r="C8" t="n">
-        <v>27.078</v>
+        <v>48.087</v>
       </c>
       <c r="D8" t="n">
-        <v>34.635</v>
+        <v>42.165</v>
       </c>
       <c r="E8" t="n">
-        <v>20.223</v>
+        <v>55.083</v>
       </c>
       <c r="F8" t="n">
-        <v>22.616</v>
+        <v>53.588</v>
       </c>
       <c r="G8" t="n">
-        <v>28.046</v>
+        <v>42.381</v>
       </c>
       <c r="H8" t="n">
-        <v>27.708</v>
+        <v>49.113</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>43.418</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>49.268</v>
       </c>
       <c r="L8" t="n">
-        <v>84.211</v>
+        <v>54.277</v>
       </c>
       <c r="M8" t="n">
-        <v>50.66</v>
+        <v>44.604</v>
       </c>
       <c r="N8" t="n">
-        <v>39.645</v>
+        <v>39.039</v>
       </c>
       <c r="O8" t="n">
-        <v>29.571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>59.432</v>
+        <v>51.312</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.172</v>
+        <v>56.079</v>
       </c>
       <c r="R8" t="n">
-        <v>65.491</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>62.916</v>
+        <v>46.445</v>
       </c>
       <c r="T8" t="n">
-        <v>64.843</v>
+        <v>44.318</v>
       </c>
       <c r="U8" t="n">
-        <v>66.19799999999999</v>
+        <v>41.068</v>
       </c>
       <c r="V8" t="n">
-        <v>64.001</v>
+        <v>44.894</v>
       </c>
       <c r="W8" t="n">
-        <v>62.396</v>
+        <v>17.12</v>
       </c>
       <c r="X8" t="n">
-        <v>60.164</v>
+        <v>43.327</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.733</v>
+        <v>48.867</v>
       </c>
     </row>
     <row r="9">
@@ -3928,76 +3928,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.004</v>
+        <v>36.915</v>
       </c>
       <c r="C9" t="n">
-        <v>19.02</v>
+        <v>29.022</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>46.35</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>40.87</v>
       </c>
       <c r="F9" t="n">
-        <v>21.775</v>
+        <v>43.759</v>
       </c>
       <c r="G9" t="n">
-        <v>4.608</v>
+        <v>44.194</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>48.678</v>
       </c>
       <c r="I9" t="n">
-        <v>3.181</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>45.042</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>49.307</v>
       </c>
       <c r="L9" t="n">
-        <v>83.333</v>
+        <v>47.779</v>
       </c>
       <c r="M9" t="n">
-        <v>61.233</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>60.522</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>57.938</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>62.728</v>
+        <v>50.327</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.642</v>
+        <v>55.648</v>
       </c>
       <c r="R9" t="n">
-        <v>62.006</v>
+        <v>28.53</v>
       </c>
       <c r="S9" t="n">
-        <v>62.006</v>
+        <v>45.726</v>
       </c>
       <c r="T9" t="n">
-        <v>64.40900000000001</v>
+        <v>43.054</v>
       </c>
       <c r="U9" t="n">
-        <v>64.32299999999999</v>
+        <v>41.249</v>
       </c>
       <c r="V9" t="n">
-        <v>66.863</v>
+        <v>44.032</v>
       </c>
       <c r="W9" t="n">
-        <v>64.95099999999999</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>59.15</v>
+        <v>27.128</v>
       </c>
       <c r="Y9" t="n">
-        <v>56.951</v>
+        <v>49.021</v>
       </c>
     </row>
     <row r="10">
@@ -4007,76 +4007,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.231</v>
+        <v>50.566</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.005</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>64.691</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67.67100000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>61.71</v>
       </c>
       <c r="G10" t="n">
-        <v>7.883</v>
+        <v>45.001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>48.343</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>47.259</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>45.808</v>
       </c>
       <c r="L10" t="n">
-        <v>70.955</v>
+        <v>46.835</v>
       </c>
       <c r="M10" t="n">
-        <v>59.895</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>61.558</v>
+        <v>34.555</v>
       </c>
       <c r="O10" t="n">
-        <v>63.769</v>
+        <v>38.359</v>
       </c>
       <c r="P10" t="n">
-        <v>65.627</v>
+        <v>49.598</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.214</v>
+        <v>50.06</v>
       </c>
       <c r="R10" t="n">
-        <v>61.829</v>
+        <v>39.884</v>
       </c>
       <c r="S10" t="n">
-        <v>64.456</v>
+        <v>41.756</v>
       </c>
       <c r="T10" t="n">
-        <v>63.336</v>
+        <v>42.722</v>
       </c>
       <c r="U10" t="n">
-        <v>62.158</v>
+        <v>45.493</v>
       </c>
       <c r="V10" t="n">
-        <v>50.854</v>
+        <v>41.809</v>
       </c>
       <c r="W10" t="n">
-        <v>42.634</v>
+        <v>33.183</v>
       </c>
       <c r="X10" t="n">
-        <v>75.14700000000001</v>
+        <v>32.853</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.638</v>
+        <v>48.46</v>
       </c>
     </row>
     <row r="11">
@@ -4086,76 +4086,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.264</v>
+        <v>46.282</v>
       </c>
       <c r="C11" t="n">
-        <v>20.921</v>
+        <v>38.991</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60.563</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>61.31</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>57.732</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.644</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>48.473</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.58</v>
+        <v>49.528</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>42.183</v>
       </c>
       <c r="L11" t="n">
-        <v>2.924</v>
+        <v>48.017</v>
       </c>
       <c r="M11" t="n">
-        <v>41.558</v>
+        <v>46.024</v>
       </c>
       <c r="N11" t="n">
-        <v>39.025</v>
+        <v>46.873</v>
       </c>
       <c r="O11" t="n">
-        <v>39.768</v>
+        <v>44.545</v>
       </c>
       <c r="P11" t="n">
-        <v>37.867</v>
+        <v>51.015</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.458</v>
+        <v>46</v>
       </c>
       <c r="R11" t="n">
-        <v>38.176</v>
+        <v>46.476</v>
       </c>
       <c r="S11" t="n">
-        <v>34.149</v>
+        <v>33.526</v>
       </c>
       <c r="T11" t="n">
-        <v>29.163</v>
+        <v>51.694</v>
       </c>
       <c r="U11" t="n">
-        <v>9.952</v>
+        <v>53.468</v>
       </c>
       <c r="V11" t="n">
-        <v>2.89</v>
+        <v>34.812</v>
       </c>
       <c r="W11" t="n">
-        <v>70.248</v>
+        <v>48.109</v>
       </c>
       <c r="X11" t="n">
-        <v>20.749</v>
+        <v>46.541</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>47.319</v>
       </c>
     </row>
     <row r="12">
@@ -4165,76 +4165,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.208</v>
+        <v>48.956</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>40.439</v>
       </c>
       <c r="D12" t="n">
-        <v>10.199</v>
+        <v>63.269</v>
       </c>
       <c r="E12" t="n">
-        <v>16.916</v>
+        <v>66.95699999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>60.784</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>44.633</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>48.858</v>
       </c>
       <c r="I12" t="n">
-        <v>95.455</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.736</v>
+        <v>53.382</v>
       </c>
       <c r="K12" t="n">
-        <v>88</v>
+        <v>37.229</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>46.499</v>
       </c>
       <c r="M12" t="n">
-        <v>8.595000000000001</v>
+        <v>56.252</v>
       </c>
       <c r="N12" t="n">
-        <v>13.215</v>
+        <v>46.721</v>
       </c>
       <c r="O12" t="n">
-        <v>15.491</v>
+        <v>49.819</v>
       </c>
       <c r="P12" t="n">
-        <v>20.456</v>
+        <v>46.273</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.408</v>
+        <v>42.349</v>
       </c>
       <c r="R12" t="n">
-        <v>11.231</v>
+        <v>54.833</v>
       </c>
       <c r="S12" t="n">
-        <v>7.169</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>17.235</v>
+        <v>56.279</v>
       </c>
       <c r="U12" t="n">
-        <v>10.637</v>
+        <v>50.893</v>
       </c>
       <c r="V12" t="n">
-        <v>26.716</v>
+        <v>13.769</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>47.165</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>49.589</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>42.722</v>
       </c>
     </row>
     <row r="13">
@@ -4244,76 +4244,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.432</v>
+        <v>27.211</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.117</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40.879</v>
       </c>
       <c r="E13" t="n">
-        <v>25.699</v>
+        <v>32.44</v>
       </c>
       <c r="F13" t="n">
-        <v>18.35</v>
+        <v>34.878</v>
       </c>
       <c r="G13" t="n">
-        <v>46.937</v>
+        <v>35.684</v>
       </c>
       <c r="H13" t="n">
-        <v>72.89700000000001</v>
+        <v>38.26</v>
       </c>
       <c r="I13" t="n">
-        <v>20.563</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.507</v>
+        <v>40.075</v>
       </c>
       <c r="K13" t="n">
-        <v>45.46</v>
+        <v>30.43</v>
       </c>
       <c r="L13" t="n">
-        <v>51.418</v>
+        <v>36.411</v>
       </c>
       <c r="M13" t="n">
-        <v>23.894</v>
+        <v>47.41</v>
       </c>
       <c r="N13" t="n">
-        <v>10.031</v>
+        <v>31.337</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>36.611</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>33.246</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.738</v>
+        <v>34.076</v>
       </c>
       <c r="R13" t="n">
-        <v>4.5</v>
+        <v>40.639</v>
       </c>
       <c r="S13" t="n">
-        <v>26.65</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>35.114</v>
+        <v>40.311</v>
       </c>
       <c r="U13" t="n">
-        <v>14.524</v>
+        <v>37.803</v>
       </c>
       <c r="V13" t="n">
-        <v>3.196</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.661</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38.788</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.198</v>
+        <v>27.869</v>
       </c>
     </row>
     <row r="14">
@@ -4323,40 +4323,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.833</v>
+        <v>27.975</v>
       </c>
       <c r="C14" t="n">
-        <v>40.829</v>
+        <v>28.882</v>
       </c>
       <c r="D14" t="n">
-        <v>49.664</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>59.358</v>
+        <v>26.218</v>
       </c>
       <c r="F14" t="n">
-        <v>34.367</v>
+        <v>26.529</v>
       </c>
       <c r="G14" t="n">
-        <v>29.279</v>
+        <v>28.12</v>
       </c>
       <c r="H14" t="n">
-        <v>29.494</v>
+        <v>14.489</v>
       </c>
       <c r="I14" t="n">
-        <v>24.759</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>35.778</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.138999999999999</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.552</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -4365,34 +4365,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>11.395</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.849</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.957</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.872</v>
+        <v>25.098</v>
       </c>
       <c r="T14" t="n">
-        <v>20.772</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>20.392</v>
       </c>
       <c r="W14" t="n">
-        <v>4.587</v>
+        <v>25.407</v>
       </c>
       <c r="X14" t="n">
-        <v>4.36</v>
+        <v>6.565</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.244</v>
       </c>
     </row>
     <row r="15">
@@ -4402,76 +4402,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.196</v>
+        <v>58.968</v>
       </c>
       <c r="C15" t="n">
-        <v>10.569</v>
+        <v>53.027</v>
       </c>
       <c r="D15" t="n">
-        <v>2.884</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>63.319</v>
       </c>
       <c r="F15" t="n">
-        <v>14.329</v>
+        <v>59.197</v>
       </c>
       <c r="G15" t="n">
-        <v>29.052</v>
+        <v>40.512</v>
       </c>
       <c r="H15" t="n">
-        <v>34.26</v>
+        <v>38.518</v>
       </c>
       <c r="I15" t="n">
-        <v>15.465</v>
+        <v>28.394</v>
       </c>
       <c r="J15" t="n">
-        <v>26.425</v>
+        <v>40.67</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>34.653</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>34.367</v>
       </c>
       <c r="M15" t="n">
-        <v>6.218</v>
+        <v>41.768</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>34.914</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>32.841</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.061</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.195</v>
+        <v>36.605</v>
       </c>
       <c r="R15" t="n">
-        <v>1.401</v>
+        <v>37.877</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>30.445</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>35.149</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>34.364</v>
       </c>
       <c r="V15" t="n">
-        <v>9.637</v>
+        <v>29.451</v>
       </c>
       <c r="W15" t="n">
-        <v>16.554</v>
+        <v>34.511</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>37.624</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>37.336</v>
       </c>
     </row>
     <row r="16">
@@ -4481,76 +4481,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>55.9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>55.536</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.84399999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>60.956</v>
       </c>
       <c r="G16" t="n">
-        <v>1.376</v>
+        <v>40.884</v>
       </c>
       <c r="H16" t="n">
-        <v>28.738</v>
+        <v>39.438</v>
       </c>
       <c r="I16" t="n">
-        <v>11.035</v>
+        <v>33.505</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>41.352</v>
       </c>
       <c r="K16" t="n">
-        <v>10.989</v>
+        <v>44.768</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>38.285</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>44.93</v>
       </c>
       <c r="N16" t="n">
-        <v>23.914</v>
+        <v>41.256</v>
       </c>
       <c r="O16" t="n">
-        <v>28.442</v>
+        <v>41.892</v>
       </c>
       <c r="P16" t="n">
-        <v>27.815</v>
+        <v>40.687</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.694</v>
+        <v>44.447</v>
       </c>
       <c r="R16" t="n">
-        <v>12.593</v>
+        <v>45.165</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>31.563</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>30.895</v>
       </c>
       <c r="U16" t="n">
-        <v>7.317</v>
+        <v>32.28</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>33.671</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>35.851</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>37.518</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>36.667</v>
       </c>
     </row>
     <row r="17">
@@ -4560,76 +4560,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>30.328</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>32.694</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>34.452</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>36.356</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>29.634</v>
       </c>
       <c r="H17" t="n">
-        <v>5.735</v>
+        <v>28.294</v>
       </c>
       <c r="I17" t="n">
-        <v>2.885</v>
+        <v>25.583</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>29.021</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>31.652</v>
       </c>
       <c r="L17" t="n">
-        <v>8.667</v>
+        <v>31.661</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>30.445</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>29.312</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>29.649</v>
       </c>
       <c r="P17" t="n">
-        <v>10.11</v>
+        <v>26.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>26.975</v>
+        <v>31.623</v>
       </c>
       <c r="R17" t="n">
-        <v>46.6</v>
+        <v>30.473</v>
       </c>
       <c r="S17" t="n">
-        <v>41.356</v>
+        <v>27.955</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>27.605</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>25.76</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.926</v>
       </c>
       <c r="W17" t="n">
-        <v>24.729</v>
+        <v>32.853</v>
       </c>
       <c r="X17" t="n">
-        <v>32.986</v>
+        <v>31.196</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.826</v>
+        <v>31.018</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.72</v>
+        <v>22.946</v>
       </c>
       <c r="C2" t="n">
-        <v>27.413</v>
+        <v>18.82</v>
       </c>
       <c r="D2" t="n">
-        <v>18.058</v>
+        <v>16.574</v>
       </c>
       <c r="E2" t="n">
-        <v>17.238</v>
+        <v>18.927</v>
       </c>
       <c r="F2" t="n">
-        <v>18.041</v>
+        <v>32.86</v>
       </c>
       <c r="G2" t="n">
-        <v>15.168</v>
+        <v>45.522</v>
       </c>
       <c r="H2" t="n">
-        <v>10.896</v>
+        <v>29.683</v>
       </c>
       <c r="I2" t="n">
-        <v>10.761</v>
+        <v>38.386</v>
       </c>
       <c r="J2" t="n">
-        <v>11.035</v>
+        <v>54.636</v>
       </c>
       <c r="K2" t="n">
-        <v>7.246</v>
+        <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>7.525</v>
+        <v>42.848</v>
       </c>
       <c r="M2" t="n">
-        <v>9.967000000000001</v>
+        <v>36.074</v>
       </c>
       <c r="N2" t="n">
-        <v>9.224</v>
+        <v>65.77200000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.826</v>
+        <v>53.804</v>
       </c>
       <c r="P2" t="n">
-        <v>7.932</v>
+        <v>54.886</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.387</v>
+        <v>54.636</v>
       </c>
       <c r="R2" t="n">
-        <v>7.826</v>
+        <v>51.232</v>
       </c>
       <c r="S2" t="n">
-        <v>7.723</v>
+        <v>54.409</v>
       </c>
       <c r="T2" t="n">
-        <v>7.013</v>
+        <v>53.733</v>
       </c>
       <c r="U2" t="n">
-        <v>6.914</v>
+        <v>54.638</v>
       </c>
       <c r="V2" t="n">
-        <v>7.525</v>
+        <v>51.309</v>
       </c>
       <c r="W2" t="n">
-        <v>8.425000000000001</v>
+        <v>59.057</v>
       </c>
       <c r="X2" t="n">
-        <v>8.75</v>
+        <v>33.332</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.016</v>
+        <v>41.554</v>
       </c>
     </row>
     <row r="3">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.697</v>
+        <v>19.966</v>
       </c>
       <c r="C3" t="n">
-        <v>51.977</v>
+        <v>13.966</v>
       </c>
       <c r="D3" t="n">
-        <v>24.939</v>
+        <v>12.126</v>
       </c>
       <c r="E3" t="n">
-        <v>15.344</v>
+        <v>14.058</v>
       </c>
       <c r="F3" t="n">
-        <v>16.85</v>
+        <v>24.767</v>
       </c>
       <c r="G3" t="n">
-        <v>11.773</v>
+        <v>38.595</v>
       </c>
       <c r="H3" t="n">
-        <v>18.318</v>
+        <v>23.29</v>
       </c>
       <c r="I3" t="n">
-        <v>24.189</v>
+        <v>29.058</v>
       </c>
       <c r="J3" t="n">
-        <v>23.573</v>
+        <v>40.215</v>
       </c>
       <c r="K3" t="n">
-        <v>35.831</v>
+        <v>55.066</v>
       </c>
       <c r="L3" t="n">
-        <v>12.284</v>
+        <v>33.664</v>
       </c>
       <c r="M3" t="n">
-        <v>5.052</v>
+        <v>30.197</v>
       </c>
       <c r="N3" t="n">
-        <v>7.932</v>
+        <v>42.74</v>
       </c>
       <c r="O3" t="n">
-        <v>7.114</v>
+        <v>40.286</v>
       </c>
       <c r="P3" t="n">
-        <v>6.063</v>
+        <v>38.931</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.327</v>
+        <v>43.501</v>
       </c>
       <c r="R3" t="n">
-        <v>9.17</v>
+        <v>38.545</v>
       </c>
       <c r="S3" t="n">
-        <v>7.73</v>
+        <v>40.67</v>
       </c>
       <c r="T3" t="n">
-        <v>6.458</v>
+        <v>39.334</v>
       </c>
       <c r="U3" t="n">
-        <v>5.55</v>
+        <v>41.28</v>
       </c>
       <c r="V3" t="n">
-        <v>7.114</v>
+        <v>37.161</v>
       </c>
       <c r="W3" t="n">
-        <v>8.638999999999999</v>
+        <v>42.438</v>
       </c>
       <c r="X3" t="n">
-        <v>7.826</v>
+        <v>30.425</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.629</v>
+        <v>34.321</v>
       </c>
     </row>
     <row r="4">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.041</v>
+        <v>19.606</v>
       </c>
       <c r="C4" t="n">
-        <v>53.325</v>
+        <v>11.197</v>
       </c>
       <c r="D4" t="n">
-        <v>30.36</v>
+        <v>9.177</v>
       </c>
       <c r="E4" t="n">
-        <v>15.139</v>
+        <v>9.971</v>
       </c>
       <c r="F4" t="n">
-        <v>26.503</v>
+        <v>22.462</v>
       </c>
       <c r="G4" t="n">
-        <v>31.909</v>
+        <v>37.264</v>
       </c>
       <c r="H4" t="n">
-        <v>33.208</v>
+        <v>26.625</v>
       </c>
       <c r="I4" t="n">
-        <v>4.528</v>
+        <v>33.611</v>
       </c>
       <c r="J4" t="n">
-        <v>66.41</v>
+        <v>35.018</v>
       </c>
       <c r="K4" t="n">
-        <v>73.756</v>
+        <v>47.095</v>
       </c>
       <c r="L4" t="n">
-        <v>68.83199999999999</v>
+        <v>34.038</v>
       </c>
       <c r="M4" t="n">
-        <v>40.82</v>
+        <v>39.938</v>
       </c>
       <c r="N4" t="n">
-        <v>6.059</v>
+        <v>35.655</v>
       </c>
       <c r="O4" t="n">
-        <v>6.915</v>
+        <v>48.945</v>
       </c>
       <c r="P4" t="n">
-        <v>13.152</v>
+        <v>36.298</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.602</v>
+        <v>39.129</v>
       </c>
       <c r="R4" t="n">
-        <v>10.236</v>
+        <v>43.736</v>
       </c>
       <c r="S4" t="n">
-        <v>11.954</v>
+        <v>41.69</v>
       </c>
       <c r="T4" t="n">
-        <v>11.985</v>
+        <v>41.254</v>
       </c>
       <c r="U4" t="n">
-        <v>11.196</v>
+        <v>42.99</v>
       </c>
       <c r="V4" t="n">
-        <v>8.98</v>
+        <v>38.436</v>
       </c>
       <c r="W4" t="n">
-        <v>11.472</v>
+        <v>38.273</v>
       </c>
       <c r="X4" t="n">
-        <v>11.177</v>
+        <v>43.397</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.23</v>
+        <v>48.52</v>
       </c>
     </row>
     <row r="5">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.652</v>
+        <v>43.48</v>
       </c>
       <c r="C5" t="n">
-        <v>63.904</v>
+        <v>41.514</v>
       </c>
       <c r="D5" t="n">
-        <v>38.535</v>
+        <v>38.284</v>
       </c>
       <c r="E5" t="n">
-        <v>29.925</v>
+        <v>44.868</v>
       </c>
       <c r="F5" t="n">
-        <v>37.287</v>
+        <v>45.979</v>
       </c>
       <c r="G5" t="n">
-        <v>22.3</v>
+        <v>37.997</v>
       </c>
       <c r="H5" t="n">
-        <v>77.771</v>
+        <v>31.278</v>
       </c>
       <c r="I5" t="n">
-        <v>63.253</v>
+        <v>62.516</v>
       </c>
       <c r="J5" t="n">
-        <v>52.158</v>
+        <v>35.516</v>
       </c>
       <c r="K5" t="n">
-        <v>75.181</v>
+        <v>40.74</v>
       </c>
       <c r="L5" t="n">
-        <v>65.69799999999999</v>
+        <v>36.143</v>
       </c>
       <c r="M5" t="n">
-        <v>71.538</v>
+        <v>52.539</v>
       </c>
       <c r="N5" t="n">
-        <v>20.723</v>
+        <v>32.868</v>
       </c>
       <c r="O5" t="n">
-        <v>16.973</v>
+        <v>51.404</v>
       </c>
       <c r="P5" t="n">
-        <v>10.917</v>
+        <v>31.348</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.339</v>
+        <v>30.935</v>
       </c>
       <c r="R5" t="n">
-        <v>13.358</v>
+        <v>54.604</v>
       </c>
       <c r="S5" t="n">
-        <v>13.399</v>
+        <v>39.315</v>
       </c>
       <c r="T5" t="n">
-        <v>10.669</v>
+        <v>40.603</v>
       </c>
       <c r="U5" t="n">
-        <v>12.222</v>
+        <v>43.709</v>
       </c>
       <c r="V5" t="n">
-        <v>14.664</v>
+        <v>37.997</v>
       </c>
       <c r="W5" t="n">
-        <v>13.966</v>
+        <v>37.945</v>
       </c>
       <c r="X5" t="n">
-        <v>11.223</v>
+        <v>50.209</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.888</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.009</v>
+        <v>75.51600000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>48.609</v>
+        <v>86.05</v>
       </c>
       <c r="D6" t="n">
-        <v>42.438</v>
+        <v>76.038</v>
       </c>
       <c r="E6" t="n">
-        <v>33.791</v>
+        <v>59.057</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>62.32</v>
       </c>
       <c r="G6" t="n">
-        <v>82.524</v>
+        <v>39.477</v>
       </c>
       <c r="H6" t="n">
-        <v>39.752</v>
+        <v>30.579</v>
       </c>
       <c r="I6" t="n">
-        <v>36.389</v>
+        <v>33.071</v>
       </c>
       <c r="J6" t="n">
-        <v>35.123</v>
+        <v>37.606</v>
       </c>
       <c r="K6" t="n">
-        <v>41.5</v>
+        <v>35.437</v>
       </c>
       <c r="L6" t="n">
-        <v>71.374</v>
+        <v>33.846</v>
       </c>
       <c r="M6" t="n">
-        <v>65.104</v>
+        <v>42.308</v>
       </c>
       <c r="N6" t="n">
-        <v>71.32599999999999</v>
+        <v>27.866</v>
       </c>
       <c r="O6" t="n">
-        <v>62.825</v>
+        <v>81.27800000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>15.576</v>
+        <v>30.935</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.061</v>
+        <v>27.142</v>
       </c>
       <c r="R6" t="n">
-        <v>14.544</v>
+        <v>41.186</v>
       </c>
       <c r="S6" t="n">
-        <v>14.154</v>
+        <v>36.143</v>
       </c>
       <c r="T6" t="n">
-        <v>11.472</v>
+        <v>38.736</v>
       </c>
       <c r="U6" t="n">
-        <v>13.23</v>
+        <v>43.038</v>
       </c>
       <c r="V6" t="n">
-        <v>15.666</v>
+        <v>38.273</v>
       </c>
       <c r="W6" t="n">
-        <v>14.664</v>
+        <v>37.563</v>
       </c>
       <c r="X6" t="n">
-        <v>14.503</v>
+        <v>39.337</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.888</v>
+        <v>87.19199999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.72199999999999</v>
+        <v>19.678</v>
       </c>
       <c r="C7" t="n">
-        <v>53.301</v>
+        <v>16.187</v>
       </c>
       <c r="D7" t="n">
-        <v>33.582</v>
+        <v>11.141</v>
       </c>
       <c r="E7" t="n">
-        <v>37.494</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.041</v>
+        <v>14.738</v>
       </c>
       <c r="G7" t="n">
-        <v>71.32599999999999</v>
+        <v>37.531</v>
       </c>
       <c r="H7" t="n">
-        <v>58.094</v>
+        <v>31.813</v>
       </c>
       <c r="I7" t="n">
-        <v>39.773</v>
+        <v>56.755</v>
       </c>
       <c r="J7" t="n">
-        <v>38.976</v>
+        <v>36.649</v>
       </c>
       <c r="K7" t="n">
-        <v>38.4</v>
+        <v>34.129</v>
       </c>
       <c r="L7" t="n">
-        <v>82.589</v>
+        <v>23.341</v>
       </c>
       <c r="M7" t="n">
-        <v>73.333</v>
+        <v>25.77</v>
       </c>
       <c r="N7" t="n">
-        <v>72.935</v>
+        <v>24.487</v>
       </c>
       <c r="O7" t="n">
-        <v>73.756</v>
+        <v>66.31399999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>24.398</v>
+        <v>33.438</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.54</v>
+        <v>28.365</v>
       </c>
       <c r="R7" t="n">
-        <v>15.903</v>
+        <v>33.246</v>
       </c>
       <c r="S7" t="n">
-        <v>17.712</v>
+        <v>35.134</v>
       </c>
       <c r="T7" t="n">
-        <v>14.24</v>
+        <v>38.88</v>
       </c>
       <c r="U7" t="n">
-        <v>15.052</v>
+        <v>42.226</v>
       </c>
       <c r="V7" t="n">
-        <v>14.548</v>
+        <v>37.303</v>
       </c>
       <c r="W7" t="n">
-        <v>18.621</v>
+        <v>42.568</v>
       </c>
       <c r="X7" t="n">
-        <v>17.108</v>
+        <v>29.104</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.322</v>
+        <v>40.124</v>
       </c>
     </row>
     <row r="8">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.181</v>
+        <v>33.527</v>
       </c>
       <c r="C8" t="n">
-        <v>72.922</v>
+        <v>31.922</v>
       </c>
       <c r="D8" t="n">
-        <v>65.36499999999999</v>
+        <v>40.047</v>
       </c>
       <c r="E8" t="n">
-        <v>64.60899999999999</v>
+        <v>36.799</v>
       </c>
       <c r="F8" t="n">
-        <v>69.845</v>
+        <v>36.556</v>
       </c>
       <c r="G8" t="n">
-        <v>61.937</v>
+        <v>39.078</v>
       </c>
       <c r="H8" t="n">
-        <v>65.898</v>
+        <v>32.078</v>
       </c>
       <c r="I8" t="n">
-        <v>83.21299999999999</v>
+        <v>33.071</v>
       </c>
       <c r="J8" t="n">
-        <v>44.032</v>
+        <v>35.907</v>
       </c>
       <c r="K8" t="n">
-        <v>50.346</v>
+        <v>32.72</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>24.725</v>
       </c>
       <c r="M8" t="n">
-        <v>34.866</v>
+        <v>36.917</v>
       </c>
       <c r="N8" t="n">
-        <v>52.009</v>
+        <v>45.849</v>
       </c>
       <c r="O8" t="n">
-        <v>66.486</v>
+        <v>33.159</v>
       </c>
       <c r="P8" t="n">
-        <v>18.956</v>
+        <v>30.465</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.576</v>
+        <v>23.92</v>
       </c>
       <c r="R8" t="n">
-        <v>14.862</v>
+        <v>33.071</v>
       </c>
       <c r="S8" t="n">
-        <v>18.209</v>
+        <v>35.354</v>
       </c>
       <c r="T8" t="n">
-        <v>14.24</v>
+        <v>38.498</v>
       </c>
       <c r="U8" t="n">
-        <v>15.54</v>
+        <v>41.031</v>
       </c>
       <c r="V8" t="n">
-        <v>17.712</v>
+        <v>35.865</v>
       </c>
       <c r="W8" t="n">
-        <v>17.476</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>20.428</v>
+        <v>36.979</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.341</v>
+        <v>30.328</v>
       </c>
     </row>
     <row r="9">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.264</v>
+        <v>51.113</v>
       </c>
       <c r="C9" t="n">
-        <v>66.349</v>
+        <v>39.124</v>
       </c>
       <c r="D9" t="n">
-        <v>65.373</v>
+        <v>33.938</v>
       </c>
       <c r="E9" t="n">
-        <v>67.176</v>
+        <v>41.992</v>
       </c>
       <c r="F9" t="n">
-        <v>63.15</v>
+        <v>39.509</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03100000000001</v>
+        <v>39.129</v>
       </c>
       <c r="H9" t="n">
-        <v>55.332</v>
+        <v>32.274</v>
       </c>
       <c r="I9" t="n">
-        <v>79.321</v>
+        <v>33.071</v>
       </c>
       <c r="J9" t="n">
-        <v>46.415</v>
+        <v>35.292</v>
       </c>
       <c r="K9" t="n">
-        <v>63.253</v>
+        <v>33.006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>33.887</v>
       </c>
       <c r="M9" t="n">
-        <v>18.956</v>
+        <v>32.983</v>
       </c>
       <c r="N9" t="n">
-        <v>19.304</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
-        <v>23.956</v>
+        <v>66.31399999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>18.263</v>
+        <v>29.358</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.896</v>
+        <v>23.244</v>
       </c>
       <c r="R9" t="n">
-        <v>18.617</v>
+        <v>60.058</v>
       </c>
       <c r="S9" t="n">
-        <v>18.617</v>
+        <v>35.847</v>
       </c>
       <c r="T9" t="n">
-        <v>17.476</v>
+        <v>39.332</v>
       </c>
       <c r="U9" t="n">
-        <v>15.576</v>
+        <v>41.648</v>
       </c>
       <c r="V9" t="n">
-        <v>12.242</v>
+        <v>36.704</v>
       </c>
       <c r="W9" t="n">
-        <v>13.399</v>
+        <v>100</v>
       </c>
       <c r="X9" t="n">
-        <v>26.062</v>
+        <v>63.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.201</v>
+        <v>30.594</v>
       </c>
     </row>
     <row r="10">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.654</v>
+        <v>40.473</v>
       </c>
       <c r="C10" t="n">
-        <v>78.592</v>
+        <v>28.354</v>
       </c>
       <c r="D10" t="n">
-        <v>45.507</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>50.932</v>
+        <v>8.994</v>
       </c>
       <c r="F10" t="n">
-        <v>79.06999999999999</v>
+        <v>16.331</v>
       </c>
       <c r="G10" t="n">
-        <v>76.352</v>
+        <v>37.748</v>
       </c>
       <c r="H10" t="n">
-        <v>58.195</v>
+        <v>32.646</v>
       </c>
       <c r="I10" t="n">
-        <v>40.18</v>
+        <v>32.983</v>
       </c>
       <c r="J10" t="n">
-        <v>43.356</v>
+        <v>33.281</v>
       </c>
       <c r="K10" t="n">
-        <v>53.404</v>
+        <v>36.773</v>
       </c>
       <c r="L10" t="n">
-        <v>5.394</v>
+        <v>33.745</v>
       </c>
       <c r="M10" t="n">
-        <v>19.569</v>
+        <v>53.154</v>
       </c>
       <c r="N10" t="n">
-        <v>17.922</v>
+        <v>50.895</v>
       </c>
       <c r="O10" t="n">
-        <v>14.974</v>
+        <v>44.593</v>
       </c>
       <c r="P10" t="n">
-        <v>13.141</v>
+        <v>30.09</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.084</v>
+        <v>29.545</v>
       </c>
       <c r="R10" t="n">
-        <v>16.973</v>
+        <v>43.391</v>
       </c>
       <c r="S10" t="n">
-        <v>14.69</v>
+        <v>39.354</v>
       </c>
       <c r="T10" t="n">
-        <v>16.174</v>
+        <v>37.727</v>
       </c>
       <c r="U10" t="n">
-        <v>17.682</v>
+        <v>36.309</v>
       </c>
       <c r="V10" t="n">
-        <v>33.254</v>
+        <v>39.029</v>
       </c>
       <c r="W10" t="n">
-        <v>45.888</v>
+        <v>53.154</v>
       </c>
       <c r="X10" t="n">
-        <v>12.328</v>
+        <v>52.774</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.44799999999999</v>
+        <v>31.348</v>
       </c>
     </row>
     <row r="11">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.965</v>
+        <v>42.828</v>
       </c>
       <c r="C11" t="n">
-        <v>69.423</v>
+        <v>30.683</v>
       </c>
       <c r="D11" t="n">
-        <v>66.289</v>
+        <v>15.144</v>
       </c>
       <c r="E11" t="n">
-        <v>45.293</v>
+        <v>17.303</v>
       </c>
       <c r="F11" t="n">
-        <v>38.922</v>
+        <v>20.977</v>
       </c>
       <c r="G11" t="n">
-        <v>38.686</v>
+        <v>37.653</v>
       </c>
       <c r="H11" t="n">
-        <v>46.215</v>
+        <v>32.465</v>
       </c>
       <c r="I11" t="n">
-        <v>70.88</v>
+        <v>32.983</v>
       </c>
       <c r="J11" t="n">
-        <v>62.625</v>
+        <v>30.857</v>
       </c>
       <c r="K11" t="n">
-        <v>61.598</v>
+        <v>41.356</v>
       </c>
       <c r="L11" t="n">
-        <v>89.765</v>
+        <v>31.55</v>
       </c>
       <c r="M11" t="n">
-        <v>45.849</v>
+        <v>34.658</v>
       </c>
       <c r="N11" t="n">
-        <v>49.825</v>
+        <v>34.031</v>
       </c>
       <c r="O11" t="n">
-        <v>48.869</v>
+        <v>38.66</v>
       </c>
       <c r="P11" t="n">
-        <v>51.687</v>
+        <v>30.09</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.125</v>
+        <v>35.718</v>
       </c>
       <c r="R11" t="n">
-        <v>51.293</v>
+        <v>35.79</v>
       </c>
       <c r="S11" t="n">
-        <v>56.657</v>
+        <v>48.593</v>
       </c>
       <c r="T11" t="n">
-        <v>63.229</v>
+        <v>27.198</v>
       </c>
       <c r="U11" t="n">
-        <v>85.783</v>
+        <v>25.646</v>
       </c>
       <c r="V11" t="n">
-        <v>88.43899999999999</v>
+        <v>47.782</v>
       </c>
       <c r="W11" t="n">
-        <v>14.699</v>
+        <v>32.972</v>
       </c>
       <c r="X11" t="n">
-        <v>62.653</v>
+        <v>32.895</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.799</v>
+        <v>32.177</v>
       </c>
     </row>
     <row r="12">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.565</v>
+        <v>39.948</v>
       </c>
       <c r="C12" t="n">
-        <v>75.24299999999999</v>
+        <v>29.347</v>
       </c>
       <c r="D12" t="n">
-        <v>83.97199999999999</v>
+        <v>11.29</v>
       </c>
       <c r="E12" t="n">
-        <v>81.67400000000001</v>
+        <v>9.753</v>
       </c>
       <c r="F12" t="n">
-        <v>67.789</v>
+        <v>16.735</v>
       </c>
       <c r="G12" t="n">
-        <v>49.883</v>
+        <v>37.807</v>
       </c>
       <c r="H12" t="n">
-        <v>65.749</v>
+        <v>31.911</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>32.983</v>
       </c>
       <c r="J12" t="n">
-        <v>45.264</v>
+        <v>26.706</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>48.293</v>
       </c>
       <c r="L12" t="n">
-        <v>74.43600000000001</v>
+        <v>33.654</v>
       </c>
       <c r="M12" t="n">
-        <v>89.97199999999999</v>
+        <v>21.534</v>
       </c>
       <c r="N12" t="n">
-        <v>84.142</v>
+        <v>35.683</v>
       </c>
       <c r="O12" t="n">
-        <v>81.928</v>
+        <v>31.748</v>
       </c>
       <c r="P12" t="n">
-        <v>76.81699999999999</v>
+        <v>36.452</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.92</v>
+        <v>41.652</v>
       </c>
       <c r="R12" t="n">
-        <v>88.76900000000001</v>
+        <v>24.858</v>
       </c>
       <c r="S12" t="n">
-        <v>91.39700000000001</v>
+        <v>89.672</v>
       </c>
       <c r="T12" t="n">
-        <v>77.84099999999999</v>
+        <v>22.667</v>
       </c>
       <c r="U12" t="n">
-        <v>89.363</v>
+        <v>28.39</v>
       </c>
       <c r="V12" t="n">
-        <v>68.83199999999999</v>
+        <v>72.462</v>
       </c>
       <c r="W12" t="n">
-        <v>73.101</v>
+        <v>34.43</v>
       </c>
       <c r="X12" t="n">
-        <v>42.568</v>
+        <v>28.574</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.389</v>
+        <v>37.727</v>
       </c>
     </row>
     <row r="13">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.568</v>
+        <v>69.38800000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>51.469</v>
+        <v>54.825</v>
       </c>
       <c r="D13" t="n">
-        <v>54.873</v>
+        <v>41.602</v>
       </c>
       <c r="E13" t="n">
-        <v>71.08799999999999</v>
+        <v>55.255</v>
       </c>
       <c r="F13" t="n">
-        <v>75.53400000000001</v>
+        <v>51.621</v>
       </c>
       <c r="G13" t="n">
-        <v>48.593</v>
+        <v>50.592</v>
       </c>
       <c r="H13" t="n">
-        <v>23.632</v>
+        <v>45.799</v>
       </c>
       <c r="I13" t="n">
-        <v>65.04300000000001</v>
+        <v>49.803</v>
       </c>
       <c r="J13" t="n">
-        <v>66.931</v>
+        <v>43.896</v>
       </c>
       <c r="K13" t="n">
-        <v>45.448</v>
+        <v>59.427</v>
       </c>
       <c r="L13" t="n">
-        <v>45.369</v>
+        <v>48.185</v>
       </c>
       <c r="M13" t="n">
-        <v>66.917</v>
+        <v>34.949</v>
       </c>
       <c r="N13" t="n">
-        <v>87.10299999999999</v>
+        <v>57.267</v>
       </c>
       <c r="O13" t="n">
-        <v>87.629</v>
+        <v>48.474</v>
       </c>
       <c r="P13" t="n">
-        <v>94.001</v>
+        <v>51.409</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.524</v>
+        <v>54.566</v>
       </c>
       <c r="R13" t="n">
-        <v>95.5</v>
+        <v>43.879</v>
       </c>
       <c r="S13" t="n">
-        <v>62.69</v>
+        <v>39.811</v>
       </c>
       <c r="T13" t="n">
-        <v>56.458</v>
+        <v>44.184</v>
       </c>
       <c r="U13" t="n">
-        <v>63.691</v>
+        <v>47.252</v>
       </c>
       <c r="V13" t="n">
-        <v>63.25</v>
+        <v>100</v>
       </c>
       <c r="W13" t="n">
-        <v>54.559</v>
+        <v>55.674</v>
       </c>
       <c r="X13" t="n">
-        <v>71.18000000000001</v>
+        <v>43.434</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.888</v>
+        <v>56.206</v>
       </c>
     </row>
     <row r="14">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.553</v>
+        <v>56.962</v>
       </c>
       <c r="C14" t="n">
-        <v>57.129</v>
+        <v>54.271</v>
       </c>
       <c r="D14" t="n">
-        <v>47.853</v>
+        <v>38.849</v>
       </c>
       <c r="E14" t="n">
-        <v>33.52</v>
+        <v>63.294</v>
       </c>
       <c r="F14" t="n">
-        <v>59.569</v>
+        <v>61.681</v>
       </c>
       <c r="G14" t="n">
-        <v>53.154</v>
+        <v>57.82</v>
       </c>
       <c r="H14" t="n">
-        <v>62.079</v>
+        <v>71.023</v>
       </c>
       <c r="I14" t="n">
-        <v>60.798</v>
+        <v>100</v>
       </c>
       <c r="J14" t="n">
-        <v>49.911</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>73.298</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>78.83799999999999</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>73.617</v>
+        <v>36.197</v>
       </c>
       <c r="N14" t="n">
-        <v>56.559</v>
+        <v>100</v>
       </c>
       <c r="O14" t="n">
-        <v>62.087</v>
+        <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>78.83799999999999</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.447</v>
+        <v>100</v>
       </c>
       <c r="R14" t="n">
-        <v>65.04300000000001</v>
+        <v>100</v>
       </c>
       <c r="S14" t="n">
-        <v>56.745</v>
+        <v>49.803</v>
       </c>
       <c r="T14" t="n">
-        <v>50.147</v>
+        <v>92.502</v>
       </c>
       <c r="U14" t="n">
-        <v>52.776</v>
+        <v>76.205</v>
       </c>
       <c r="V14" t="n">
-        <v>49.727</v>
+        <v>69.41200000000001</v>
       </c>
       <c r="W14" t="n">
-        <v>70.95099999999999</v>
+        <v>57.655</v>
       </c>
       <c r="X14" t="n">
-        <v>65.12</v>
+        <v>86.869</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.524</v>
+        <v>60.331</v>
       </c>
     </row>
     <row r="15">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.66</v>
+        <v>19.589</v>
       </c>
       <c r="C15" t="n">
-        <v>77.352</v>
+        <v>30.123</v>
       </c>
       <c r="D15" t="n">
-        <v>76.928</v>
+        <v>34.485</v>
       </c>
       <c r="E15" t="n">
-        <v>66.21899999999999</v>
+        <v>14.102</v>
       </c>
       <c r="F15" t="n">
-        <v>71.34099999999999</v>
+        <v>19.083</v>
       </c>
       <c r="G15" t="n">
-        <v>61.264</v>
+        <v>43.497</v>
       </c>
       <c r="H15" t="n">
-        <v>55.034</v>
+        <v>44.849</v>
       </c>
       <c r="I15" t="n">
-        <v>69.06999999999999</v>
+        <v>56.119</v>
       </c>
       <c r="J15" t="n">
-        <v>61.379</v>
+        <v>43.983</v>
       </c>
       <c r="K15" t="n">
-        <v>83.011</v>
+        <v>50.495</v>
       </c>
       <c r="L15" t="n">
-        <v>55.907</v>
+        <v>51.887</v>
       </c>
       <c r="M15" t="n">
-        <v>87.56399999999999</v>
+        <v>42.671</v>
       </c>
       <c r="N15" t="n">
-        <v>59.738</v>
+        <v>50.122</v>
       </c>
       <c r="O15" t="n">
-        <v>44.973</v>
+        <v>51.911</v>
       </c>
       <c r="P15" t="n">
-        <v>57.829</v>
+        <v>49.746</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.926</v>
+        <v>49.398</v>
       </c>
       <c r="R15" t="n">
-        <v>69.18600000000001</v>
+        <v>48.029</v>
       </c>
       <c r="S15" t="n">
-        <v>59.716</v>
+        <v>58.339</v>
       </c>
       <c r="T15" t="n">
-        <v>53.125</v>
+        <v>49.32</v>
       </c>
       <c r="U15" t="n">
-        <v>53.032</v>
+        <v>47.99</v>
       </c>
       <c r="V15" t="n">
-        <v>71.08799999999999</v>
+        <v>54.691</v>
       </c>
       <c r="W15" t="n">
-        <v>60.27</v>
+        <v>50.888</v>
       </c>
       <c r="X15" t="n">
-        <v>49.039</v>
+        <v>44.715</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.356</v>
+        <v>45.24</v>
       </c>
     </row>
     <row r="16">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.989</v>
+        <v>23.506</v>
       </c>
       <c r="C16" t="n">
-        <v>49.102</v>
+        <v>26.926</v>
       </c>
       <c r="D16" t="n">
-        <v>42.947</v>
+        <v>33.999</v>
       </c>
       <c r="E16" t="n">
-        <v>53.817</v>
+        <v>10.917</v>
       </c>
       <c r="F16" t="n">
-        <v>60.405</v>
+        <v>16.804</v>
       </c>
       <c r="G16" t="n">
-        <v>77.982</v>
+        <v>43.784</v>
       </c>
       <c r="H16" t="n">
-        <v>57.851</v>
+        <v>42.956</v>
       </c>
       <c r="I16" t="n">
-        <v>74.777</v>
+        <v>49.122</v>
       </c>
       <c r="J16" t="n">
-        <v>53.552</v>
+        <v>42.743</v>
       </c>
       <c r="K16" t="n">
-        <v>68.604</v>
+        <v>35.965</v>
       </c>
       <c r="L16" t="n">
-        <v>56.58</v>
+        <v>47.359</v>
       </c>
       <c r="M16" t="n">
-        <v>54.185</v>
+        <v>37.697</v>
       </c>
       <c r="N16" t="n">
-        <v>61.955</v>
+        <v>40.484</v>
       </c>
       <c r="O16" t="n">
-        <v>61.665</v>
+        <v>39.701</v>
       </c>
       <c r="P16" t="n">
-        <v>56.291</v>
+        <v>41.971</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.176</v>
+        <v>37.775</v>
       </c>
       <c r="R16" t="n">
-        <v>78.592</v>
+        <v>36.885</v>
       </c>
       <c r="S16" t="n">
-        <v>76.99299999999999</v>
+        <v>54.09</v>
       </c>
       <c r="T16" t="n">
-        <v>71.76300000000001</v>
+        <v>53.657</v>
       </c>
       <c r="U16" t="n">
-        <v>73.657</v>
+        <v>51.58</v>
       </c>
       <c r="V16" t="n">
-        <v>51.082</v>
+        <v>49.493</v>
       </c>
       <c r="W16" t="n">
-        <v>45.448</v>
+        <v>49.585</v>
       </c>
       <c r="X16" t="n">
-        <v>53.095</v>
+        <v>45.286</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.279</v>
+        <v>47.131</v>
       </c>
     </row>
     <row r="17">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.753</v>
+        <v>58.754</v>
       </c>
       <c r="C17" t="n">
-        <v>44.968</v>
+        <v>57.399</v>
       </c>
       <c r="D17" t="n">
-        <v>41.877</v>
+        <v>66.39700000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>44.261</v>
+        <v>54.064</v>
       </c>
       <c r="F17" t="n">
-        <v>38.107</v>
+        <v>50.66</v>
       </c>
       <c r="G17" t="n">
-        <v>54.6</v>
+        <v>55.549</v>
       </c>
       <c r="H17" t="n">
-        <v>77.06100000000001</v>
+        <v>58.39</v>
       </c>
       <c r="I17" t="n">
-        <v>81.249</v>
+        <v>61.625</v>
       </c>
       <c r="J17" t="n">
-        <v>84.364</v>
+        <v>56.468</v>
       </c>
       <c r="K17" t="n">
-        <v>50.686</v>
+        <v>53.155</v>
       </c>
       <c r="L17" t="n">
-        <v>74</v>
+        <v>55.674</v>
       </c>
       <c r="M17" t="n">
-        <v>75.82899999999999</v>
+        <v>55.134</v>
       </c>
       <c r="N17" t="n">
-        <v>65.84999999999999</v>
+        <v>56.032</v>
       </c>
       <c r="O17" t="n">
-        <v>89.87</v>
+        <v>56.398</v>
       </c>
       <c r="P17" t="n">
-        <v>84.11199999999999</v>
+        <v>60.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.346</v>
+        <v>54.825</v>
       </c>
       <c r="R17" t="n">
-        <v>43.758</v>
+        <v>55.676</v>
       </c>
       <c r="S17" t="n">
-        <v>56.764</v>
+        <v>59.338</v>
       </c>
       <c r="T17" t="n">
-        <v>76.648</v>
+        <v>59.512</v>
       </c>
       <c r="U17" t="n">
-        <v>64.069</v>
+        <v>60.189</v>
       </c>
       <c r="V17" t="n">
-        <v>76.389</v>
+        <v>63.457</v>
       </c>
       <c r="W17" t="n">
-        <v>58.27</v>
+        <v>52.774</v>
       </c>
       <c r="X17" t="n">
-        <v>52.17</v>
+        <v>53.829</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.185</v>
+        <v>55.688</v>
       </c>
     </row>
   </sheetData>

--- a/certus_16x24_CMYK.xlsx
+++ b/certus_16x24_CMYK.xlsx
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.467</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.168</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.935</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>11.131</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.114</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>27.02</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>32.995</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>20.682</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>13.721</v>
       </c>
       <c r="M5" t="n">
-        <v>27.12</v>
+        <v>3.795</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -887,37 +887,37 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>14.377</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.722</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>16.019</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.588</v>
       </c>
       <c r="I6" t="n">
-        <v>33.465</v>
+        <v>43.371</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>44.003</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.438</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>24.332</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>11.632</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>13.234</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>33.608</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -975,31 +975,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.411</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>29.525</v>
       </c>
       <c r="I7" t="n">
-        <v>14.415</v>
+        <v>40.779</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.299</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.671</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.929</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.154</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>11.277</v>
       </c>
       <c r="O7" t="n">
-        <v>16.843</v>
+        <v>4.374</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>33.377</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14.016</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1048,25 +1048,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.168</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7.539</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.016</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.394</v>
       </c>
       <c r="I8" t="n">
-        <v>33.465</v>
+        <v>15.261</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>38.003</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>35.956</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.421</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>33.465</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1118,46 +1118,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.972</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.854</v>
+        <v>14.631</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.925</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25.165</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.361</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>31.268</v>
       </c>
       <c r="I9" t="n">
-        <v>33.465</v>
+        <v>17.497</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>37.436</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>33.509</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>16.843</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1197,40 +1197,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.961</v>
+        <v>7.115</v>
       </c>
       <c r="C10" t="n">
-        <v>30.641</v>
+        <v>18.89</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>38.002</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>34.589</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>20.93</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.765</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>31.111</v>
       </c>
       <c r="I10" t="n">
-        <v>33.509</v>
+        <v>40.092</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>38.218</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>32.194</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>23.423</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.914</v>
       </c>
     </row>
     <row r="11">
@@ -1276,37 +1276,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.89</v>
+        <v>4.771</v>
       </c>
       <c r="C11" t="n">
-        <v>30.326</v>
+        <v>9.656000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>25.283</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38.366</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>42.144</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>42.495</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>36.341</v>
       </c>
       <c r="I11" t="n">
-        <v>33.509</v>
+        <v>22.789</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>6.795</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>26.985</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>7.31</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>4.265</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.670999999999999</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>16.599</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>42.642</v>
       </c>
     </row>
     <row r="12">
@@ -1355,28 +1355,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.097</v>
+        <v>18.227</v>
       </c>
       <c r="C12" t="n">
-        <v>30.213</v>
+        <v>21.044</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5.828</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>24.695</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>35.238</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>26.912</v>
       </c>
       <c r="I12" t="n">
-        <v>33.509</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>20.451</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.433</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.434</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>4.453</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>25.404</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>39.401</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>31.934</v>
       </c>
     </row>
     <row r="13">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.401</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.058</v>
+        <v>32.354</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.117</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1455,55 +1455,55 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.098</v>
+        <v>14.394</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.562</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9.092000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.214</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>9.19</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.866</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>9.622</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4.499</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4.738</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>40.126</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>21.786</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>33.555</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>35.027</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>28.82</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.914</v>
       </c>
     </row>
     <row r="14">
@@ -1516,73 +1516,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.041</v>
       </c>
       <c r="D14" t="n">
-        <v>43.449</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>17.567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.427</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.443</v>
       </c>
       <c r="J14" t="n">
-        <v>15.77</v>
+        <v>14.311</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>22.696</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>13.023</v>
       </c>
       <c r="M14" t="n">
-        <v>37.219</v>
+        <v>24.831</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>33.339</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>29.247</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>9.766999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.704</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>11.383</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>29.081</v>
       </c>
       <c r="U14" t="n">
-        <v>7.932</v>
+        <v>39.186</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>37.705</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>24.462</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.52</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>41.607</v>
       </c>
     </row>
     <row r="15">
@@ -1595,73 +1595,73 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>12.079</v>
       </c>
       <c r="D15" t="n">
-        <v>54.316</v>
+        <v>20.188</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>28.151</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.329</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>10.706</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.465</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.196</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.989</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.102</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>6.218</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>31.203</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.096</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>32.587</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>27.879</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.413</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>32.864</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>34.722</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>34.158</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>19.274</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>23.176</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>37.633</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>36.455</v>
       </c>
     </row>
     <row r="16">
@@ -1671,40 +1671,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>10.011</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>34.703</v>
       </c>
       <c r="D16" t="n">
-        <v>54.815</v>
+        <v>39.394</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>34.21</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.938</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.642</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>13.411</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.188</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.546</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20.408</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.66</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>29.391</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1722,25 +1722,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.32</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>21.177</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>19.025</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>37.111</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.478</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>34.965</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>37.75</v>
       </c>
     </row>
     <row r="17">
@@ -1750,49 +1750,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27.76</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>36.929</v>
       </c>
       <c r="D17" t="n">
-        <v>29.87</v>
+        <v>40.085</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>38.589</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>41.683</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>32.551</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>17.205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>15.866</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>15.636</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>34.997</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>17.333</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>21.626</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>24.837</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>10.13</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>5.777</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1804,22 +1804,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>22.054</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>28.745</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>23.611</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>17.001</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>14.844</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>10.989</v>
       </c>
     </row>
   </sheetData>
@@ -1970,76 +1970,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.264</v>
+        <v>15.757</v>
       </c>
       <c r="C2" t="n">
-        <v>25.777</v>
+        <v>17.597</v>
       </c>
       <c r="D2" t="n">
-        <v>36.229</v>
+        <v>20.486</v>
       </c>
       <c r="E2" t="n">
-        <v>20.167</v>
+        <v>20.691</v>
       </c>
       <c r="F2" t="n">
-        <v>18.216</v>
+        <v>21.568</v>
       </c>
       <c r="G2" t="n">
-        <v>14.724</v>
+        <v>21.781</v>
       </c>
       <c r="H2" t="n">
-        <v>19.558</v>
+        <v>22.59</v>
       </c>
       <c r="I2" t="n">
-        <v>19.422</v>
+        <v>22.31</v>
       </c>
       <c r="J2" t="n">
-        <v>14.176</v>
+        <v>21.606</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>23.498</v>
       </c>
       <c r="L2" t="n">
-        <v>19.391</v>
+        <v>21.834</v>
       </c>
       <c r="M2" t="n">
-        <v>20.887</v>
+        <v>21.865</v>
       </c>
       <c r="N2" t="n">
-        <v>13.691</v>
+        <v>20.323</v>
       </c>
       <c r="O2" t="n">
-        <v>15.399</v>
+        <v>21.374</v>
       </c>
       <c r="P2" t="n">
-        <v>15.616</v>
+        <v>20.309</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.011</v>
+        <v>20.04</v>
       </c>
       <c r="R2" t="n">
-        <v>16.581</v>
+        <v>21.374</v>
       </c>
       <c r="S2" t="n">
-        <v>15.597</v>
+        <v>21.092</v>
       </c>
       <c r="T2" t="n">
-        <v>16.015</v>
+        <v>21.459</v>
       </c>
       <c r="U2" t="n">
-        <v>14.581</v>
+        <v>21.156</v>
       </c>
       <c r="V2" t="n">
-        <v>16.23</v>
+        <v>23.119</v>
       </c>
       <c r="W2" t="n">
-        <v>14.888</v>
+        <v>23.513</v>
       </c>
       <c r="X2" t="n">
-        <v>21.312</v>
+        <v>21.849</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.711</v>
+        <v>23.073</v>
       </c>
     </row>
     <row r="3">
@@ -2049,76 +2049,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.739</v>
+        <v>18.826</v>
       </c>
       <c r="C3" t="n">
-        <v>27.328</v>
+        <v>10.672</v>
       </c>
       <c r="D3" t="n">
-        <v>38.079</v>
+        <v>18.118</v>
       </c>
       <c r="E3" t="n">
-        <v>21.663</v>
+        <v>20.874</v>
       </c>
       <c r="F3" t="n">
-        <v>20.194</v>
+        <v>21.349</v>
       </c>
       <c r="G3" t="n">
-        <v>16.823</v>
+        <v>22.057</v>
       </c>
       <c r="H3" t="n">
-        <v>21.058</v>
+        <v>19.382</v>
       </c>
       <c r="I3" t="n">
-        <v>21.936</v>
+        <v>16.13</v>
       </c>
       <c r="J3" t="n">
-        <v>18.268</v>
+        <v>15.285</v>
       </c>
       <c r="K3" t="n">
-        <v>22.467</v>
+        <v>12.477</v>
       </c>
       <c r="L3" t="n">
-        <v>21.514</v>
+        <v>19.807</v>
       </c>
       <c r="M3" t="n">
-        <v>22.437</v>
+        <v>21.812</v>
       </c>
       <c r="N3" t="n">
-        <v>19.493</v>
+        <v>20.309</v>
       </c>
       <c r="O3" t="n">
-        <v>20.67</v>
+        <v>20.319</v>
       </c>
       <c r="P3" t="n">
-        <v>20.992</v>
+        <v>20.019</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.178</v>
+        <v>19.431</v>
       </c>
       <c r="R3" t="n">
-        <v>21.416</v>
+        <v>16.303</v>
       </c>
       <c r="S3" t="n">
-        <v>20.496</v>
+        <v>19.632</v>
       </c>
       <c r="T3" t="n">
-        <v>21.666</v>
+        <v>21.08</v>
       </c>
       <c r="U3" t="n">
-        <v>19.148</v>
+        <v>21.145</v>
       </c>
       <c r="V3" t="n">
-        <v>20.647</v>
+        <v>20.319</v>
       </c>
       <c r="W3" t="n">
-        <v>18.818</v>
+        <v>22.84</v>
       </c>
       <c r="X3" t="n">
-        <v>22.524</v>
+        <v>22.709</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.938</v>
+        <v>22.037</v>
       </c>
     </row>
     <row r="4">
@@ -2128,76 +2128,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.279</v>
+        <v>17.74</v>
       </c>
       <c r="C4" t="n">
-        <v>28.132</v>
+        <v>9.901</v>
       </c>
       <c r="D4" t="n">
-        <v>39.476</v>
+        <v>15.959</v>
       </c>
       <c r="E4" t="n">
-        <v>22.601</v>
+        <v>21.575</v>
       </c>
       <c r="F4" t="n">
-        <v>21.008</v>
+        <v>18.374</v>
       </c>
       <c r="G4" t="n">
-        <v>17.471</v>
+        <v>12.767</v>
       </c>
       <c r="H4" t="n">
-        <v>20.241</v>
+        <v>8.712</v>
       </c>
       <c r="I4" t="n">
-        <v>20.134</v>
+        <v>9.093</v>
       </c>
       <c r="J4" t="n">
-        <v>20.348</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.005</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.471</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.312</v>
+        <v>10.145</v>
       </c>
       <c r="N4" t="n">
-        <v>19.901</v>
+        <v>22.249</v>
       </c>
       <c r="O4" t="n">
-        <v>17.673</v>
+        <v>21.076</v>
       </c>
       <c r="P4" t="n">
-        <v>20.358</v>
+        <v>13.361</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.846</v>
+        <v>14.733</v>
       </c>
       <c r="R4" t="n">
-        <v>20.317</v>
+        <v>13.81</v>
       </c>
       <c r="S4" t="n">
-        <v>19.825</v>
+        <v>15.18</v>
       </c>
       <c r="T4" t="n">
-        <v>19.127</v>
+        <v>17.114</v>
       </c>
       <c r="U4" t="n">
-        <v>18.076</v>
+        <v>19.734</v>
       </c>
       <c r="V4" t="n">
-        <v>20.228</v>
+        <v>22.425</v>
       </c>
       <c r="W4" t="n">
-        <v>20.02</v>
+        <v>22.462</v>
       </c>
       <c r="X4" t="n">
-        <v>18.868</v>
+        <v>23.171</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.16</v>
+        <v>23.139</v>
       </c>
     </row>
     <row r="5">
@@ -2207,76 +2207,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.825</v>
+        <v>13.843</v>
       </c>
       <c r="C5" t="n">
-        <v>18.969</v>
+        <v>7.219</v>
       </c>
       <c r="D5" t="n">
-        <v>26.552</v>
+        <v>14.385</v>
       </c>
       <c r="E5" t="n">
-        <v>15.635</v>
+        <v>17.161</v>
       </c>
       <c r="F5" t="n">
-        <v>15.583</v>
+        <v>14.161</v>
       </c>
       <c r="G5" t="n">
-        <v>16.758</v>
+        <v>11.511</v>
       </c>
       <c r="H5" t="n">
-        <v>18.924</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.387</v>
+        <v>9.727</v>
       </c>
       <c r="J5" t="n">
-        <v>20.843</v>
+        <v>14.848</v>
       </c>
       <c r="K5" t="n">
-        <v>17.177</v>
+        <v>4.136</v>
       </c>
       <c r="L5" t="n">
-        <v>18.433</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>20.34</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>19.871</v>
+        <v>19.819</v>
       </c>
       <c r="O5" t="n">
-        <v>16.199</v>
+        <v>21.198</v>
       </c>
       <c r="P5" t="n">
-        <v>20.192</v>
+        <v>22.271</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.366</v>
+        <v>19.58</v>
       </c>
       <c r="R5" t="n">
-        <v>16.508</v>
+        <v>20.52</v>
       </c>
       <c r="S5" t="n">
-        <v>19.073</v>
+        <v>19.682</v>
       </c>
       <c r="T5" t="n">
-        <v>17.715</v>
+        <v>21.941</v>
       </c>
       <c r="U5" t="n">
-        <v>18.257</v>
+        <v>22.898</v>
       </c>
       <c r="V5" t="n">
-        <v>20.109</v>
+        <v>23.274</v>
       </c>
       <c r="W5" t="n">
-        <v>20.168</v>
+        <v>22.641</v>
       </c>
       <c r="X5" t="n">
-        <v>17.782</v>
+        <v>23.362</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>23.031</v>
       </c>
     </row>
     <row r="6">
@@ -2286,76 +2286,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.242</v>
+        <v>16.237</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13.284</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14.534</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9.677</v>
       </c>
       <c r="G6" t="n">
-        <v>17.163</v>
+        <v>1.456</v>
       </c>
       <c r="H6" t="n">
-        <v>19.066</v>
+        <v>19.66</v>
       </c>
       <c r="I6" t="n">
-        <v>33.465</v>
+        <v>20.24</v>
       </c>
       <c r="J6" t="n">
-        <v>19.819</v>
+        <v>20.873</v>
       </c>
       <c r="K6" t="n">
-        <v>18.356</v>
+        <v>19.062</v>
       </c>
       <c r="L6" t="n">
-        <v>18.192</v>
+        <v>4.294</v>
       </c>
       <c r="M6" t="n">
-        <v>16.968</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>20.547</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.374</v>
       </c>
       <c r="P6" t="n">
-        <v>19.378</v>
+        <v>22.111</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.878</v>
+        <v>20.063</v>
       </c>
       <c r="R6" t="n">
-        <v>25.206</v>
+        <v>21.364</v>
       </c>
       <c r="S6" t="n">
-        <v>18.433</v>
+        <v>20.092</v>
       </c>
       <c r="T6" t="n">
-        <v>17.504</v>
+        <v>21.141</v>
       </c>
       <c r="U6" t="n">
-        <v>18.987</v>
+        <v>21.982</v>
       </c>
       <c r="V6" t="n">
-        <v>19.185</v>
+        <v>22.193</v>
       </c>
       <c r="W6" t="n">
-        <v>20.012</v>
+        <v>23.274</v>
       </c>
       <c r="X6" t="n">
-        <v>19.472</v>
+        <v>23.018</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.808</v>
+        <v>23.031</v>
       </c>
     </row>
     <row r="7">
@@ -2365,76 +2365,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.08</v>
+        <v>1.299</v>
       </c>
       <c r="C7" t="n">
-        <v>21.314</v>
+        <v>10.007</v>
       </c>
       <c r="D7" t="n">
-        <v>26.441</v>
+        <v>15.446</v>
       </c>
       <c r="E7" t="n">
-        <v>11.588</v>
+        <v>7.501</v>
       </c>
       <c r="F7" t="n">
-        <v>13.404</v>
+        <v>7.961</v>
       </c>
       <c r="G7" t="n">
-        <v>21.074</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.597</v>
+        <v>12.381</v>
       </c>
       <c r="I7" t="n">
-        <v>28.83</v>
+        <v>19.448</v>
       </c>
       <c r="J7" t="n">
-        <v>20.389</v>
+        <v>19.725</v>
       </c>
       <c r="K7" t="n">
-        <v>17.603</v>
+        <v>19.929</v>
       </c>
       <c r="L7" t="n">
-        <v>20.976</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>21.498</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>20.558</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>16.843</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.603</v>
+        <v>18.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.577</v>
+        <v>18.262</v>
       </c>
       <c r="R7" t="n">
-        <v>33.377</v>
+        <v>18.688</v>
       </c>
       <c r="S7" t="n">
-        <v>18.711</v>
+        <v>18.286</v>
       </c>
       <c r="T7" t="n">
-        <v>17.595</v>
+        <v>20.917</v>
       </c>
       <c r="U7" t="n">
-        <v>18.054</v>
+        <v>20.804</v>
       </c>
       <c r="V7" t="n">
-        <v>19.291</v>
+        <v>21.782</v>
       </c>
       <c r="W7" t="n">
-        <v>18.378</v>
+        <v>19.46</v>
       </c>
       <c r="X7" t="n">
-        <v>22.242</v>
+        <v>21.129</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.865</v>
+        <v>20.791</v>
       </c>
     </row>
     <row r="8">
@@ -2444,76 +2444,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.565</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>19.991</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>17.788</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.118</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.855</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>18.542</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18.809</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.465</v>
+        <v>1.526</v>
       </c>
       <c r="J8" t="n">
-        <v>20.675</v>
+        <v>17.965</v>
       </c>
       <c r="K8" t="n">
-        <v>18.012</v>
+        <v>13.698</v>
       </c>
       <c r="L8" t="n">
-        <v>20.998</v>
+        <v>15.789</v>
       </c>
       <c r="M8" t="n">
-        <v>18.479</v>
+        <v>14.474</v>
       </c>
       <c r="N8" t="n">
-        <v>15.112</v>
+        <v>8.346</v>
       </c>
       <c r="O8" t="n">
-        <v>33.421</v>
+        <v>3.943</v>
       </c>
       <c r="P8" t="n">
-        <v>18.223</v>
+        <v>21.612</v>
       </c>
       <c r="Q8" t="n">
-        <v>20</v>
+        <v>19.252</v>
       </c>
       <c r="R8" t="n">
-        <v>33.465</v>
+        <v>19.647</v>
       </c>
       <c r="S8" t="n">
-        <v>18.201</v>
+        <v>18.875</v>
       </c>
       <c r="T8" t="n">
-        <v>17.185</v>
+        <v>20.917</v>
       </c>
       <c r="U8" t="n">
-        <v>17.901</v>
+        <v>18.262</v>
       </c>
       <c r="V8" t="n">
-        <v>19.24</v>
+        <v>18.286</v>
       </c>
       <c r="W8" t="n">
-        <v>8.56</v>
+        <v>20.128</v>
       </c>
       <c r="X8" t="n">
-        <v>19.694</v>
+        <v>19.408</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.805</v>
+        <v>15.926</v>
       </c>
     </row>
     <row r="9">
@@ -2523,76 +2523,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4.731</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>19.712</v>
+        <v>6.702</v>
       </c>
       <c r="E9" t="n">
-        <v>17.139</v>
+        <v>7.659</v>
       </c>
       <c r="F9" t="n">
-        <v>16.731</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>16.677</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.048</v>
+        <v>13.4</v>
       </c>
       <c r="I9" t="n">
-        <v>33.465</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.666</v>
+        <v>16.149</v>
       </c>
       <c r="K9" t="n">
-        <v>17.686</v>
+        <v>8.646000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>18.334</v>
+        <v>16.667</v>
       </c>
       <c r="M9" t="n">
-        <v>33.509</v>
+        <v>19.811</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>20.174</v>
       </c>
       <c r="O9" t="n">
-        <v>16.843</v>
+        <v>18.106</v>
       </c>
       <c r="P9" t="n">
-        <v>20.315</v>
+        <v>19.009</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.108</v>
+        <v>18.462</v>
       </c>
       <c r="R9" t="n">
-        <v>11.412</v>
+        <v>19.377</v>
       </c>
       <c r="S9" t="n">
-        <v>18.427</v>
+        <v>19.377</v>
       </c>
       <c r="T9" t="n">
-        <v>17.613</v>
+        <v>18.115</v>
       </c>
       <c r="U9" t="n">
-        <v>17.103</v>
+        <v>20.101</v>
       </c>
       <c r="V9" t="n">
-        <v>19.264</v>
+        <v>20.895</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>21.65</v>
       </c>
       <c r="X9" t="n">
-        <v>9.042999999999999</v>
+        <v>14.788</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.385</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="10">
@@ -2605,73 +2605,73 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.519</v>
       </c>
       <c r="D10" t="n">
-        <v>26.558</v>
+        <v>16.491</v>
       </c>
       <c r="E10" t="n">
-        <v>23.335</v>
+        <v>14.479</v>
       </c>
       <c r="F10" t="n">
-        <v>21.958</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.251</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.011</v>
+        <v>10.694</v>
       </c>
       <c r="I10" t="n">
-        <v>33.509</v>
+        <v>19.728</v>
       </c>
       <c r="J10" t="n">
-        <v>19.46</v>
+        <v>18.426</v>
       </c>
       <c r="K10" t="n">
-        <v>17.42</v>
+        <v>14.402</v>
       </c>
       <c r="L10" t="n">
-        <v>19.419</v>
+        <v>23.652</v>
       </c>
       <c r="M10" t="n">
-        <v>23.423</v>
+        <v>20.536</v>
       </c>
       <c r="N10" t="n">
-        <v>14.55</v>
+        <v>20.519</v>
       </c>
       <c r="O10" t="n">
-        <v>17.048</v>
+        <v>21.256</v>
       </c>
       <c r="P10" t="n">
-        <v>20.312</v>
+        <v>21.232</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.395</v>
+        <v>22.702</v>
       </c>
       <c r="R10" t="n">
-        <v>16.726</v>
+        <v>21.198</v>
       </c>
       <c r="S10" t="n">
-        <v>18.89</v>
+        <v>20.853</v>
       </c>
       <c r="T10" t="n">
-        <v>19.551</v>
+        <v>20.491</v>
       </c>
       <c r="U10" t="n">
-        <v>18.197</v>
+        <v>20.159</v>
       </c>
       <c r="V10" t="n">
-        <v>19.162</v>
+        <v>15.892</v>
       </c>
       <c r="W10" t="n">
-        <v>13.664</v>
+        <v>11.478</v>
       </c>
       <c r="X10" t="n">
-        <v>14.373</v>
+        <v>12.525</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2687,70 +2687,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.294</v>
+        <v>8.428000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>21.387</v>
+        <v>16.341</v>
       </c>
       <c r="F11" t="n">
-        <v>21.291</v>
+        <v>18.934</v>
       </c>
       <c r="G11" t="n">
-        <v>17.704</v>
+        <v>18.819</v>
       </c>
       <c r="H11" t="n">
-        <v>19.062</v>
+        <v>17.444</v>
       </c>
       <c r="I11" t="n">
-        <v>33.509</v>
+        <v>6.33</v>
       </c>
       <c r="J11" t="n">
-        <v>19.615</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>16.462</v>
+        <v>11.417</v>
       </c>
       <c r="L11" t="n">
-        <v>20.433</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>19.319</v>
+        <v>12.593</v>
       </c>
       <c r="N11" t="n">
-        <v>19.096</v>
+        <v>11.15</v>
       </c>
       <c r="O11" t="n">
-        <v>16.796</v>
+        <v>11.362</v>
       </c>
       <c r="P11" t="n">
-        <v>18.894</v>
+        <v>10.446</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.282</v>
+        <v>10.417</v>
       </c>
       <c r="R11" t="n">
-        <v>17.734</v>
+        <v>10.531</v>
       </c>
       <c r="S11" t="n">
-        <v>17.881</v>
+        <v>9.194000000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>21.108</v>
+        <v>7.608</v>
       </c>
       <c r="U11" t="n">
-        <v>20.886</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>17.406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>18.919</v>
+        <v>15.053</v>
       </c>
       <c r="X11" t="n">
-        <v>20.565</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.505</v>
+        <v>17.559</v>
       </c>
     </row>
     <row r="12">
@@ -2763,73 +2763,73 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3.714</v>
       </c>
       <c r="D12" t="n">
-        <v>25.441</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>23.289</v>
+        <v>1.41</v>
       </c>
       <c r="F12" t="n">
-        <v>22.482</v>
+        <v>7.516</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56</v>
+        <v>14.878</v>
       </c>
       <c r="H12" t="n">
-        <v>19.231</v>
+        <v>7.34</v>
       </c>
       <c r="I12" t="n">
-        <v>33.509</v>
+        <v>4.545</v>
       </c>
       <c r="J12" t="n">
-        <v>19.912</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.478</v>
+        <v>12</v>
       </c>
       <c r="L12" t="n">
-        <v>19.847</v>
+        <v>5.113</v>
       </c>
       <c r="M12" t="n">
-        <v>22.214</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>17.596</v>
+        <v>2.643</v>
       </c>
       <c r="O12" t="n">
-        <v>18.433</v>
+        <v>2.582</v>
       </c>
       <c r="P12" t="n">
-        <v>17.275</v>
+        <v>2.727</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.999</v>
+        <v>1.672</v>
       </c>
       <c r="R12" t="n">
-        <v>20.309</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>10.328</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>21.054</v>
+        <v>4.924</v>
       </c>
       <c r="U12" t="n">
-        <v>20.717</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>13.769</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>18.406</v>
+        <v>1.494</v>
       </c>
       <c r="X12" t="n">
-        <v>21.837</v>
+        <v>18.031</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.551</v>
+        <v>9.677</v>
       </c>
     </row>
     <row r="13">
@@ -2842,73 +2842,73 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16.177</v>
       </c>
       <c r="D13" t="n">
-        <v>17.519</v>
+        <v>13.017</v>
       </c>
       <c r="E13" t="n">
-        <v>12.305</v>
+        <v>3.212</v>
       </c>
       <c r="F13" t="n">
-        <v>13.501</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.724</v>
+        <v>4.47</v>
       </c>
       <c r="H13" t="n">
-        <v>15.941</v>
+        <v>3.471</v>
       </c>
       <c r="I13" t="n">
-        <v>25.098</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.03</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>10.143</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>15.404</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17.641</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>11.395</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>14.915</v>
+        <v>2.749</v>
       </c>
       <c r="P13" t="n">
-        <v>15.344</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.359</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.482</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>20.063</v>
+        <v>10.66</v>
       </c>
       <c r="T13" t="n">
-        <v>15.504</v>
+        <v>8.427</v>
       </c>
       <c r="U13" t="n">
-        <v>14.945</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12.665</v>
+        <v>10.414</v>
       </c>
       <c r="X13" t="n">
-        <v>17.778</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2918,46 +2918,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.063</v>
+        <v>14.614</v>
       </c>
       <c r="C14" t="n">
-        <v>16.848</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17.702</v>
+        <v>2.483</v>
       </c>
       <c r="E14" t="n">
-        <v>10.487</v>
+        <v>7.123</v>
       </c>
       <c r="F14" t="n">
-        <v>11.791</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14.489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.77</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4.005</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>26.585</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>10.103</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>8.666</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2969,25 +2969,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.498</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>15.863</v>
+        <v>8.038</v>
       </c>
       <c r="V14" t="n">
-        <v>10.196</v>
+        <v>12.568</v>
       </c>
       <c r="W14" t="n">
-        <v>16.938</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.565</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.425</v>
+        <v>13.869</v>
       </c>
     </row>
     <row r="15">
@@ -2997,76 +2997,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.443</v>
+        <v>13.144</v>
       </c>
       <c r="C15" t="n">
-        <v>16.85</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>11.199</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>22.579</v>
+        <v>5.63</v>
       </c>
       <c r="F15" t="n">
-        <v>21.72</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15.991</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>16.633</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.487</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.347</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.851</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>13.747</v>
+        <v>14.992</v>
       </c>
       <c r="M15" t="n">
-        <v>15.561</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.963</v>
+        <v>9.058999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>15.248</v>
+        <v>16.931</v>
       </c>
       <c r="P15" t="n">
-        <v>15.193</v>
+        <v>9.584</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.996</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.094</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>11.217</v>
+        <v>7.421</v>
       </c>
       <c r="T15" t="n">
-        <v>15.531</v>
+        <v>12.153</v>
       </c>
       <c r="U15" t="n">
-        <v>17.646</v>
+        <v>12.809</v>
       </c>
       <c r="V15" t="n">
-        <v>15.858</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14.601</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>17.66</v>
+        <v>13.328</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.424</v>
+        <v>15.189</v>
       </c>
     </row>
     <row r="16">
@@ -3076,76 +3076,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.595</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>17.538</v>
+        <v>16.195</v>
       </c>
       <c r="D16" t="n">
-        <v>11.187</v>
+        <v>17.659</v>
       </c>
       <c r="E16" t="n">
-        <v>23.239</v>
+        <v>11.973</v>
       </c>
       <c r="F16" t="n">
-        <v>22.241</v>
+        <v>9.657</v>
       </c>
       <c r="G16" t="n">
-        <v>15.332</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>17.606</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.373</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.905</v>
+        <v>12.902</v>
       </c>
       <c r="K16" t="n">
-        <v>19.267</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.357</v>
+        <v>11.759</v>
       </c>
       <c r="M16" t="n">
-        <v>17.373</v>
+        <v>16.424</v>
       </c>
       <c r="N16" t="n">
-        <v>18.261</v>
+        <v>14.131</v>
       </c>
       <c r="O16" t="n">
-        <v>18.407</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>17.342</v>
+        <v>15.894</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.779</v>
+        <v>13.13</v>
       </c>
       <c r="R16" t="n">
-        <v>17.95</v>
+        <v>8.815</v>
       </c>
       <c r="S16" t="n">
-        <v>14.347</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="T16" t="n">
-        <v>15.448</v>
+        <v>7.059</v>
       </c>
       <c r="U16" t="n">
-        <v>16.14</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16.836</v>
+        <v>11.808</v>
       </c>
       <c r="W16" t="n">
-        <v>14.564</v>
+        <v>15.073</v>
       </c>
       <c r="X16" t="n">
-        <v>17.196</v>
+        <v>11.939</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.202</v>
+        <v>15.971</v>
       </c>
     </row>
     <row r="17">
@@ -3155,76 +3155,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.918</v>
+        <v>11.487</v>
       </c>
       <c r="C17" t="n">
-        <v>9.907</v>
+        <v>18.103</v>
       </c>
       <c r="D17" t="n">
-        <v>3.734</v>
+        <v>18.038</v>
       </c>
       <c r="E17" t="n">
-        <v>11.484</v>
+        <v>17.151</v>
       </c>
       <c r="F17" t="n">
-        <v>12.984</v>
+        <v>20.21</v>
       </c>
       <c r="G17" t="n">
-        <v>14.817</v>
+        <v>12.849</v>
       </c>
       <c r="H17" t="n">
-        <v>13.315</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>12.792</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>14.511</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>15.193</v>
+        <v>14.317</v>
       </c>
       <c r="L17" t="n">
-        <v>12.665</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>14.421</v>
+        <v>2.544</v>
       </c>
       <c r="N17" t="n">
-        <v>14.656</v>
+        <v>9.314</v>
       </c>
       <c r="O17" t="n">
-        <v>13.953</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.553</v>
+        <v>5.679</v>
       </c>
       <c r="R17" t="n">
-        <v>13.851</v>
+        <v>9.641</v>
       </c>
       <c r="S17" t="n">
-        <v>12.707</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>12.883</v>
+        <v>1.297</v>
       </c>
       <c r="U17" t="n">
-        <v>14.051</v>
+        <v>7.186</v>
       </c>
       <c r="V17" t="n">
-        <v>14.617</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14.373</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>14.974</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.294</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3375,76 +3375,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.791</v>
+        <v>52.523</v>
       </c>
       <c r="C2" t="n">
-        <v>55.402</v>
+        <v>54.99</v>
       </c>
       <c r="D2" t="n">
-        <v>47.197</v>
+        <v>61.457</v>
       </c>
       <c r="E2" t="n">
-        <v>60.905</v>
+        <v>62.072</v>
       </c>
       <c r="F2" t="n">
-        <v>48.923</v>
+        <v>60.391</v>
       </c>
       <c r="G2" t="n">
-        <v>39.754</v>
+        <v>63.051</v>
       </c>
       <c r="H2" t="n">
-        <v>50.759</v>
+        <v>66.514</v>
       </c>
       <c r="I2" t="n">
-        <v>42.192</v>
+        <v>66.929</v>
       </c>
       <c r="J2" t="n">
-        <v>31.187</v>
+        <v>67.35899999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>69.25700000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>37.761</v>
+        <v>70.64100000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>43.039</v>
+        <v>68.16800000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>20.537</v>
+        <v>70.453</v>
       </c>
       <c r="O2" t="n">
-        <v>30.797</v>
+        <v>70.8</v>
       </c>
       <c r="P2" t="n">
-        <v>29.498</v>
+        <v>71.759</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.352</v>
+        <v>71.57299999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>32.187</v>
+        <v>70.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.994</v>
+        <v>71.185</v>
       </c>
       <c r="T2" t="n">
-        <v>30.251</v>
+        <v>71.529</v>
       </c>
       <c r="U2" t="n">
-        <v>30.781</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>32.46</v>
+        <v>69.35599999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>26.055</v>
+        <v>68.063</v>
       </c>
       <c r="X2" t="n">
-        <v>45.356</v>
+        <v>69.402</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.735</v>
+        <v>66.911</v>
       </c>
     </row>
     <row r="3">
@@ -3454,76 +3454,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.295</v>
+        <v>56.477</v>
       </c>
       <c r="C3" t="n">
-        <v>58.705</v>
+        <v>37.351</v>
       </c>
       <c r="D3" t="n">
-        <v>49.796</v>
+        <v>56.943</v>
       </c>
       <c r="E3" t="n">
-        <v>64.279</v>
+        <v>63.782</v>
       </c>
       <c r="F3" t="n">
-        <v>55.039</v>
+        <v>61.8</v>
       </c>
       <c r="G3" t="n">
-        <v>44.582</v>
+        <v>66.17</v>
       </c>
       <c r="H3" t="n">
-        <v>55.652</v>
+        <v>62.3</v>
       </c>
       <c r="I3" t="n">
-        <v>49.006</v>
+        <v>59.681</v>
       </c>
       <c r="J3" t="n">
-        <v>41.517</v>
+        <v>61.142</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.692</v>
       </c>
       <c r="L3" t="n">
-        <v>44.822</v>
+        <v>67.90900000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>47.366</v>
+        <v>73.136</v>
       </c>
       <c r="N3" t="n">
-        <v>37.767</v>
+        <v>71.759</v>
       </c>
       <c r="O3" t="n">
-        <v>39.044</v>
+        <v>72.56699999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>40.076</v>
+        <v>73.91800000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>36.321</v>
+        <v>73.242</v>
       </c>
       <c r="R3" t="n">
-        <v>40.039</v>
+        <v>74.527</v>
       </c>
       <c r="S3" t="n">
-        <v>38.834</v>
+        <v>72.63800000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>39</v>
+        <v>72.462</v>
       </c>
       <c r="U3" t="n">
-        <v>39.572</v>
+        <v>73.304</v>
       </c>
       <c r="V3" t="n">
-        <v>42.192</v>
+        <v>72.56699999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>38.744</v>
+        <v>68.521</v>
       </c>
       <c r="X3" t="n">
-        <v>47.051</v>
+        <v>69.464</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.741</v>
+        <v>67.334</v>
       </c>
     </row>
     <row r="4">
@@ -3533,76 +3533,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.114</v>
+        <v>53.219</v>
       </c>
       <c r="C4" t="n">
-        <v>60.671</v>
+        <v>36.774</v>
       </c>
       <c r="D4" t="n">
-        <v>51.348</v>
+        <v>53.681</v>
       </c>
       <c r="E4" t="n">
-        <v>67.42700000000001</v>
+        <v>63.286</v>
       </c>
       <c r="F4" t="n">
-        <v>56.53</v>
+        <v>55.122</v>
       </c>
       <c r="G4" t="n">
-        <v>45.265</v>
+        <v>55.324</v>
       </c>
       <c r="H4" t="n">
-        <v>53.134</v>
+        <v>58.08</v>
       </c>
       <c r="I4" t="n">
-        <v>46.255</v>
+        <v>86.379</v>
       </c>
       <c r="J4" t="n">
-        <v>44.634</v>
+        <v>28.422</v>
       </c>
       <c r="K4" t="n">
-        <v>35.9</v>
+        <v>15.309</v>
       </c>
       <c r="L4" t="n">
-        <v>45.491</v>
+        <v>20.037</v>
       </c>
       <c r="M4" t="n">
-        <v>41.75</v>
+        <v>49.035</v>
       </c>
       <c r="N4" t="n">
-        <v>44.445</v>
+        <v>71.69199999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>33.382</v>
+        <v>72.009</v>
       </c>
       <c r="P4" t="n">
-        <v>43.344</v>
+        <v>73.48699999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.025</v>
+        <v>73.66500000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>35.946</v>
+        <v>75.955</v>
       </c>
       <c r="S4" t="n">
-        <v>38.484</v>
+        <v>72.866</v>
       </c>
       <c r="T4" t="n">
-        <v>39.62</v>
+        <v>70.901</v>
       </c>
       <c r="U4" t="n">
-        <v>38.933</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>41.336</v>
+        <v>68.59399999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>41.708</v>
+        <v>66.066</v>
       </c>
       <c r="X4" t="n">
-        <v>37.735</v>
+        <v>65.652</v>
       </c>
       <c r="Y4" t="n">
-        <v>34.32</v>
+        <v>63.631</v>
       </c>
     </row>
     <row r="5">
@@ -3612,76 +3612,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.695</v>
+        <v>43.505</v>
       </c>
       <c r="C5" t="n">
-        <v>39.518</v>
+        <v>28.877</v>
       </c>
       <c r="D5" t="n">
-        <v>35.164</v>
+        <v>47.079</v>
       </c>
       <c r="E5" t="n">
-        <v>39.498</v>
+        <v>52.913</v>
       </c>
       <c r="F5" t="n">
-        <v>38.438</v>
+        <v>48.552</v>
       </c>
       <c r="G5" t="n">
-        <v>45.245</v>
+        <v>66.18899999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>49.799</v>
+        <v>11.114</v>
       </c>
       <c r="I5" t="n">
-        <v>24.097</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>43.641</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>42.083</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>45.424</v>
+        <v>20.581</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>24.667</v>
       </c>
       <c r="N5" t="n">
-        <v>47.261</v>
+        <v>59.458</v>
       </c>
       <c r="O5" t="n">
-        <v>32.397</v>
+        <v>61.829</v>
       </c>
       <c r="P5" t="n">
-        <v>48.46</v>
+        <v>66.812</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.7</v>
+        <v>66.081</v>
       </c>
       <c r="R5" t="n">
-        <v>28.888</v>
+        <v>66.121</v>
       </c>
       <c r="S5" t="n">
-        <v>41.613</v>
+        <v>66.919</v>
       </c>
       <c r="T5" t="n">
-        <v>41.682</v>
+        <v>67.39</v>
       </c>
       <c r="U5" t="n">
-        <v>38.035</v>
+        <v>64.879</v>
       </c>
       <c r="V5" t="n">
-        <v>41.894</v>
+        <v>62.063</v>
       </c>
       <c r="W5" t="n">
-        <v>41.887</v>
+        <v>63.393</v>
       </c>
       <c r="X5" t="n">
-        <v>32.008</v>
+        <v>65.41500000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>61.081</v>
       </c>
     </row>
     <row r="6">
@@ -3691,76 +3691,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.242</v>
+        <v>47.755</v>
       </c>
       <c r="C6" t="n">
-        <v>13.95</v>
+        <v>39.97</v>
       </c>
       <c r="D6" t="n">
-        <v>9.585000000000001</v>
+        <v>44.279</v>
       </c>
       <c r="E6" t="n">
-        <v>37.221</v>
+        <v>51.675</v>
       </c>
       <c r="F6" t="n">
-        <v>32.97</v>
+        <v>90.32299999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.355</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>42.575</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.207</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>47.961</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>40.724</v>
+        <v>23.264</v>
       </c>
       <c r="N6" t="n">
-        <v>51.587</v>
+        <v>15.44</v>
       </c>
       <c r="O6" t="n">
-        <v>18.722</v>
+        <v>32.802</v>
       </c>
       <c r="P6" t="n">
-        <v>49.687</v>
+        <v>62.313</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.981</v>
+        <v>66.876</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>64.092</v>
       </c>
       <c r="S6" t="n">
-        <v>45.424</v>
+        <v>65.755</v>
       </c>
       <c r="T6" t="n">
-        <v>43.76</v>
+        <v>67.387</v>
       </c>
       <c r="U6" t="n">
-        <v>37.975</v>
+        <v>64.788</v>
       </c>
       <c r="V6" t="n">
-        <v>42.542</v>
+        <v>62.141</v>
       </c>
       <c r="W6" t="n">
-        <v>42.425</v>
+        <v>62.063</v>
       </c>
       <c r="X6" t="n">
-        <v>41.191</v>
+        <v>62.479</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>61.081</v>
       </c>
     </row>
     <row r="7">
@@ -3770,76 +3770,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.242</v>
+        <v>25.979</v>
       </c>
       <c r="C7" t="n">
-        <v>62.498</v>
+        <v>36.692</v>
       </c>
       <c r="D7" t="n">
-        <v>62.418</v>
+        <v>50.972</v>
       </c>
       <c r="E7" t="n">
-        <v>88.41200000000001</v>
+        <v>55.005</v>
       </c>
       <c r="F7" t="n">
-        <v>71.858</v>
+        <v>68.998</v>
       </c>
       <c r="G7" t="n">
-        <v>41.395</v>
+        <v>24.263</v>
       </c>
       <c r="H7" t="n">
-        <v>49.591</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>42.962</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.267</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>55.683</v>
+        <v>3.482</v>
       </c>
       <c r="M7" t="n">
-        <v>52.732</v>
+        <v>20.513</v>
       </c>
       <c r="N7" t="n">
-        <v>54.954</v>
+        <v>15.788</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>21.87</v>
       </c>
       <c r="P7" t="n">
-        <v>48.959</v>
+        <v>57.162</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.058</v>
+        <v>66.19799999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.40900000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>46.155</v>
+        <v>64.001</v>
       </c>
       <c r="T7" t="n">
-        <v>43.525</v>
+        <v>64.843</v>
       </c>
       <c r="U7" t="n">
-        <v>39.72</v>
+        <v>64.14400000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>43.406</v>
+        <v>63.67</v>
       </c>
       <c r="W7" t="n">
-        <v>39.054</v>
+        <v>61.919</v>
       </c>
       <c r="X7" t="n">
-        <v>48.654</v>
+        <v>61.763</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.011</v>
+        <v>60.888</v>
       </c>
     </row>
     <row r="8">
@@ -3849,76 +3849,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.909</v>
+        <v>2.803</v>
       </c>
       <c r="C8" t="n">
-        <v>48.087</v>
+        <v>27.078</v>
       </c>
       <c r="D8" t="n">
-        <v>42.165</v>
+        <v>34.635</v>
       </c>
       <c r="E8" t="n">
-        <v>55.083</v>
+        <v>20.223</v>
       </c>
       <c r="F8" t="n">
-        <v>53.588</v>
+        <v>22.616</v>
       </c>
       <c r="G8" t="n">
-        <v>42.381</v>
+        <v>28.046</v>
       </c>
       <c r="H8" t="n">
-        <v>49.113</v>
+        <v>27.708</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>43.418</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>49.268</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>54.277</v>
+        <v>84.211</v>
       </c>
       <c r="M8" t="n">
-        <v>44.604</v>
+        <v>50.66</v>
       </c>
       <c r="N8" t="n">
-        <v>39.039</v>
+        <v>39.645</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>29.571</v>
       </c>
       <c r="P8" t="n">
-        <v>51.312</v>
+        <v>59.432</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.079</v>
+        <v>64.172</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.491</v>
       </c>
       <c r="S8" t="n">
-        <v>46.445</v>
+        <v>62.916</v>
       </c>
       <c r="T8" t="n">
-        <v>44.318</v>
+        <v>64.843</v>
       </c>
       <c r="U8" t="n">
-        <v>41.068</v>
+        <v>66.19799999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>44.894</v>
+        <v>64.001</v>
       </c>
       <c r="W8" t="n">
-        <v>17.12</v>
+        <v>62.396</v>
       </c>
       <c r="X8" t="n">
-        <v>43.327</v>
+        <v>60.164</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.867</v>
+        <v>57.733</v>
       </c>
     </row>
     <row r="9">
@@ -3928,76 +3928,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.915</v>
+        <v>41.004</v>
       </c>
       <c r="C9" t="n">
-        <v>29.022</v>
+        <v>19.02</v>
       </c>
       <c r="D9" t="n">
-        <v>46.35</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.87</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>43.759</v>
+        <v>21.775</v>
       </c>
       <c r="G9" t="n">
-        <v>44.194</v>
+        <v>4.608</v>
       </c>
       <c r="H9" t="n">
-        <v>48.678</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.181</v>
       </c>
       <c r="J9" t="n">
-        <v>45.042</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>49.307</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>47.779</v>
+        <v>83.333</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>61.233</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.522</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>57.938</v>
       </c>
       <c r="P9" t="n">
-        <v>50.327</v>
+        <v>62.728</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.648</v>
+        <v>65.642</v>
       </c>
       <c r="R9" t="n">
-        <v>28.53</v>
+        <v>62.006</v>
       </c>
       <c r="S9" t="n">
-        <v>45.726</v>
+        <v>62.006</v>
       </c>
       <c r="T9" t="n">
-        <v>43.054</v>
+        <v>64.40900000000001</v>
       </c>
       <c r="U9" t="n">
-        <v>41.249</v>
+        <v>64.32299999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>44.032</v>
+        <v>66.863</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.95099999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>27.128</v>
+        <v>59.15</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.021</v>
+        <v>56.951</v>
       </c>
     </row>
     <row r="10">
@@ -4007,76 +4007,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.566</v>
+        <v>14.231</v>
       </c>
       <c r="C10" t="n">
-        <v>41.005</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>64.691</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>67.67100000000001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>61.71</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>45.001</v>
+        <v>7.883</v>
       </c>
       <c r="H10" t="n">
-        <v>48.343</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.259</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>45.808</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>46.835</v>
+        <v>70.955</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>59.895</v>
       </c>
       <c r="N10" t="n">
-        <v>34.555</v>
+        <v>61.558</v>
       </c>
       <c r="O10" t="n">
-        <v>38.359</v>
+        <v>63.769</v>
       </c>
       <c r="P10" t="n">
-        <v>49.598</v>
+        <v>65.627</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.06</v>
+        <v>66.214</v>
       </c>
       <c r="R10" t="n">
-        <v>39.884</v>
+        <v>61.829</v>
       </c>
       <c r="S10" t="n">
-        <v>41.756</v>
+        <v>64.456</v>
       </c>
       <c r="T10" t="n">
-        <v>42.722</v>
+        <v>63.336</v>
       </c>
       <c r="U10" t="n">
-        <v>45.493</v>
+        <v>62.158</v>
       </c>
       <c r="V10" t="n">
-        <v>41.809</v>
+        <v>50.854</v>
       </c>
       <c r="W10" t="n">
-        <v>33.183</v>
+        <v>42.634</v>
       </c>
       <c r="X10" t="n">
-        <v>32.853</v>
+        <v>75.14700000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.46</v>
+        <v>6.638</v>
       </c>
     </row>
     <row r="11">
@@ -4086,76 +4086,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.282</v>
+        <v>22.264</v>
       </c>
       <c r="C11" t="n">
-        <v>38.991</v>
+        <v>20.921</v>
       </c>
       <c r="D11" t="n">
-        <v>60.563</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>61.31</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>57.732</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.644</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>48.473</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.528</v>
+        <v>30.58</v>
       </c>
       <c r="K11" t="n">
-        <v>42.183</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.017</v>
+        <v>2.924</v>
       </c>
       <c r="M11" t="n">
-        <v>46.024</v>
+        <v>41.558</v>
       </c>
       <c r="N11" t="n">
-        <v>46.873</v>
+        <v>39.025</v>
       </c>
       <c r="O11" t="n">
-        <v>44.545</v>
+        <v>39.768</v>
       </c>
       <c r="P11" t="n">
-        <v>51.015</v>
+        <v>37.867</v>
       </c>
       <c r="Q11" t="n">
-        <v>46</v>
+        <v>36.458</v>
       </c>
       <c r="R11" t="n">
-        <v>46.476</v>
+        <v>38.176</v>
       </c>
       <c r="S11" t="n">
-        <v>33.526</v>
+        <v>34.149</v>
       </c>
       <c r="T11" t="n">
-        <v>51.694</v>
+        <v>29.163</v>
       </c>
       <c r="U11" t="n">
-        <v>53.468</v>
+        <v>9.952</v>
       </c>
       <c r="V11" t="n">
-        <v>34.812</v>
+        <v>2.89</v>
       </c>
       <c r="W11" t="n">
-        <v>48.109</v>
+        <v>70.248</v>
       </c>
       <c r="X11" t="n">
-        <v>46.541</v>
+        <v>20.749</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4165,76 +4165,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.956</v>
+        <v>5.208</v>
       </c>
       <c r="C12" t="n">
-        <v>40.439</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>63.269</v>
+        <v>10.199</v>
       </c>
       <c r="E12" t="n">
-        <v>66.95699999999999</v>
+        <v>16.916</v>
       </c>
       <c r="F12" t="n">
-        <v>60.784</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.633</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>48.858</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>95.455</v>
       </c>
       <c r="J12" t="n">
-        <v>53.382</v>
+        <v>54.736</v>
       </c>
       <c r="K12" t="n">
-        <v>37.229</v>
+        <v>88</v>
       </c>
       <c r="L12" t="n">
-        <v>46.499</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>56.252</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>46.721</v>
+        <v>13.215</v>
       </c>
       <c r="O12" t="n">
-        <v>49.819</v>
+        <v>15.491</v>
       </c>
       <c r="P12" t="n">
-        <v>46.273</v>
+        <v>20.456</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.349</v>
+        <v>23.408</v>
       </c>
       <c r="R12" t="n">
-        <v>54.833</v>
+        <v>11.231</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>7.169</v>
       </c>
       <c r="T12" t="n">
-        <v>56.279</v>
+        <v>17.235</v>
       </c>
       <c r="U12" t="n">
-        <v>50.893</v>
+        <v>10.637</v>
       </c>
       <c r="V12" t="n">
-        <v>13.769</v>
+        <v>26.716</v>
       </c>
       <c r="W12" t="n">
-        <v>47.165</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>49.589</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4244,76 +4244,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.211</v>
+        <v>17.432</v>
       </c>
       <c r="C13" t="n">
-        <v>30.117</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.879</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.44</v>
+        <v>25.699</v>
       </c>
       <c r="F13" t="n">
-        <v>34.878</v>
+        <v>18.35</v>
       </c>
       <c r="G13" t="n">
-        <v>35.684</v>
+        <v>46.937</v>
       </c>
       <c r="H13" t="n">
-        <v>38.26</v>
+        <v>72.89700000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20.563</v>
       </c>
       <c r="J13" t="n">
-        <v>40.075</v>
+        <v>17.507</v>
       </c>
       <c r="K13" t="n">
-        <v>30.43</v>
+        <v>45.46</v>
       </c>
       <c r="L13" t="n">
-        <v>36.411</v>
+        <v>51.418</v>
       </c>
       <c r="M13" t="n">
-        <v>47.41</v>
+        <v>23.894</v>
       </c>
       <c r="N13" t="n">
-        <v>31.337</v>
+        <v>10.031</v>
       </c>
       <c r="O13" t="n">
-        <v>36.611</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>33.246</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.076</v>
+        <v>4.738</v>
       </c>
       <c r="R13" t="n">
-        <v>40.639</v>
+        <v>4.5</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>26.65</v>
       </c>
       <c r="T13" t="n">
-        <v>40.311</v>
+        <v>35.114</v>
       </c>
       <c r="U13" t="n">
-        <v>37.803</v>
+        <v>14.524</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.196</v>
       </c>
       <c r="W13" t="n">
-        <v>31.661</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>38.788</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.869</v>
+        <v>52.198</v>
       </c>
     </row>
     <row r="14">
@@ -4323,40 +4323,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.975</v>
+        <v>56.833</v>
       </c>
       <c r="C14" t="n">
-        <v>28.882</v>
+        <v>40.829</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>49.664</v>
       </c>
       <c r="E14" t="n">
-        <v>26.218</v>
+        <v>59.358</v>
       </c>
       <c r="F14" t="n">
-        <v>26.529</v>
+        <v>34.367</v>
       </c>
       <c r="G14" t="n">
-        <v>28.12</v>
+        <v>29.279</v>
       </c>
       <c r="H14" t="n">
-        <v>14.489</v>
+        <v>29.494</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24.759</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.778</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>8.138999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.552</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -4365,34 +4365,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>11.395</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>23.849</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>34.957</v>
       </c>
       <c r="S14" t="n">
-        <v>25.098</v>
+        <v>31.872</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>20.772</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>20.392</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>25.407</v>
+        <v>4.587</v>
       </c>
       <c r="X14" t="n">
-        <v>6.565</v>
+        <v>4.36</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4402,76 +4402,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.968</v>
+        <v>48.196</v>
       </c>
       <c r="C15" t="n">
-        <v>53.027</v>
+        <v>10.569</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.884</v>
       </c>
       <c r="E15" t="n">
-        <v>63.319</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>59.197</v>
+        <v>14.329</v>
       </c>
       <c r="G15" t="n">
-        <v>40.512</v>
+        <v>29.052</v>
       </c>
       <c r="H15" t="n">
-        <v>38.518</v>
+        <v>34.26</v>
       </c>
       <c r="I15" t="n">
-        <v>28.394</v>
+        <v>15.465</v>
       </c>
       <c r="J15" t="n">
-        <v>40.67</v>
+        <v>26.425</v>
       </c>
       <c r="K15" t="n">
-        <v>34.653</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>34.367</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>41.768</v>
+        <v>6.218</v>
       </c>
       <c r="N15" t="n">
-        <v>34.914</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>32.841</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>35.061</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.605</v>
+        <v>6.195</v>
       </c>
       <c r="R15" t="n">
-        <v>37.877</v>
+        <v>1.401</v>
       </c>
       <c r="S15" t="n">
-        <v>30.445</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>35.149</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>34.364</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>29.451</v>
+        <v>9.637</v>
       </c>
       <c r="W15" t="n">
-        <v>34.511</v>
+        <v>16.554</v>
       </c>
       <c r="X15" t="n">
-        <v>37.624</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4481,76 +4481,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.9</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>55.536</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.84399999999999</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.956</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.884</v>
+        <v>1.376</v>
       </c>
       <c r="H16" t="n">
-        <v>39.438</v>
+        <v>28.738</v>
       </c>
       <c r="I16" t="n">
-        <v>33.505</v>
+        <v>11.035</v>
       </c>
       <c r="J16" t="n">
-        <v>41.352</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>44.768</v>
+        <v>10.989</v>
       </c>
       <c r="L16" t="n">
-        <v>38.285</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>44.93</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>41.256</v>
+        <v>23.914</v>
       </c>
       <c r="O16" t="n">
-        <v>41.892</v>
+        <v>28.442</v>
       </c>
       <c r="P16" t="n">
-        <v>40.687</v>
+        <v>27.815</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.447</v>
+        <v>19.694</v>
       </c>
       <c r="R16" t="n">
-        <v>45.165</v>
+        <v>12.593</v>
       </c>
       <c r="S16" t="n">
-        <v>31.563</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>30.895</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>32.28</v>
+        <v>7.317</v>
       </c>
       <c r="V16" t="n">
-        <v>33.671</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.851</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>37.518</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4560,76 +4560,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.328</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>32.694</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.452</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>36.356</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>29.634</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28.294</v>
+        <v>5.735</v>
       </c>
       <c r="I17" t="n">
-        <v>25.583</v>
+        <v>2.885</v>
       </c>
       <c r="J17" t="n">
-        <v>29.021</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>31.652</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>31.661</v>
+        <v>8.667</v>
       </c>
       <c r="M17" t="n">
-        <v>30.445</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>29.312</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>29.649</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>26.6</v>
+        <v>10.11</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.623</v>
+        <v>26.975</v>
       </c>
       <c r="R17" t="n">
-        <v>30.473</v>
+        <v>46.6</v>
       </c>
       <c r="S17" t="n">
-        <v>27.955</v>
+        <v>41.356</v>
       </c>
       <c r="T17" t="n">
-        <v>27.605</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>25.76</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>21.926</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>32.853</v>
+        <v>24.729</v>
       </c>
       <c r="X17" t="n">
-        <v>31.196</v>
+        <v>32.986</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.018</v>
+        <v>29.826</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.946</v>
+        <v>31.72</v>
       </c>
       <c r="C2" t="n">
-        <v>18.82</v>
+        <v>27.413</v>
       </c>
       <c r="D2" t="n">
-        <v>16.574</v>
+        <v>18.058</v>
       </c>
       <c r="E2" t="n">
-        <v>18.927</v>
+        <v>17.238</v>
       </c>
       <c r="F2" t="n">
-        <v>32.86</v>
+        <v>18.041</v>
       </c>
       <c r="G2" t="n">
-        <v>45.522</v>
+        <v>15.168</v>
       </c>
       <c r="H2" t="n">
-        <v>29.683</v>
+        <v>10.896</v>
       </c>
       <c r="I2" t="n">
-        <v>38.386</v>
+        <v>10.761</v>
       </c>
       <c r="J2" t="n">
-        <v>54.636</v>
+        <v>11.035</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>7.246</v>
       </c>
       <c r="L2" t="n">
-        <v>42.848</v>
+        <v>7.525</v>
       </c>
       <c r="M2" t="n">
-        <v>36.074</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>65.77200000000001</v>
+        <v>9.224</v>
       </c>
       <c r="O2" t="n">
-        <v>53.804</v>
+        <v>7.826</v>
       </c>
       <c r="P2" t="n">
-        <v>54.886</v>
+        <v>7.932</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.636</v>
+        <v>8.387</v>
       </c>
       <c r="R2" t="n">
-        <v>51.232</v>
+        <v>7.826</v>
       </c>
       <c r="S2" t="n">
-        <v>54.409</v>
+        <v>7.723</v>
       </c>
       <c r="T2" t="n">
-        <v>53.733</v>
+        <v>7.013</v>
       </c>
       <c r="U2" t="n">
-        <v>54.638</v>
+        <v>6.914</v>
       </c>
       <c r="V2" t="n">
-        <v>51.309</v>
+        <v>7.525</v>
       </c>
       <c r="W2" t="n">
-        <v>59.057</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>33.332</v>
+        <v>8.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.554</v>
+        <v>10.016</v>
       </c>
     </row>
     <row r="3">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.966</v>
+        <v>24.697</v>
       </c>
       <c r="C3" t="n">
-        <v>13.966</v>
+        <v>51.977</v>
       </c>
       <c r="D3" t="n">
-        <v>12.126</v>
+        <v>24.939</v>
       </c>
       <c r="E3" t="n">
-        <v>14.058</v>
+        <v>15.344</v>
       </c>
       <c r="F3" t="n">
-        <v>24.767</v>
+        <v>16.85</v>
       </c>
       <c r="G3" t="n">
-        <v>38.595</v>
+        <v>11.773</v>
       </c>
       <c r="H3" t="n">
-        <v>23.29</v>
+        <v>18.318</v>
       </c>
       <c r="I3" t="n">
-        <v>29.058</v>
+        <v>24.189</v>
       </c>
       <c r="J3" t="n">
-        <v>40.215</v>
+        <v>23.573</v>
       </c>
       <c r="K3" t="n">
-        <v>55.066</v>
+        <v>35.831</v>
       </c>
       <c r="L3" t="n">
-        <v>33.664</v>
+        <v>12.284</v>
       </c>
       <c r="M3" t="n">
-        <v>30.197</v>
+        <v>5.052</v>
       </c>
       <c r="N3" t="n">
-        <v>42.74</v>
+        <v>7.932</v>
       </c>
       <c r="O3" t="n">
-        <v>40.286</v>
+        <v>7.114</v>
       </c>
       <c r="P3" t="n">
-        <v>38.931</v>
+        <v>6.063</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.501</v>
+        <v>7.327</v>
       </c>
       <c r="R3" t="n">
-        <v>38.545</v>
+        <v>9.17</v>
       </c>
       <c r="S3" t="n">
-        <v>40.67</v>
+        <v>7.73</v>
       </c>
       <c r="T3" t="n">
-        <v>39.334</v>
+        <v>6.458</v>
       </c>
       <c r="U3" t="n">
-        <v>41.28</v>
+        <v>5.55</v>
       </c>
       <c r="V3" t="n">
-        <v>37.161</v>
+        <v>7.114</v>
       </c>
       <c r="W3" t="n">
-        <v>42.438</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>30.425</v>
+        <v>7.826</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.321</v>
+        <v>10.629</v>
       </c>
     </row>
     <row r="4">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.606</v>
+        <v>29.041</v>
       </c>
       <c r="C4" t="n">
-        <v>11.197</v>
+        <v>53.325</v>
       </c>
       <c r="D4" t="n">
-        <v>9.177</v>
+        <v>30.36</v>
       </c>
       <c r="E4" t="n">
-        <v>9.971</v>
+        <v>15.139</v>
       </c>
       <c r="F4" t="n">
-        <v>22.462</v>
+        <v>26.503</v>
       </c>
       <c r="G4" t="n">
-        <v>37.264</v>
+        <v>31.909</v>
       </c>
       <c r="H4" t="n">
-        <v>26.625</v>
+        <v>33.208</v>
       </c>
       <c r="I4" t="n">
-        <v>33.611</v>
+        <v>4.528</v>
       </c>
       <c r="J4" t="n">
-        <v>35.018</v>
+        <v>66.41</v>
       </c>
       <c r="K4" t="n">
-        <v>47.095</v>
+        <v>73.756</v>
       </c>
       <c r="L4" t="n">
-        <v>34.038</v>
+        <v>68.83199999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>39.938</v>
+        <v>40.82</v>
       </c>
       <c r="N4" t="n">
-        <v>35.655</v>
+        <v>6.059</v>
       </c>
       <c r="O4" t="n">
-        <v>48.945</v>
+        <v>6.915</v>
       </c>
       <c r="P4" t="n">
-        <v>36.298</v>
+        <v>13.152</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.129</v>
+        <v>11.602</v>
       </c>
       <c r="R4" t="n">
-        <v>43.736</v>
+        <v>10.236</v>
       </c>
       <c r="S4" t="n">
-        <v>41.69</v>
+        <v>11.954</v>
       </c>
       <c r="T4" t="n">
-        <v>41.254</v>
+        <v>11.985</v>
       </c>
       <c r="U4" t="n">
-        <v>42.99</v>
+        <v>11.196</v>
       </c>
       <c r="V4" t="n">
-        <v>38.436</v>
+        <v>8.98</v>
       </c>
       <c r="W4" t="n">
-        <v>38.273</v>
+        <v>11.472</v>
       </c>
       <c r="X4" t="n">
-        <v>43.397</v>
+        <v>11.177</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.52</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="5">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.48</v>
+        <v>42.652</v>
       </c>
       <c r="C5" t="n">
-        <v>41.514</v>
+        <v>63.904</v>
       </c>
       <c r="D5" t="n">
-        <v>38.284</v>
+        <v>38.535</v>
       </c>
       <c r="E5" t="n">
-        <v>44.868</v>
+        <v>29.925</v>
       </c>
       <c r="F5" t="n">
-        <v>45.979</v>
+        <v>37.287</v>
       </c>
       <c r="G5" t="n">
-        <v>37.997</v>
+        <v>22.3</v>
       </c>
       <c r="H5" t="n">
-        <v>31.278</v>
+        <v>77.771</v>
       </c>
       <c r="I5" t="n">
-        <v>62.516</v>
+        <v>63.253</v>
       </c>
       <c r="J5" t="n">
-        <v>35.516</v>
+        <v>52.158</v>
       </c>
       <c r="K5" t="n">
-        <v>40.74</v>
+        <v>75.181</v>
       </c>
       <c r="L5" t="n">
-        <v>36.143</v>
+        <v>65.69799999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>52.539</v>
+        <v>71.538</v>
       </c>
       <c r="N5" t="n">
-        <v>32.868</v>
+        <v>20.723</v>
       </c>
       <c r="O5" t="n">
-        <v>51.404</v>
+        <v>16.973</v>
       </c>
       <c r="P5" t="n">
-        <v>31.348</v>
+        <v>10.917</v>
       </c>
       <c r="Q5" t="n">
-        <v>30.935</v>
+        <v>14.339</v>
       </c>
       <c r="R5" t="n">
-        <v>54.604</v>
+        <v>13.358</v>
       </c>
       <c r="S5" t="n">
-        <v>39.315</v>
+        <v>13.399</v>
       </c>
       <c r="T5" t="n">
-        <v>40.603</v>
+        <v>10.669</v>
       </c>
       <c r="U5" t="n">
-        <v>43.709</v>
+        <v>12.222</v>
       </c>
       <c r="V5" t="n">
-        <v>37.997</v>
+        <v>14.664</v>
       </c>
       <c r="W5" t="n">
-        <v>37.945</v>
+        <v>13.966</v>
       </c>
       <c r="X5" t="n">
-        <v>50.209</v>
+        <v>11.223</v>
       </c>
       <c r="Y5" t="n">
-        <v>100</v>
+        <v>15.888</v>
       </c>
     </row>
     <row r="6">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.51600000000001</v>
+        <v>36.009</v>
       </c>
       <c r="C6" t="n">
-        <v>86.05</v>
+        <v>48.609</v>
       </c>
       <c r="D6" t="n">
-        <v>76.038</v>
+        <v>42.438</v>
       </c>
       <c r="E6" t="n">
-        <v>59.057</v>
+        <v>33.791</v>
       </c>
       <c r="F6" t="n">
-        <v>62.32</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.477</v>
+        <v>82.524</v>
       </c>
       <c r="H6" t="n">
-        <v>30.579</v>
+        <v>39.752</v>
       </c>
       <c r="I6" t="n">
-        <v>33.071</v>
+        <v>36.389</v>
       </c>
       <c r="J6" t="n">
-        <v>37.606</v>
+        <v>35.123</v>
       </c>
       <c r="K6" t="n">
-        <v>35.437</v>
+        <v>41.5</v>
       </c>
       <c r="L6" t="n">
-        <v>33.846</v>
+        <v>71.374</v>
       </c>
       <c r="M6" t="n">
-        <v>42.308</v>
+        <v>65.104</v>
       </c>
       <c r="N6" t="n">
-        <v>27.866</v>
+        <v>71.32599999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>81.27800000000001</v>
+        <v>62.825</v>
       </c>
       <c r="P6" t="n">
-        <v>30.935</v>
+        <v>15.576</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.142</v>
+        <v>13.061</v>
       </c>
       <c r="R6" t="n">
-        <v>41.186</v>
+        <v>14.544</v>
       </c>
       <c r="S6" t="n">
-        <v>36.143</v>
+        <v>14.154</v>
       </c>
       <c r="T6" t="n">
-        <v>38.736</v>
+        <v>11.472</v>
       </c>
       <c r="U6" t="n">
-        <v>43.038</v>
+        <v>13.23</v>
       </c>
       <c r="V6" t="n">
-        <v>38.273</v>
+        <v>15.666</v>
       </c>
       <c r="W6" t="n">
-        <v>37.563</v>
+        <v>14.664</v>
       </c>
       <c r="X6" t="n">
-        <v>39.337</v>
+        <v>14.503</v>
       </c>
       <c r="Y6" t="n">
-        <v>87.19199999999999</v>
+        <v>15.888</v>
       </c>
     </row>
     <row r="7">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.678</v>
+        <v>72.72199999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>16.187</v>
+        <v>53.301</v>
       </c>
       <c r="D7" t="n">
-        <v>11.141</v>
+        <v>33.582</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>37.494</v>
       </c>
       <c r="F7" t="n">
-        <v>14.738</v>
+        <v>23.041</v>
       </c>
       <c r="G7" t="n">
-        <v>37.531</v>
+        <v>71.32599999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>31.813</v>
+        <v>58.094</v>
       </c>
       <c r="I7" t="n">
-        <v>56.755</v>
+        <v>39.773</v>
       </c>
       <c r="J7" t="n">
-        <v>36.649</v>
+        <v>38.976</v>
       </c>
       <c r="K7" t="n">
-        <v>34.129</v>
+        <v>38.4</v>
       </c>
       <c r="L7" t="n">
-        <v>23.341</v>
+        <v>82.589</v>
       </c>
       <c r="M7" t="n">
-        <v>25.77</v>
+        <v>73.333</v>
       </c>
       <c r="N7" t="n">
-        <v>24.487</v>
+        <v>72.935</v>
       </c>
       <c r="O7" t="n">
-        <v>66.31399999999999</v>
+        <v>73.756</v>
       </c>
       <c r="P7" t="n">
-        <v>33.438</v>
+        <v>24.398</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.365</v>
+        <v>15.54</v>
       </c>
       <c r="R7" t="n">
-        <v>33.246</v>
+        <v>15.903</v>
       </c>
       <c r="S7" t="n">
-        <v>35.134</v>
+        <v>17.712</v>
       </c>
       <c r="T7" t="n">
-        <v>38.88</v>
+        <v>14.24</v>
       </c>
       <c r="U7" t="n">
-        <v>42.226</v>
+        <v>15.052</v>
       </c>
       <c r="V7" t="n">
-        <v>37.303</v>
+        <v>14.548</v>
       </c>
       <c r="W7" t="n">
-        <v>42.568</v>
+        <v>18.621</v>
       </c>
       <c r="X7" t="n">
-        <v>29.104</v>
+        <v>17.108</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.124</v>
+        <v>18.322</v>
       </c>
     </row>
     <row r="8">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.527</v>
+        <v>83.181</v>
       </c>
       <c r="C8" t="n">
-        <v>31.922</v>
+        <v>72.922</v>
       </c>
       <c r="D8" t="n">
-        <v>40.047</v>
+        <v>65.36499999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>36.799</v>
+        <v>64.60899999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>36.556</v>
+        <v>69.845</v>
       </c>
       <c r="G8" t="n">
-        <v>39.078</v>
+        <v>61.937</v>
       </c>
       <c r="H8" t="n">
-        <v>32.078</v>
+        <v>65.898</v>
       </c>
       <c r="I8" t="n">
-        <v>33.071</v>
+        <v>83.21299999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>35.907</v>
+        <v>44.032</v>
       </c>
       <c r="K8" t="n">
-        <v>32.72</v>
+        <v>50.346</v>
       </c>
       <c r="L8" t="n">
-        <v>24.725</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>36.917</v>
+        <v>34.866</v>
       </c>
       <c r="N8" t="n">
-        <v>45.849</v>
+        <v>52.009</v>
       </c>
       <c r="O8" t="n">
-        <v>33.159</v>
+        <v>66.486</v>
       </c>
       <c r="P8" t="n">
-        <v>30.465</v>
+        <v>18.956</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.92</v>
+        <v>16.576</v>
       </c>
       <c r="R8" t="n">
-        <v>33.071</v>
+        <v>14.862</v>
       </c>
       <c r="S8" t="n">
-        <v>35.354</v>
+        <v>18.209</v>
       </c>
       <c r="T8" t="n">
-        <v>38.498</v>
+        <v>14.24</v>
       </c>
       <c r="U8" t="n">
-        <v>41.031</v>
+        <v>15.54</v>
       </c>
       <c r="V8" t="n">
-        <v>35.865</v>
+        <v>17.712</v>
       </c>
       <c r="W8" t="n">
-        <v>74.31999999999999</v>
+        <v>17.476</v>
       </c>
       <c r="X8" t="n">
-        <v>36.979</v>
+        <v>20.428</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.328</v>
+        <v>26.341</v>
       </c>
     </row>
     <row r="9">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.113</v>
+        <v>54.264</v>
       </c>
       <c r="C9" t="n">
-        <v>39.124</v>
+        <v>66.349</v>
       </c>
       <c r="D9" t="n">
-        <v>33.938</v>
+        <v>65.373</v>
       </c>
       <c r="E9" t="n">
-        <v>41.992</v>
+        <v>67.176</v>
       </c>
       <c r="F9" t="n">
-        <v>39.509</v>
+        <v>63.15</v>
       </c>
       <c r="G9" t="n">
-        <v>39.129</v>
+        <v>80.03100000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>32.274</v>
+        <v>55.332</v>
       </c>
       <c r="I9" t="n">
-        <v>33.071</v>
+        <v>79.321</v>
       </c>
       <c r="J9" t="n">
-        <v>35.292</v>
+        <v>46.415</v>
       </c>
       <c r="K9" t="n">
-        <v>33.006</v>
+        <v>63.253</v>
       </c>
       <c r="L9" t="n">
-        <v>33.887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>32.983</v>
+        <v>18.956</v>
       </c>
       <c r="N9" t="n">
-        <v>100</v>
+        <v>19.304</v>
       </c>
       <c r="O9" t="n">
-        <v>66.31399999999999</v>
+        <v>23.956</v>
       </c>
       <c r="P9" t="n">
-        <v>29.358</v>
+        <v>18.263</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.244</v>
+        <v>15.896</v>
       </c>
       <c r="R9" t="n">
-        <v>60.058</v>
+        <v>18.617</v>
       </c>
       <c r="S9" t="n">
-        <v>35.847</v>
+        <v>18.617</v>
       </c>
       <c r="T9" t="n">
-        <v>39.332</v>
+        <v>17.476</v>
       </c>
       <c r="U9" t="n">
-        <v>41.648</v>
+        <v>15.576</v>
       </c>
       <c r="V9" t="n">
-        <v>36.704</v>
+        <v>12.242</v>
       </c>
       <c r="W9" t="n">
-        <v>100</v>
+        <v>13.399</v>
       </c>
       <c r="X9" t="n">
-        <v>63.83</v>
+        <v>26.062</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.594</v>
+        <v>40.201</v>
       </c>
     </row>
     <row r="10">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.473</v>
+        <v>78.654</v>
       </c>
       <c r="C10" t="n">
-        <v>28.354</v>
+        <v>78.592</v>
       </c>
       <c r="D10" t="n">
-        <v>8.750999999999999</v>
+        <v>45.507</v>
       </c>
       <c r="E10" t="n">
-        <v>8.994</v>
+        <v>50.932</v>
       </c>
       <c r="F10" t="n">
-        <v>16.331</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>37.748</v>
+        <v>76.352</v>
       </c>
       <c r="H10" t="n">
-        <v>32.646</v>
+        <v>58.195</v>
       </c>
       <c r="I10" t="n">
-        <v>32.983</v>
+        <v>40.18</v>
       </c>
       <c r="J10" t="n">
-        <v>33.281</v>
+        <v>43.356</v>
       </c>
       <c r="K10" t="n">
-        <v>36.773</v>
+        <v>53.404</v>
       </c>
       <c r="L10" t="n">
-        <v>33.745</v>
+        <v>5.394</v>
       </c>
       <c r="M10" t="n">
-        <v>53.154</v>
+        <v>19.569</v>
       </c>
       <c r="N10" t="n">
-        <v>50.895</v>
+        <v>17.922</v>
       </c>
       <c r="O10" t="n">
-        <v>44.593</v>
+        <v>14.974</v>
       </c>
       <c r="P10" t="n">
-        <v>30.09</v>
+        <v>13.141</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.545</v>
+        <v>11.084</v>
       </c>
       <c r="R10" t="n">
-        <v>43.391</v>
+        <v>16.973</v>
       </c>
       <c r="S10" t="n">
-        <v>39.354</v>
+        <v>14.69</v>
       </c>
       <c r="T10" t="n">
-        <v>37.727</v>
+        <v>16.174</v>
       </c>
       <c r="U10" t="n">
-        <v>36.309</v>
+        <v>17.682</v>
       </c>
       <c r="V10" t="n">
-        <v>39.029</v>
+        <v>33.254</v>
       </c>
       <c r="W10" t="n">
-        <v>53.154</v>
+        <v>45.888</v>
       </c>
       <c r="X10" t="n">
-        <v>52.774</v>
+        <v>12.328</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.348</v>
+        <v>73.44799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.828</v>
+        <v>72.965</v>
       </c>
       <c r="C11" t="n">
-        <v>30.683</v>
+        <v>69.423</v>
       </c>
       <c r="D11" t="n">
-        <v>15.144</v>
+        <v>66.289</v>
       </c>
       <c r="E11" t="n">
-        <v>17.303</v>
+        <v>45.293</v>
       </c>
       <c r="F11" t="n">
-        <v>20.977</v>
+        <v>38.922</v>
       </c>
       <c r="G11" t="n">
-        <v>37.653</v>
+        <v>38.686</v>
       </c>
       <c r="H11" t="n">
-        <v>32.465</v>
+        <v>46.215</v>
       </c>
       <c r="I11" t="n">
-        <v>32.983</v>
+        <v>70.88</v>
       </c>
       <c r="J11" t="n">
-        <v>30.857</v>
+        <v>62.625</v>
       </c>
       <c r="K11" t="n">
-        <v>41.356</v>
+        <v>61.598</v>
       </c>
       <c r="L11" t="n">
-        <v>31.55</v>
+        <v>89.765</v>
       </c>
       <c r="M11" t="n">
-        <v>34.658</v>
+        <v>45.849</v>
       </c>
       <c r="N11" t="n">
-        <v>34.031</v>
+        <v>49.825</v>
       </c>
       <c r="O11" t="n">
-        <v>38.66</v>
+        <v>48.869</v>
       </c>
       <c r="P11" t="n">
-        <v>30.09</v>
+        <v>51.687</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.718</v>
+        <v>53.125</v>
       </c>
       <c r="R11" t="n">
-        <v>35.79</v>
+        <v>51.293</v>
       </c>
       <c r="S11" t="n">
-        <v>48.593</v>
+        <v>56.657</v>
       </c>
       <c r="T11" t="n">
-        <v>27.198</v>
+        <v>63.229</v>
       </c>
       <c r="U11" t="n">
-        <v>25.646</v>
+        <v>85.783</v>
       </c>
       <c r="V11" t="n">
-        <v>47.782</v>
+        <v>88.43899999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>32.972</v>
+        <v>14.699</v>
       </c>
       <c r="X11" t="n">
-        <v>32.895</v>
+        <v>62.653</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.177</v>
+        <v>39.799</v>
       </c>
     </row>
     <row r="12">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.948</v>
+        <v>76.565</v>
       </c>
       <c r="C12" t="n">
-        <v>29.347</v>
+        <v>75.24299999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>11.29</v>
+        <v>83.97199999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>9.753</v>
+        <v>81.67400000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>16.735</v>
+        <v>67.789</v>
       </c>
       <c r="G12" t="n">
-        <v>37.807</v>
+        <v>49.883</v>
       </c>
       <c r="H12" t="n">
-        <v>31.911</v>
+        <v>65.749</v>
       </c>
       <c r="I12" t="n">
-        <v>32.983</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>26.706</v>
+        <v>45.264</v>
       </c>
       <c r="K12" t="n">
-        <v>48.293</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>33.654</v>
+        <v>74.43600000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>21.534</v>
+        <v>89.97199999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>35.683</v>
+        <v>84.142</v>
       </c>
       <c r="O12" t="n">
-        <v>31.748</v>
+        <v>81.928</v>
       </c>
       <c r="P12" t="n">
-        <v>36.452</v>
+        <v>76.81699999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.652</v>
+        <v>74.92</v>
       </c>
       <c r="R12" t="n">
-        <v>24.858</v>
+        <v>88.76900000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>89.672</v>
+        <v>91.39700000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>22.667</v>
+        <v>77.84099999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>28.39</v>
+        <v>89.363</v>
       </c>
       <c r="V12" t="n">
-        <v>72.462</v>
+        <v>68.83199999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>34.43</v>
+        <v>73.101</v>
       </c>
       <c r="X12" t="n">
-        <v>28.574</v>
+        <v>42.568</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.727</v>
+        <v>58.389</v>
       </c>
     </row>
     <row r="13">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.38800000000001</v>
+        <v>82.568</v>
       </c>
       <c r="C13" t="n">
-        <v>54.825</v>
+        <v>51.469</v>
       </c>
       <c r="D13" t="n">
-        <v>41.602</v>
+        <v>54.873</v>
       </c>
       <c r="E13" t="n">
-        <v>55.255</v>
+        <v>71.08799999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>51.621</v>
+        <v>75.53400000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>50.592</v>
+        <v>48.593</v>
       </c>
       <c r="H13" t="n">
-        <v>45.799</v>
+        <v>23.632</v>
       </c>
       <c r="I13" t="n">
-        <v>49.803</v>
+        <v>65.04300000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>43.896</v>
+        <v>66.931</v>
       </c>
       <c r="K13" t="n">
-        <v>59.427</v>
+        <v>45.448</v>
       </c>
       <c r="L13" t="n">
-        <v>48.185</v>
+        <v>45.369</v>
       </c>
       <c r="M13" t="n">
-        <v>34.949</v>
+        <v>66.917</v>
       </c>
       <c r="N13" t="n">
-        <v>57.267</v>
+        <v>87.10299999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>48.474</v>
+        <v>87.629</v>
       </c>
       <c r="P13" t="n">
-        <v>51.409</v>
+        <v>94.001</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.566</v>
+        <v>90.524</v>
       </c>
       <c r="R13" t="n">
-        <v>43.879</v>
+        <v>95.5</v>
       </c>
       <c r="S13" t="n">
-        <v>39.811</v>
+        <v>62.69</v>
       </c>
       <c r="T13" t="n">
-        <v>44.184</v>
+        <v>56.458</v>
       </c>
       <c r="U13" t="n">
-        <v>47.252</v>
+        <v>63.691</v>
       </c>
       <c r="V13" t="n">
-        <v>100</v>
+        <v>63.25</v>
       </c>
       <c r="W13" t="n">
-        <v>55.674</v>
+        <v>54.559</v>
       </c>
       <c r="X13" t="n">
-        <v>43.434</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>56.206</v>
+        <v>32.888</v>
       </c>
     </row>
     <row r="14">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.962</v>
+        <v>28.553</v>
       </c>
       <c r="C14" t="n">
-        <v>54.271</v>
+        <v>57.129</v>
       </c>
       <c r="D14" t="n">
-        <v>38.849</v>
+        <v>47.853</v>
       </c>
       <c r="E14" t="n">
-        <v>63.294</v>
+        <v>33.52</v>
       </c>
       <c r="F14" t="n">
-        <v>61.681</v>
+        <v>59.569</v>
       </c>
       <c r="G14" t="n">
-        <v>57.82</v>
+        <v>53.154</v>
       </c>
       <c r="H14" t="n">
-        <v>71.023</v>
+        <v>62.079</v>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>60.798</v>
       </c>
       <c r="J14" t="n">
-        <v>68.45999999999999</v>
+        <v>49.911</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>73.298</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>78.83799999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>36.197</v>
+        <v>73.617</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>56.559</v>
       </c>
       <c r="O14" t="n">
-        <v>100</v>
+        <v>62.087</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>78.83799999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>100</v>
+        <v>74.447</v>
       </c>
       <c r="R14" t="n">
-        <v>100</v>
+        <v>65.04300000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>49.803</v>
+        <v>56.745</v>
       </c>
       <c r="T14" t="n">
-        <v>92.502</v>
+        <v>50.147</v>
       </c>
       <c r="U14" t="n">
-        <v>76.205</v>
+        <v>52.776</v>
       </c>
       <c r="V14" t="n">
-        <v>69.41200000000001</v>
+        <v>49.727</v>
       </c>
       <c r="W14" t="n">
-        <v>57.655</v>
+        <v>70.95099999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>86.869</v>
+        <v>65.12</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.331</v>
+        <v>44.524</v>
       </c>
     </row>
     <row r="15">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.589</v>
+        <v>38.66</v>
       </c>
       <c r="C15" t="n">
-        <v>30.123</v>
+        <v>77.352</v>
       </c>
       <c r="D15" t="n">
-        <v>34.485</v>
+        <v>76.928</v>
       </c>
       <c r="E15" t="n">
-        <v>14.102</v>
+        <v>66.21899999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>19.083</v>
+        <v>71.34099999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>43.497</v>
+        <v>61.264</v>
       </c>
       <c r="H15" t="n">
-        <v>44.849</v>
+        <v>55.034</v>
       </c>
       <c r="I15" t="n">
-        <v>56.119</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>43.983</v>
+        <v>61.379</v>
       </c>
       <c r="K15" t="n">
-        <v>50.495</v>
+        <v>83.011</v>
       </c>
       <c r="L15" t="n">
-        <v>51.887</v>
+        <v>55.907</v>
       </c>
       <c r="M15" t="n">
-        <v>42.671</v>
+        <v>87.56399999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>50.122</v>
+        <v>59.738</v>
       </c>
       <c r="O15" t="n">
-        <v>51.911</v>
+        <v>44.973</v>
       </c>
       <c r="P15" t="n">
-        <v>49.746</v>
+        <v>57.829</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.398</v>
+        <v>65.926</v>
       </c>
       <c r="R15" t="n">
-        <v>48.029</v>
+        <v>69.18600000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>58.339</v>
+        <v>59.716</v>
       </c>
       <c r="T15" t="n">
-        <v>49.32</v>
+        <v>53.125</v>
       </c>
       <c r="U15" t="n">
-        <v>47.99</v>
+        <v>53.032</v>
       </c>
       <c r="V15" t="n">
-        <v>54.691</v>
+        <v>71.08799999999999</v>
       </c>
       <c r="W15" t="n">
-        <v>50.888</v>
+        <v>60.27</v>
       </c>
       <c r="X15" t="n">
-        <v>44.715</v>
+        <v>49.039</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24</v>
+        <v>48.356</v>
       </c>
     </row>
     <row r="16">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.506</v>
+        <v>89.989</v>
       </c>
       <c r="C16" t="n">
-        <v>26.926</v>
+        <v>49.102</v>
       </c>
       <c r="D16" t="n">
-        <v>33.999</v>
+        <v>42.947</v>
       </c>
       <c r="E16" t="n">
-        <v>10.917</v>
+        <v>53.817</v>
       </c>
       <c r="F16" t="n">
-        <v>16.804</v>
+        <v>60.405</v>
       </c>
       <c r="G16" t="n">
-        <v>43.784</v>
+        <v>77.982</v>
       </c>
       <c r="H16" t="n">
-        <v>42.956</v>
+        <v>57.851</v>
       </c>
       <c r="I16" t="n">
-        <v>49.122</v>
+        <v>74.777</v>
       </c>
       <c r="J16" t="n">
-        <v>42.743</v>
+        <v>53.552</v>
       </c>
       <c r="K16" t="n">
-        <v>35.965</v>
+        <v>68.604</v>
       </c>
       <c r="L16" t="n">
-        <v>47.359</v>
+        <v>56.58</v>
       </c>
       <c r="M16" t="n">
-        <v>37.697</v>
+        <v>54.185</v>
       </c>
       <c r="N16" t="n">
-        <v>40.484</v>
+        <v>61.955</v>
       </c>
       <c r="O16" t="n">
-        <v>39.701</v>
+        <v>61.665</v>
       </c>
       <c r="P16" t="n">
-        <v>41.971</v>
+        <v>56.291</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.775</v>
+        <v>67.176</v>
       </c>
       <c r="R16" t="n">
-        <v>36.885</v>
+        <v>78.592</v>
       </c>
       <c r="S16" t="n">
-        <v>54.09</v>
+        <v>76.99299999999999</v>
       </c>
       <c r="T16" t="n">
-        <v>53.657</v>
+        <v>71.76300000000001</v>
       </c>
       <c r="U16" t="n">
-        <v>51.58</v>
+        <v>73.657</v>
       </c>
       <c r="V16" t="n">
-        <v>49.493</v>
+        <v>51.082</v>
       </c>
       <c r="W16" t="n">
-        <v>49.585</v>
+        <v>45.448</v>
       </c>
       <c r="X16" t="n">
-        <v>45.286</v>
+        <v>53.095</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.131</v>
+        <v>46.279</v>
       </c>
     </row>
     <row r="17">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58.754</v>
+        <v>60.753</v>
       </c>
       <c r="C17" t="n">
-        <v>57.399</v>
+        <v>44.968</v>
       </c>
       <c r="D17" t="n">
-        <v>66.39700000000001</v>
+        <v>41.877</v>
       </c>
       <c r="E17" t="n">
-        <v>54.064</v>
+        <v>44.261</v>
       </c>
       <c r="F17" t="n">
-        <v>50.66</v>
+        <v>38.107</v>
       </c>
       <c r="G17" t="n">
-        <v>55.549</v>
+        <v>54.6</v>
       </c>
       <c r="H17" t="n">
-        <v>58.39</v>
+        <v>77.06100000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>61.625</v>
+        <v>81.249</v>
       </c>
       <c r="J17" t="n">
-        <v>56.468</v>
+        <v>84.364</v>
       </c>
       <c r="K17" t="n">
-        <v>53.155</v>
+        <v>50.686</v>
       </c>
       <c r="L17" t="n">
-        <v>55.674</v>
+        <v>74</v>
       </c>
       <c r="M17" t="n">
-        <v>55.134</v>
+        <v>75.82899999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>56.032</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>56.398</v>
+        <v>89.87</v>
       </c>
       <c r="P17" t="n">
-        <v>60.1</v>
+        <v>84.11199999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.825</v>
+        <v>67.346</v>
       </c>
       <c r="R17" t="n">
-        <v>55.676</v>
+        <v>43.758</v>
       </c>
       <c r="S17" t="n">
-        <v>59.338</v>
+        <v>56.764</v>
       </c>
       <c r="T17" t="n">
-        <v>59.512</v>
+        <v>76.648</v>
       </c>
       <c r="U17" t="n">
-        <v>60.189</v>
+        <v>64.069</v>
       </c>
       <c r="V17" t="n">
-        <v>63.457</v>
+        <v>76.389</v>
       </c>
       <c r="W17" t="n">
-        <v>52.774</v>
+        <v>58.27</v>
       </c>
       <c r="X17" t="n">
-        <v>53.829</v>
+        <v>52.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.688</v>
+        <v>59.185</v>
       </c>
     </row>
   </sheetData>

--- a/certus_16x24_CMYK.xlsx
+++ b/certus_16x24_CMYK.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="C" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="M" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Y" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="K" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="M" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="K" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,1389 +438,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Max Volume (uL)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.168</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.935</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.131</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11.114</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="J5" t="n">
-        <v>32.995</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.682</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13.721</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.795</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16.019</v>
-      </c>
-      <c r="H6" t="n">
-        <v>40.588</v>
-      </c>
-      <c r="I6" t="n">
-        <v>43.371</v>
-      </c>
-      <c r="J6" t="n">
-        <v>44.003</v>
-      </c>
-      <c r="K6" t="n">
-        <v>39.438</v>
-      </c>
-      <c r="L6" t="n">
-        <v>24.332</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11.632</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13.234</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.411</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29.525</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40.779</v>
-      </c>
-      <c r="J7" t="n">
-        <v>41.299</v>
-      </c>
-      <c r="K7" t="n">
-        <v>41.671</v>
-      </c>
-      <c r="L7" t="n">
-        <v>13.929</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.154</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11.277</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4.374</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.016</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.168</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.539</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.016</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.394</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15.261</v>
-      </c>
-      <c r="J8" t="n">
-        <v>38.003</v>
-      </c>
-      <c r="K8" t="n">
-        <v>35.956</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.631</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.925</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25.165</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.075</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15.361</v>
-      </c>
-      <c r="H9" t="n">
-        <v>31.268</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17.497</v>
-      </c>
-      <c r="J9" t="n">
-        <v>37.436</v>
-      </c>
-      <c r="K9" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.115</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38.002</v>
-      </c>
-      <c r="E10" t="n">
-        <v>34.589</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="G10" t="n">
-        <v>15.765</v>
-      </c>
-      <c r="H10" t="n">
-        <v>31.111</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40.092</v>
-      </c>
-      <c r="J10" t="n">
-        <v>38.218</v>
-      </c>
-      <c r="K10" t="n">
-        <v>32.194</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>19.914</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.771</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.656000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.283</v>
-      </c>
-      <c r="E11" t="n">
-        <v>38.366</v>
-      </c>
-      <c r="F11" t="n">
-        <v>42.144</v>
-      </c>
-      <c r="G11" t="n">
-        <v>42.495</v>
-      </c>
-      <c r="H11" t="n">
-        <v>36.341</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22.789</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.795</v>
-      </c>
-      <c r="K11" t="n">
-        <v>26.985</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>4.265</v>
-      </c>
-      <c r="V11" t="n">
-        <v>8.670999999999999</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.599</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>42.642</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.227</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21.044</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.828</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.695</v>
-      </c>
-      <c r="G12" t="n">
-        <v>35.238</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26.912</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>20.451</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.433</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.434</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4.453</v>
-      </c>
-      <c r="W12" t="n">
-        <v>25.404</v>
-      </c>
-      <c r="X12" t="n">
-        <v>39.401</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>31.934</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32.354</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32.109</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.117</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.394</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.562</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.092000000000001</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.214</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.866</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9.622</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4.738</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>21.786</v>
-      </c>
-      <c r="V13" t="n">
-        <v>33.555</v>
-      </c>
-      <c r="W13" t="n">
-        <v>35.027</v>
-      </c>
-      <c r="X13" t="n">
-        <v>28.82</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>14.914</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.041</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.065</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17.567</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.427</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.443</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.311</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22.696</v>
-      </c>
-      <c r="L14" t="n">
-        <v>13.023</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24.831</v>
-      </c>
-      <c r="N14" t="n">
-        <v>33.339</v>
-      </c>
-      <c r="O14" t="n">
-        <v>29.247</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9.766999999999999</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.704</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>11.383</v>
-      </c>
-      <c r="T14" t="n">
-        <v>29.081</v>
-      </c>
-      <c r="U14" t="n">
-        <v>39.186</v>
-      </c>
-      <c r="V14" t="n">
-        <v>37.705</v>
-      </c>
-      <c r="W14" t="n">
-        <v>24.462</v>
-      </c>
-      <c r="X14" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>41.607</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.079</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20.188</v>
-      </c>
-      <c r="E15" t="n">
-        <v>28.151</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14.329</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10.706</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.465</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12.196</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16.989</v>
-      </c>
-      <c r="L15" t="n">
-        <v>29.102</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6.218</v>
-      </c>
-      <c r="N15" t="n">
-        <v>31.203</v>
-      </c>
-      <c r="O15" t="n">
-        <v>38.096</v>
-      </c>
-      <c r="P15" t="n">
-        <v>32.587</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27.879</v>
-      </c>
-      <c r="R15" t="n">
-        <v>29.413</v>
-      </c>
-      <c r="S15" t="n">
-        <v>32.864</v>
-      </c>
-      <c r="T15" t="n">
-        <v>34.722</v>
-      </c>
-      <c r="U15" t="n">
-        <v>34.158</v>
-      </c>
-      <c r="V15" t="n">
-        <v>19.274</v>
-      </c>
-      <c r="W15" t="n">
-        <v>23.176</v>
-      </c>
-      <c r="X15" t="n">
-        <v>37.633</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>36.455</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10.011</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34.703</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39.394</v>
-      </c>
-      <c r="E16" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F16" t="n">
-        <v>29.938</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20.642</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13.411</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.188</v>
-      </c>
-      <c r="J16" t="n">
-        <v>33.546</v>
-      </c>
-      <c r="K16" t="n">
-        <v>20.408</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31.66</v>
-      </c>
-      <c r="M16" t="n">
-        <v>29.391</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="T16" t="n">
-        <v>21.177</v>
-      </c>
-      <c r="U16" t="n">
-        <v>19.025</v>
-      </c>
-      <c r="V16" t="n">
-        <v>37.111</v>
-      </c>
-      <c r="W16" t="n">
-        <v>39.478</v>
-      </c>
-      <c r="X16" t="n">
-        <v>34.965</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>27.76</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36.929</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40.085</v>
-      </c>
-      <c r="E17" t="n">
-        <v>38.589</v>
-      </c>
-      <c r="F17" t="n">
-        <v>41.683</v>
-      </c>
-      <c r="G17" t="n">
-        <v>32.551</v>
-      </c>
-      <c r="H17" t="n">
-        <v>17.205</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15.866</v>
-      </c>
-      <c r="J17" t="n">
-        <v>15.636</v>
-      </c>
-      <c r="K17" t="n">
-        <v>34.997</v>
-      </c>
-      <c r="L17" t="n">
-        <v>17.333</v>
-      </c>
-      <c r="M17" t="n">
-        <v>21.626</v>
-      </c>
-      <c r="N17" t="n">
-        <v>24.837</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.777</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>22.054</v>
-      </c>
-      <c r="U17" t="n">
-        <v>28.745</v>
-      </c>
-      <c r="V17" t="n">
-        <v>23.611</v>
-      </c>
-      <c r="W17" t="n">
-        <v>17.001</v>
-      </c>
-      <c r="X17" t="n">
-        <v>14.844</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.989</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1970,76 +607,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.757</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17.597</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20.486</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.691</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.568</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.781</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>22.59</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.31</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.606</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.498</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.834</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.865</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.323</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21.374</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20.309</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.04</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>21.374</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.092</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21.459</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>21.156</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>23.119</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>23.513</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>21.849</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2049,76 +686,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.826</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.672</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.118</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20.874</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>21.349</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22.057</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>19.382</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12.477</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19.807</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.812</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.309</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.319</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.019</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.431</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16.303</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>19.632</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>21.145</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>20.319</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.84</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>22.709</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2128,76 +765,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.74</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9.901</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.959</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>21.575</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.374</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.767</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8.712</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.093</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.374</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.453</v>
       </c>
       <c r="M4" t="n">
-        <v>10.145</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>22.249</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.076</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.361</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.733</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13.81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>17.114</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>19.734</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.425</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.462</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.171</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2207,76 +844,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.843</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.219</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.385</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>17.161</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.161</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.511</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.446</v>
       </c>
       <c r="I5" t="n">
-        <v>9.727</v>
+        <v>10.808</v>
       </c>
       <c r="J5" t="n">
-        <v>14.848</v>
+        <v>13.198</v>
       </c>
       <c r="K5" t="n">
-        <v>4.136</v>
+        <v>8.273</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5.488</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.518</v>
       </c>
       <c r="N5" t="n">
-        <v>19.819</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>21.198</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>22.271</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.58</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.52</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>19.682</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>21.941</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>22.898</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>23.274</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>22.641</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23.362</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2286,76 +923,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.237</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>11.42</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13.284</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.534</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.677</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.456</v>
+        <v>6.408</v>
       </c>
       <c r="H6" t="n">
-        <v>19.66</v>
+        <v>16.235</v>
       </c>
       <c r="I6" t="n">
-        <v>20.24</v>
+        <v>17.349</v>
       </c>
       <c r="J6" t="n">
-        <v>20.873</v>
+        <v>17.601</v>
       </c>
       <c r="K6" t="n">
-        <v>19.062</v>
+        <v>15.775</v>
       </c>
       <c r="L6" t="n">
-        <v>4.294</v>
+        <v>9.733000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4.653</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5.294</v>
       </c>
       <c r="O6" t="n">
-        <v>4.374</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>22.111</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.063</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.364</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>20.092</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>21.141</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>21.982</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>22.193</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>23.274</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23.018</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2365,76 +1002,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.299</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.446</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7.501</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.961</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.765</v>
       </c>
       <c r="H7" t="n">
-        <v>12.381</v>
+        <v>11.81</v>
       </c>
       <c r="I7" t="n">
-        <v>19.448</v>
+        <v>16.312</v>
       </c>
       <c r="J7" t="n">
-        <v>19.725</v>
+        <v>16.52</v>
       </c>
       <c r="K7" t="n">
-        <v>19.929</v>
+        <v>16.668</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>5.571</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2.462</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.511</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
-        <v>18.44</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.262</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.688</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.286</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>20.917</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.804</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.782</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>19.46</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>21.129</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2444,7 +1081,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.606</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2453,67 +1090,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.067</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.016</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.007</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.558</v>
       </c>
       <c r="I8" t="n">
-        <v>1.526</v>
+        <v>6.104</v>
       </c>
       <c r="J8" t="n">
-        <v>17.965</v>
+        <v>15.201</v>
       </c>
       <c r="K8" t="n">
-        <v>13.698</v>
+        <v>14.383</v>
       </c>
       <c r="L8" t="n">
-        <v>15.789</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14.474</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>8.346</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3.943</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>21.612</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.252</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.647</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>18.875</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>20.917</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>18.262</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>18.286</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>20.128</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.408</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2523,76 +1160,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.731</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5.852</v>
       </c>
       <c r="D9" t="n">
-        <v>6.702</v>
+        <v>11.17</v>
       </c>
       <c r="E9" t="n">
-        <v>7.659</v>
+        <v>10.066</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.144</v>
       </c>
       <c r="H9" t="n">
-        <v>13.4</v>
+        <v>12.507</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.999</v>
       </c>
       <c r="J9" t="n">
-        <v>16.149</v>
+        <v>14.975</v>
       </c>
       <c r="K9" t="n">
-        <v>8.646000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="L9" t="n">
-        <v>16.667</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>19.811</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20.174</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>18.106</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>19.009</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>18.462</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>19.377</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>19.377</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>18.115</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.101</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>20.895</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>21.65</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.788</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2602,76 +1239,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.846</v>
       </c>
       <c r="C10" t="n">
-        <v>2.519</v>
+        <v>7.556</v>
       </c>
       <c r="D10" t="n">
-        <v>16.491</v>
+        <v>15.201</v>
       </c>
       <c r="E10" t="n">
-        <v>14.479</v>
+        <v>13.836</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8.372</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.306</v>
       </c>
       <c r="H10" t="n">
-        <v>10.694</v>
+        <v>12.444</v>
       </c>
       <c r="I10" t="n">
-        <v>19.728</v>
+        <v>16.037</v>
       </c>
       <c r="J10" t="n">
-        <v>18.426</v>
+        <v>15.287</v>
       </c>
       <c r="K10" t="n">
-        <v>14.402</v>
+        <v>12.878</v>
       </c>
       <c r="L10" t="n">
-        <v>23.652</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>20.536</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>20.519</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.256</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>21.232</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.702</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.198</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>20.853</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>20.491</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.159</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15.892</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.478</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.525</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>7.966</v>
       </c>
     </row>
     <row r="11">
@@ -2681,76 +1318,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.908</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.862</v>
       </c>
       <c r="D11" t="n">
-        <v>8.428000000000001</v>
+        <v>10.113</v>
       </c>
       <c r="E11" t="n">
-        <v>16.341</v>
+        <v>15.346</v>
       </c>
       <c r="F11" t="n">
-        <v>18.934</v>
+        <v>16.857</v>
       </c>
       <c r="G11" t="n">
-        <v>18.819</v>
+        <v>16.998</v>
       </c>
       <c r="H11" t="n">
-        <v>17.444</v>
+        <v>14.537</v>
       </c>
       <c r="I11" t="n">
-        <v>6.33</v>
+        <v>9.116</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.718</v>
       </c>
       <c r="K11" t="n">
-        <v>11.417</v>
+        <v>10.794</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.924</v>
       </c>
       <c r="M11" t="n">
-        <v>12.593</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.362</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10.446</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.417</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.531</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.194000000000001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.608</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.706</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.468</v>
       </c>
       <c r="W11" t="n">
-        <v>15.053</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.64</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.559</v>
+        <v>17.057</v>
       </c>
     </row>
     <row r="12">
@@ -2760,76 +1397,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7.291</v>
       </c>
       <c r="C12" t="n">
-        <v>3.714</v>
+        <v>8.417</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.331</v>
       </c>
       <c r="E12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.516</v>
+        <v>9.878</v>
       </c>
       <c r="G12" t="n">
-        <v>14.878</v>
+        <v>14.095</v>
       </c>
       <c r="H12" t="n">
-        <v>7.34</v>
+        <v>10.765</v>
       </c>
       <c r="I12" t="n">
-        <v>4.545</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5.113</v>
+        <v>8.18</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.573</v>
       </c>
       <c r="N12" t="n">
-        <v>2.643</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.582</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.727</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.672</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="T12" t="n">
-        <v>4.924</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.781</v>
       </c>
       <c r="W12" t="n">
-        <v>1.494</v>
+        <v>10.162</v>
       </c>
       <c r="X12" t="n">
-        <v>18.031</v>
+        <v>15.761</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.677</v>
+        <v>12.774</v>
       </c>
     </row>
     <row r="13">
@@ -2842,73 +1479,73 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>16.177</v>
+        <v>12.942</v>
       </c>
       <c r="D13" t="n">
-        <v>13.017</v>
+        <v>12.844</v>
       </c>
       <c r="E13" t="n">
-        <v>3.212</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.447</v>
       </c>
       <c r="G13" t="n">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.471</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.758</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>6.225</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3.637</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.285</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.676</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.146</v>
       </c>
       <c r="O13" t="n">
-        <v>2.749</v>
+        <v>3.849</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.66</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>8.427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>8.714</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>13.422</v>
       </c>
       <c r="W13" t="n">
-        <v>10.414</v>
+        <v>14.011</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>11.528</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.965</v>
       </c>
     </row>
     <row r="14">
@@ -2918,76 +1555,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.614</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>2.483</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.123</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.426</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.027</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.371</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.777</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.724</v>
       </c>
       <c r="K14" t="n">
-        <v>4.005</v>
+        <v>9.079000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.209</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>9.932</v>
       </c>
       <c r="N14" t="n">
-        <v>10.103</v>
+        <v>13.335</v>
       </c>
       <c r="O14" t="n">
-        <v>8.666</v>
+        <v>11.699</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>3.907</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.681</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>11.632</v>
       </c>
       <c r="U14" t="n">
-        <v>8.038</v>
+        <v>15.674</v>
       </c>
       <c r="V14" t="n">
-        <v>12.568</v>
+        <v>15.082</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.785</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>12.208</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.869</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="15">
@@ -2997,76 +1634,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.144</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4.832</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>5.63</v>
+        <v>11.26</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5.732</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.874</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.282</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.186</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.878</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>6.795</v>
       </c>
       <c r="L15" t="n">
-        <v>14.992</v>
+        <v>11.641</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.487</v>
       </c>
       <c r="N15" t="n">
-        <v>9.058999999999999</v>
+        <v>12.481</v>
       </c>
       <c r="O15" t="n">
-        <v>16.931</v>
+        <v>15.238</v>
       </c>
       <c r="P15" t="n">
-        <v>9.584</v>
+        <v>13.035</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>11.152</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>11.765</v>
       </c>
       <c r="S15" t="n">
-        <v>7.421</v>
+        <v>13.145</v>
       </c>
       <c r="T15" t="n">
-        <v>12.153</v>
+        <v>13.889</v>
       </c>
       <c r="U15" t="n">
-        <v>12.809</v>
+        <v>13.663</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>9.27</v>
       </c>
       <c r="X15" t="n">
-        <v>13.328</v>
+        <v>15.053</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.189</v>
+        <v>14.582</v>
       </c>
     </row>
     <row r="16">
@@ -3076,76 +1713,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.004</v>
       </c>
       <c r="C16" t="n">
-        <v>16.195</v>
+        <v>13.881</v>
       </c>
       <c r="D16" t="n">
-        <v>17.659</v>
+        <v>15.758</v>
       </c>
       <c r="E16" t="n">
-        <v>11.973</v>
+        <v>13.684</v>
       </c>
       <c r="F16" t="n">
-        <v>9.657</v>
+        <v>11.975</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.257</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.364</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.675</v>
       </c>
       <c r="J16" t="n">
-        <v>12.902</v>
+        <v>13.418</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.163</v>
       </c>
       <c r="L16" t="n">
-        <v>11.759</v>
+        <v>12.664</v>
       </c>
       <c r="M16" t="n">
-        <v>16.424</v>
+        <v>11.756</v>
       </c>
       <c r="N16" t="n">
-        <v>14.131</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>9.893000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15.894</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.815</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>9.686999999999999</v>
+        <v>5.328</v>
       </c>
       <c r="T16" t="n">
-        <v>7.059</v>
+        <v>8.471</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="V16" t="n">
-        <v>11.808</v>
+        <v>14.844</v>
       </c>
       <c r="W16" t="n">
-        <v>15.073</v>
+        <v>15.791</v>
       </c>
       <c r="X16" t="n">
-        <v>11.939</v>
+        <v>13.986</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.971</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="17">
@@ -3155,76 +1792,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.487</v>
+        <v>11.104</v>
       </c>
       <c r="C17" t="n">
-        <v>18.103</v>
+        <v>14.772</v>
       </c>
       <c r="D17" t="n">
-        <v>18.038</v>
+        <v>16.034</v>
       </c>
       <c r="E17" t="n">
-        <v>17.151</v>
+        <v>15.435</v>
       </c>
       <c r="F17" t="n">
-        <v>20.21</v>
+        <v>16.673</v>
       </c>
       <c r="G17" t="n">
-        <v>12.849</v>
+        <v>13.02</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.882</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.347</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>6.255</v>
       </c>
       <c r="K17" t="n">
-        <v>14.317</v>
+        <v>13.999</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>6.933</v>
       </c>
       <c r="M17" t="n">
-        <v>2.544</v>
+        <v>8.651</v>
       </c>
       <c r="N17" t="n">
-        <v>9.314</v>
+        <v>9.935</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4.052</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.311</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.679</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>9.641</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.297</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>7.186</v>
+        <v>11.498</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.938</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.395</v>
       </c>
     </row>
   </sheetData>
@@ -3375,76 +2012,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.523</v>
+        <v>6.303</v>
       </c>
       <c r="C2" t="n">
-        <v>54.99</v>
+        <v>7.039</v>
       </c>
       <c r="D2" t="n">
-        <v>61.457</v>
+        <v>8.194000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>62.072</v>
+        <v>8.276</v>
       </c>
       <c r="F2" t="n">
-        <v>60.391</v>
+        <v>8.627000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>63.051</v>
+        <v>8.712</v>
       </c>
       <c r="H2" t="n">
-        <v>66.514</v>
+        <v>9.036</v>
       </c>
       <c r="I2" t="n">
-        <v>66.929</v>
+        <v>8.923999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>67.35899999999999</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>69.25700000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>70.64100000000001</v>
+        <v>8.734</v>
       </c>
       <c r="M2" t="n">
-        <v>68.16800000000001</v>
+        <v>8.746</v>
       </c>
       <c r="N2" t="n">
-        <v>70.453</v>
+        <v>8.129</v>
       </c>
       <c r="O2" t="n">
-        <v>70.8</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>71.759</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>71.57299999999999</v>
+        <v>8.016</v>
       </c>
       <c r="R2" t="n">
-        <v>70.8</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>71.185</v>
+        <v>8.436999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>71.529</v>
+        <v>8.583</v>
       </c>
       <c r="U2" t="n">
-        <v>71.93000000000001</v>
+        <v>8.462</v>
       </c>
       <c r="V2" t="n">
-        <v>69.35599999999999</v>
+        <v>9.247999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>68.063</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>69.402</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>66.911</v>
+        <v>9.228999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3454,76 +2091,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.477</v>
+        <v>7.53</v>
       </c>
       <c r="C3" t="n">
-        <v>37.351</v>
+        <v>4.269</v>
       </c>
       <c r="D3" t="n">
-        <v>56.943</v>
+        <v>7.247</v>
       </c>
       <c r="E3" t="n">
-        <v>63.782</v>
+        <v>8.35</v>
       </c>
       <c r="F3" t="n">
-        <v>61.8</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>66.17</v>
+        <v>8.823</v>
       </c>
       <c r="H3" t="n">
-        <v>62.3</v>
+        <v>7.753</v>
       </c>
       <c r="I3" t="n">
-        <v>59.681</v>
+        <v>6.452</v>
       </c>
       <c r="J3" t="n">
-        <v>61.142</v>
+        <v>6.114</v>
       </c>
       <c r="K3" t="n">
-        <v>51.692</v>
+        <v>4.991</v>
       </c>
       <c r="L3" t="n">
-        <v>67.90900000000001</v>
+        <v>7.923</v>
       </c>
       <c r="M3" t="n">
-        <v>73.136</v>
+        <v>8.725</v>
       </c>
       <c r="N3" t="n">
-        <v>71.759</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>72.56699999999999</v>
+        <v>8.127000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>73.91800000000001</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.242</v>
+        <v>7.773</v>
       </c>
       <c r="R3" t="n">
-        <v>74.527</v>
+        <v>6.521</v>
       </c>
       <c r="S3" t="n">
-        <v>72.63800000000001</v>
+        <v>7.853</v>
       </c>
       <c r="T3" t="n">
-        <v>72.462</v>
+        <v>8.432</v>
       </c>
       <c r="U3" t="n">
-        <v>73.304</v>
+        <v>8.458</v>
       </c>
       <c r="V3" t="n">
-        <v>72.56699999999999</v>
+        <v>8.127000000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>68.521</v>
+        <v>9.135999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>69.464</v>
+        <v>9.084</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.334</v>
+        <v>8.815</v>
       </c>
     </row>
     <row r="4">
@@ -3533,76 +2170,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.219</v>
+        <v>7.096</v>
       </c>
       <c r="C4" t="n">
-        <v>36.774</v>
+        <v>3.96</v>
       </c>
       <c r="D4" t="n">
-        <v>53.681</v>
+        <v>6.384</v>
       </c>
       <c r="E4" t="n">
-        <v>63.286</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>55.122</v>
+        <v>7.35</v>
       </c>
       <c r="G4" t="n">
-        <v>55.324</v>
+        <v>5.107</v>
       </c>
       <c r="H4" t="n">
-        <v>58.08</v>
+        <v>3.485</v>
       </c>
       <c r="I4" t="n">
-        <v>86.379</v>
+        <v>3.637</v>
       </c>
       <c r="J4" t="n">
-        <v>28.422</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.309</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.037</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>49.035</v>
+        <v>4.058</v>
       </c>
       <c r="N4" t="n">
-        <v>71.69199999999999</v>
+        <v>8.9</v>
       </c>
       <c r="O4" t="n">
-        <v>72.009</v>
+        <v>8.43</v>
       </c>
       <c r="P4" t="n">
-        <v>73.48699999999999</v>
+        <v>5.345</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.66500000000001</v>
+        <v>5.893</v>
       </c>
       <c r="R4" t="n">
-        <v>75.955</v>
+        <v>5.524</v>
       </c>
       <c r="S4" t="n">
-        <v>72.866</v>
+        <v>6.072</v>
       </c>
       <c r="T4" t="n">
-        <v>70.901</v>
+        <v>6.846</v>
       </c>
       <c r="U4" t="n">
-        <v>69.06999999999999</v>
+        <v>7.894</v>
       </c>
       <c r="V4" t="n">
-        <v>68.59399999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>66.066</v>
+        <v>8.984999999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>65.652</v>
+        <v>9.269</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.631</v>
+        <v>9.255000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3612,76 +2249,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.505</v>
+        <v>5.537</v>
       </c>
       <c r="C5" t="n">
-        <v>28.877</v>
+        <v>2.888</v>
       </c>
       <c r="D5" t="n">
-        <v>47.079</v>
+        <v>5.754</v>
       </c>
       <c r="E5" t="n">
-        <v>52.913</v>
+        <v>6.864</v>
       </c>
       <c r="F5" t="n">
-        <v>48.552</v>
+        <v>5.664</v>
       </c>
       <c r="G5" t="n">
-        <v>66.18899999999999</v>
+        <v>4.604</v>
       </c>
       <c r="H5" t="n">
-        <v>11.114</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.891</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5.939</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.655</v>
       </c>
       <c r="L5" t="n">
-        <v>20.581</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>24.667</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>59.458</v>
+        <v>7.928</v>
       </c>
       <c r="O5" t="n">
-        <v>61.829</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>66.812</v>
+        <v>8.907999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.081</v>
+        <v>7.832</v>
       </c>
       <c r="R5" t="n">
-        <v>66.121</v>
+        <v>8.208</v>
       </c>
       <c r="S5" t="n">
-        <v>66.919</v>
+        <v>7.873</v>
       </c>
       <c r="T5" t="n">
-        <v>67.39</v>
+        <v>8.776</v>
       </c>
       <c r="U5" t="n">
-        <v>64.879</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>62.063</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>63.393</v>
+        <v>9.055999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>65.41500000000001</v>
+        <v>9.345000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.081</v>
+        <v>9.212</v>
       </c>
     </row>
     <row r="6">
@@ -3691,76 +2328,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.755</v>
+        <v>6.495</v>
       </c>
       <c r="C6" t="n">
-        <v>39.97</v>
+        <v>4.568</v>
       </c>
       <c r="D6" t="n">
-        <v>44.279</v>
+        <v>5.313</v>
       </c>
       <c r="E6" t="n">
-        <v>51.675</v>
+        <v>5.813</v>
       </c>
       <c r="F6" t="n">
-        <v>90.32299999999999</v>
+        <v>3.871</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.583</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7.864</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8.096</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.349</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.625</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.718</v>
       </c>
       <c r="M6" t="n">
-        <v>23.264</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>15.44</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>32.802</v>
+        <v>1.749</v>
       </c>
       <c r="P6" t="n">
-        <v>62.313</v>
+        <v>8.843999999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.876</v>
+        <v>8.025</v>
       </c>
       <c r="R6" t="n">
-        <v>64.092</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>65.755</v>
+        <v>8.037000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>67.387</v>
+        <v>8.456</v>
       </c>
       <c r="U6" t="n">
-        <v>64.788</v>
+        <v>8.792999999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>62.141</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>62.063</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>62.479</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.081</v>
+        <v>9.212</v>
       </c>
     </row>
     <row r="7">
@@ -3770,76 +2407,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.979</v>
+        <v>0.52</v>
       </c>
       <c r="C7" t="n">
-        <v>36.692</v>
+        <v>4.003</v>
       </c>
       <c r="D7" t="n">
-        <v>50.972</v>
+        <v>6.178</v>
       </c>
       <c r="E7" t="n">
-        <v>55.005</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>68.998</v>
+        <v>3.185</v>
       </c>
       <c r="G7" t="n">
-        <v>24.263</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.953</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7.779</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7.89</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7.972</v>
       </c>
       <c r="L7" t="n">
-        <v>3.482</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>20.513</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>15.788</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>21.87</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>57.162</v>
+        <v>7.376</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.19799999999999</v>
+        <v>7.305</v>
       </c>
       <c r="R7" t="n">
-        <v>65.40900000000001</v>
+        <v>7.475</v>
       </c>
       <c r="S7" t="n">
-        <v>64.001</v>
+        <v>7.314</v>
       </c>
       <c r="T7" t="n">
-        <v>64.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>64.14400000000001</v>
+        <v>8.321</v>
       </c>
       <c r="V7" t="n">
-        <v>63.67</v>
+        <v>8.712999999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>61.919</v>
+        <v>7.784</v>
       </c>
       <c r="X7" t="n">
-        <v>61.763</v>
+        <v>8.452</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.888</v>
+        <v>8.316000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3849,76 +2486,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.803</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.078</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.635</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20.223</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.616</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>28.046</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>27.708</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.186</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.479</v>
       </c>
       <c r="L8" t="n">
-        <v>84.211</v>
+        <v>6.316</v>
       </c>
       <c r="M8" t="n">
-        <v>50.66</v>
+        <v>5.79</v>
       </c>
       <c r="N8" t="n">
-        <v>39.645</v>
+        <v>3.339</v>
       </c>
       <c r="O8" t="n">
-        <v>29.571</v>
+        <v>1.577</v>
       </c>
       <c r="P8" t="n">
-        <v>59.432</v>
+        <v>8.645</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.172</v>
+        <v>7.701</v>
       </c>
       <c r="R8" t="n">
-        <v>65.491</v>
+        <v>7.859</v>
       </c>
       <c r="S8" t="n">
-        <v>62.916</v>
+        <v>7.55</v>
       </c>
       <c r="T8" t="n">
-        <v>64.843</v>
+        <v>8.367000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>66.19799999999999</v>
+        <v>7.305</v>
       </c>
       <c r="V8" t="n">
-        <v>64.001</v>
+        <v>7.314</v>
       </c>
       <c r="W8" t="n">
-        <v>62.396</v>
+        <v>8.051</v>
       </c>
       <c r="X8" t="n">
-        <v>60.164</v>
+        <v>7.763</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.733</v>
+        <v>6.371</v>
       </c>
     </row>
     <row r="9">
@@ -3928,76 +2565,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.004</v>
+        <v>1.893</v>
       </c>
       <c r="C9" t="n">
-        <v>19.02</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.681</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.064</v>
       </c>
       <c r="F9" t="n">
-        <v>21.775</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.608</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="I9" t="n">
-        <v>3.181</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.46</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.459</v>
       </c>
       <c r="L9" t="n">
-        <v>83.333</v>
+        <v>6.667</v>
       </c>
       <c r="M9" t="n">
-        <v>61.233</v>
+        <v>7.924</v>
       </c>
       <c r="N9" t="n">
-        <v>60.522</v>
+        <v>8.07</v>
       </c>
       <c r="O9" t="n">
-        <v>57.938</v>
+        <v>7.242</v>
       </c>
       <c r="P9" t="n">
-        <v>62.728</v>
+        <v>7.603</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.642</v>
+        <v>7.385</v>
       </c>
       <c r="R9" t="n">
-        <v>62.006</v>
+        <v>7.751</v>
       </c>
       <c r="S9" t="n">
-        <v>62.006</v>
+        <v>7.751</v>
       </c>
       <c r="T9" t="n">
-        <v>64.40900000000001</v>
+        <v>7.246</v>
       </c>
       <c r="U9" t="n">
-        <v>64.32299999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>66.863</v>
+        <v>8.358000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>64.95099999999999</v>
+        <v>8.66</v>
       </c>
       <c r="X9" t="n">
-        <v>59.15</v>
+        <v>5.915</v>
       </c>
       <c r="Y9" t="n">
-        <v>56.951</v>
+        <v>1.139</v>
       </c>
     </row>
     <row r="10">
@@ -4007,76 +2644,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.231</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.597</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5.792</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.883</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.278</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.891</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.371</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5.761</v>
       </c>
       <c r="L10" t="n">
-        <v>70.955</v>
+        <v>9.461</v>
       </c>
       <c r="M10" t="n">
-        <v>59.895</v>
+        <v>8.214</v>
       </c>
       <c r="N10" t="n">
-        <v>61.558</v>
+        <v>8.208</v>
       </c>
       <c r="O10" t="n">
-        <v>63.769</v>
+        <v>8.503</v>
       </c>
       <c r="P10" t="n">
-        <v>65.627</v>
+        <v>8.493</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.214</v>
+        <v>9.081</v>
       </c>
       <c r="R10" t="n">
-        <v>61.829</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>64.456</v>
+        <v>8.340999999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>63.336</v>
+        <v>8.196</v>
       </c>
       <c r="U10" t="n">
-        <v>62.158</v>
+        <v>8.064</v>
       </c>
       <c r="V10" t="n">
-        <v>50.854</v>
+        <v>6.357</v>
       </c>
       <c r="W10" t="n">
-        <v>42.634</v>
+        <v>4.591</v>
       </c>
       <c r="X10" t="n">
-        <v>75.14700000000001</v>
+        <v>5.01</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4086,76 +2723,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.264</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>20.921</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.371</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.536</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.574</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.528</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.978</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.532</v>
       </c>
       <c r="J11" t="n">
-        <v>30.58</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4.567</v>
       </c>
       <c r="L11" t="n">
-        <v>2.924</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>41.558</v>
+        <v>5.037</v>
       </c>
       <c r="N11" t="n">
-        <v>39.025</v>
+        <v>4.46</v>
       </c>
       <c r="O11" t="n">
-        <v>39.768</v>
+        <v>4.545</v>
       </c>
       <c r="P11" t="n">
-        <v>37.867</v>
+        <v>4.178</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.458</v>
+        <v>4.167</v>
       </c>
       <c r="R11" t="n">
-        <v>38.176</v>
+        <v>4.212</v>
       </c>
       <c r="S11" t="n">
-        <v>34.149</v>
+        <v>3.678</v>
       </c>
       <c r="T11" t="n">
-        <v>29.163</v>
+        <v>3.043</v>
       </c>
       <c r="U11" t="n">
-        <v>9.952</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>70.248</v>
+        <v>6.021</v>
       </c>
       <c r="X11" t="n">
-        <v>20.749</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.023</v>
       </c>
     </row>
     <row r="12">
@@ -4165,76 +2802,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.208</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.485</v>
       </c>
       <c r="D12" t="n">
-        <v>10.199</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>16.916</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3.006</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5.951</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.936</v>
       </c>
       <c r="I12" t="n">
-        <v>95.455</v>
+        <v>1.818</v>
       </c>
       <c r="J12" t="n">
-        <v>54.736</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>88</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.045</v>
       </c>
       <c r="M12" t="n">
-        <v>8.595000000000001</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>13.215</v>
+        <v>1.057</v>
       </c>
       <c r="O12" t="n">
-        <v>15.491</v>
+        <v>1.033</v>
       </c>
       <c r="P12" t="n">
-        <v>20.456</v>
+        <v>1.091</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.408</v>
+        <v>0.669</v>
       </c>
       <c r="R12" t="n">
-        <v>11.231</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7.169</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>17.235</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>10.637</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>26.716</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>0.598</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>7.212</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3.871</v>
       </c>
     </row>
     <row r="13">
@@ -4244,76 +2881,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.432</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.471</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5.207</v>
       </c>
       <c r="E13" t="n">
-        <v>25.699</v>
+        <v>1.285</v>
       </c>
       <c r="F13" t="n">
-        <v>18.35</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>46.937</v>
+        <v>1.788</v>
       </c>
       <c r="H13" t="n">
-        <v>72.89700000000001</v>
+        <v>1.389</v>
       </c>
       <c r="I13" t="n">
-        <v>20.563</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.507</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.46</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>51.418</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>23.894</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>10.031</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.738</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>26.65</v>
+        <v>4.264</v>
       </c>
       <c r="T13" t="n">
-        <v>35.114</v>
+        <v>3.371</v>
       </c>
       <c r="U13" t="n">
-        <v>14.524</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.196</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.165</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4323,76 +2960,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.833</v>
+        <v>5.846</v>
       </c>
       <c r="C14" t="n">
-        <v>40.829</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>49.664</v>
+        <v>0.993</v>
       </c>
       <c r="E14" t="n">
-        <v>59.358</v>
+        <v>2.849</v>
       </c>
       <c r="F14" t="n">
-        <v>34.367</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>29.279</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>29.494</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.759</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>35.778</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.602</v>
       </c>
       <c r="L14" t="n">
-        <v>8.138999999999999</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.552</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.041</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3.466</v>
       </c>
       <c r="P14" t="n">
-        <v>11.395</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.849</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.957</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.872</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>20.772</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.215</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>5.027</v>
       </c>
       <c r="W14" t="n">
-        <v>4.587</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>5.548</v>
       </c>
     </row>
     <row r="15">
@@ -4402,76 +3039,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.196</v>
+        <v>5.258</v>
       </c>
       <c r="C15" t="n">
-        <v>10.569</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.884</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.252</v>
       </c>
       <c r="F15" t="n">
-        <v>14.329</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>29.052</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34.26</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.465</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>26.425</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>5.997</v>
       </c>
       <c r="M15" t="n">
-        <v>6.218</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.624</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>6.773</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.834</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.195</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.401</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.968</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>4.861</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>5.124</v>
       </c>
       <c r="V15" t="n">
-        <v>9.637</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>16.554</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>5.331</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="16">
@@ -4484,73 +3121,73 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6.478</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7.064</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4.789</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.863</v>
       </c>
       <c r="G16" t="n">
-        <v>1.376</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.738</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>11.035</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.161</v>
       </c>
       <c r="K16" t="n">
-        <v>10.989</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.704</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
       <c r="N16" t="n">
-        <v>23.914</v>
+        <v>5.652</v>
       </c>
       <c r="O16" t="n">
-        <v>28.442</v>
+        <v>3.957</v>
       </c>
       <c r="P16" t="n">
-        <v>27.815</v>
+        <v>6.358</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.694</v>
+        <v>5.252</v>
       </c>
       <c r="R16" t="n">
-        <v>12.593</v>
+        <v>3.526</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.875</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.824</v>
       </c>
       <c r="U16" t="n">
-        <v>7.317</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>4.723</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>6.029</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>4.776</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="17">
@@ -4560,76 +3197,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.595</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.241</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.215</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.084</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.14</v>
       </c>
       <c r="H17" t="n">
-        <v>5.735</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.885</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.727</v>
       </c>
       <c r="L17" t="n">
-        <v>8.667</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.018</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.725</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>10.11</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>26.975</v>
+        <v>2.272</v>
       </c>
       <c r="R17" t="n">
-        <v>46.6</v>
+        <v>3.857</v>
       </c>
       <c r="S17" t="n">
-        <v>41.356</v>
+        <v>0.752</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.519</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>24.729</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>32.986</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.826</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +3417,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.72</v>
+        <v>21.009</v>
       </c>
       <c r="C2" t="n">
-        <v>27.413</v>
+        <v>21.996</v>
       </c>
       <c r="D2" t="n">
-        <v>18.058</v>
+        <v>24.583</v>
       </c>
       <c r="E2" t="n">
-        <v>17.238</v>
+        <v>24.829</v>
       </c>
       <c r="F2" t="n">
-        <v>18.041</v>
+        <v>24.156</v>
       </c>
       <c r="G2" t="n">
-        <v>15.168</v>
+        <v>25.22</v>
       </c>
       <c r="H2" t="n">
-        <v>10.896</v>
+        <v>26.606</v>
       </c>
       <c r="I2" t="n">
-        <v>10.761</v>
+        <v>26.772</v>
       </c>
       <c r="J2" t="n">
-        <v>11.035</v>
+        <v>26.944</v>
       </c>
       <c r="K2" t="n">
-        <v>7.246</v>
+        <v>27.703</v>
       </c>
       <c r="L2" t="n">
-        <v>7.525</v>
+        <v>28.256</v>
       </c>
       <c r="M2" t="n">
-        <v>9.967000000000001</v>
+        <v>27.267</v>
       </c>
       <c r="N2" t="n">
-        <v>9.224</v>
+        <v>28.181</v>
       </c>
       <c r="O2" t="n">
-        <v>7.826</v>
+        <v>28.32</v>
       </c>
       <c r="P2" t="n">
-        <v>7.932</v>
+        <v>28.703</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.387</v>
+        <v>28.629</v>
       </c>
       <c r="R2" t="n">
-        <v>7.826</v>
+        <v>28.32</v>
       </c>
       <c r="S2" t="n">
-        <v>7.723</v>
+        <v>28.474</v>
       </c>
       <c r="T2" t="n">
-        <v>7.013</v>
+        <v>28.612</v>
       </c>
       <c r="U2" t="n">
-        <v>6.914</v>
+        <v>28.772</v>
       </c>
       <c r="V2" t="n">
-        <v>7.525</v>
+        <v>27.743</v>
       </c>
       <c r="W2" t="n">
-        <v>8.425000000000001</v>
+        <v>27.225</v>
       </c>
       <c r="X2" t="n">
-        <v>8.75</v>
+        <v>27.761</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.016</v>
+        <v>26.764</v>
       </c>
     </row>
     <row r="3">
@@ -4859,76 +3496,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.697</v>
+        <v>22.591</v>
       </c>
       <c r="C3" t="n">
-        <v>51.977</v>
+        <v>14.94</v>
       </c>
       <c r="D3" t="n">
-        <v>24.939</v>
+        <v>22.777</v>
       </c>
       <c r="E3" t="n">
-        <v>15.344</v>
+        <v>25.513</v>
       </c>
       <c r="F3" t="n">
-        <v>16.85</v>
+        <v>24.72</v>
       </c>
       <c r="G3" t="n">
-        <v>11.773</v>
+        <v>26.468</v>
       </c>
       <c r="H3" t="n">
-        <v>18.318</v>
+        <v>24.92</v>
       </c>
       <c r="I3" t="n">
-        <v>24.189</v>
+        <v>23.872</v>
       </c>
       <c r="J3" t="n">
-        <v>23.573</v>
+        <v>24.457</v>
       </c>
       <c r="K3" t="n">
-        <v>35.831</v>
+        <v>20.677</v>
       </c>
       <c r="L3" t="n">
-        <v>12.284</v>
+        <v>27.164</v>
       </c>
       <c r="M3" t="n">
-        <v>5.052</v>
+        <v>29.254</v>
       </c>
       <c r="N3" t="n">
-        <v>7.932</v>
+        <v>28.703</v>
       </c>
       <c r="O3" t="n">
-        <v>7.114</v>
+        <v>29.027</v>
       </c>
       <c r="P3" t="n">
-        <v>6.063</v>
+        <v>29.567</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.327</v>
+        <v>29.297</v>
       </c>
       <c r="R3" t="n">
-        <v>9.17</v>
+        <v>29.811</v>
       </c>
       <c r="S3" t="n">
-        <v>7.73</v>
+        <v>29.055</v>
       </c>
       <c r="T3" t="n">
-        <v>6.458</v>
+        <v>28.985</v>
       </c>
       <c r="U3" t="n">
-        <v>5.55</v>
+        <v>29.322</v>
       </c>
       <c r="V3" t="n">
-        <v>7.114</v>
+        <v>29.027</v>
       </c>
       <c r="W3" t="n">
-        <v>8.638999999999999</v>
+        <v>27.408</v>
       </c>
       <c r="X3" t="n">
-        <v>7.826</v>
+        <v>27.786</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.629</v>
+        <v>26.934</v>
       </c>
     </row>
     <row r="4">
@@ -4938,76 +3575,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.041</v>
+        <v>21.288</v>
       </c>
       <c r="C4" t="n">
-        <v>53.325</v>
+        <v>14.71</v>
       </c>
       <c r="D4" t="n">
-        <v>30.36</v>
+        <v>21.472</v>
       </c>
       <c r="E4" t="n">
-        <v>15.139</v>
+        <v>25.314</v>
       </c>
       <c r="F4" t="n">
-        <v>26.503</v>
+        <v>22.049</v>
       </c>
       <c r="G4" t="n">
-        <v>31.909</v>
+        <v>22.13</v>
       </c>
       <c r="H4" t="n">
-        <v>33.208</v>
+        <v>23.232</v>
       </c>
       <c r="I4" t="n">
-        <v>4.528</v>
+        <v>34.552</v>
       </c>
       <c r="J4" t="n">
-        <v>66.41</v>
+        <v>11.369</v>
       </c>
       <c r="K4" t="n">
-        <v>73.756</v>
+        <v>6.123</v>
       </c>
       <c r="L4" t="n">
-        <v>68.83199999999999</v>
+        <v>8.015000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>40.82</v>
+        <v>19.614</v>
       </c>
       <c r="N4" t="n">
-        <v>6.059</v>
+        <v>28.677</v>
       </c>
       <c r="O4" t="n">
-        <v>6.915</v>
+        <v>28.804</v>
       </c>
       <c r="P4" t="n">
-        <v>13.152</v>
+        <v>29.395</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.602</v>
+        <v>29.466</v>
       </c>
       <c r="R4" t="n">
-        <v>10.236</v>
+        <v>30.382</v>
       </c>
       <c r="S4" t="n">
-        <v>11.954</v>
+        <v>29.146</v>
       </c>
       <c r="T4" t="n">
-        <v>11.985</v>
+        <v>28.36</v>
       </c>
       <c r="U4" t="n">
-        <v>11.196</v>
+        <v>27.628</v>
       </c>
       <c r="V4" t="n">
-        <v>8.98</v>
+        <v>27.438</v>
       </c>
       <c r="W4" t="n">
-        <v>11.472</v>
+        <v>26.426</v>
       </c>
       <c r="X4" t="n">
-        <v>11.177</v>
+        <v>26.261</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.23</v>
+        <v>25.453</v>
       </c>
     </row>
     <row r="5">
@@ -5017,76 +3654,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.652</v>
+        <v>17.402</v>
       </c>
       <c r="C5" t="n">
-        <v>63.904</v>
+        <v>11.551</v>
       </c>
       <c r="D5" t="n">
-        <v>38.535</v>
+        <v>18.832</v>
       </c>
       <c r="E5" t="n">
-        <v>29.925</v>
+        <v>21.165</v>
       </c>
       <c r="F5" t="n">
-        <v>37.287</v>
+        <v>19.421</v>
       </c>
       <c r="G5" t="n">
-        <v>22.3</v>
+        <v>26.476</v>
       </c>
       <c r="H5" t="n">
-        <v>77.771</v>
+        <v>4.446</v>
       </c>
       <c r="I5" t="n">
-        <v>63.253</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>75.181</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>65.69799999999999</v>
+        <v>8.231999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>71.538</v>
+        <v>9.867000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>20.723</v>
+        <v>23.783</v>
       </c>
       <c r="O5" t="n">
-        <v>16.973</v>
+        <v>24.732</v>
       </c>
       <c r="P5" t="n">
-        <v>10.917</v>
+        <v>26.725</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.339</v>
+        <v>26.432</v>
       </c>
       <c r="R5" t="n">
-        <v>13.358</v>
+        <v>26.448</v>
       </c>
       <c r="S5" t="n">
-        <v>13.399</v>
+        <v>26.768</v>
       </c>
       <c r="T5" t="n">
-        <v>10.669</v>
+        <v>26.956</v>
       </c>
       <c r="U5" t="n">
-        <v>12.222</v>
+        <v>25.952</v>
       </c>
       <c r="V5" t="n">
-        <v>14.664</v>
+        <v>24.825</v>
       </c>
       <c r="W5" t="n">
-        <v>13.966</v>
+        <v>25.357</v>
       </c>
       <c r="X5" t="n">
-        <v>11.223</v>
+        <v>26.166</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.888</v>
+        <v>24.433</v>
       </c>
     </row>
     <row r="6">
@@ -5096,76 +3733,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.009</v>
+        <v>19.102</v>
       </c>
       <c r="C6" t="n">
-        <v>48.609</v>
+        <v>15.988</v>
       </c>
       <c r="D6" t="n">
-        <v>42.438</v>
+        <v>17.711</v>
       </c>
       <c r="E6" t="n">
-        <v>33.791</v>
+        <v>20.67</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>36.129</v>
       </c>
       <c r="G6" t="n">
-        <v>82.524</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.752</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.389</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>35.123</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>71.374</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>65.104</v>
+        <v>9.305999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>71.32599999999999</v>
+        <v>6.176</v>
       </c>
       <c r="O6" t="n">
-        <v>62.825</v>
+        <v>13.121</v>
       </c>
       <c r="P6" t="n">
-        <v>15.576</v>
+        <v>24.925</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.061</v>
+        <v>26.751</v>
       </c>
       <c r="R6" t="n">
-        <v>14.544</v>
+        <v>25.637</v>
       </c>
       <c r="S6" t="n">
-        <v>14.154</v>
+        <v>26.302</v>
       </c>
       <c r="T6" t="n">
-        <v>11.472</v>
+        <v>26.955</v>
       </c>
       <c r="U6" t="n">
-        <v>13.23</v>
+        <v>25.915</v>
       </c>
       <c r="V6" t="n">
-        <v>15.666</v>
+        <v>24.856</v>
       </c>
       <c r="W6" t="n">
-        <v>14.664</v>
+        <v>24.825</v>
       </c>
       <c r="X6" t="n">
-        <v>14.503</v>
+        <v>24.991</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.888</v>
+        <v>24.433</v>
       </c>
     </row>
     <row r="7">
@@ -5175,76 +3812,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.72199999999999</v>
+        <v>10.392</v>
       </c>
       <c r="C7" t="n">
-        <v>53.301</v>
+        <v>14.677</v>
       </c>
       <c r="D7" t="n">
-        <v>33.582</v>
+        <v>20.389</v>
       </c>
       <c r="E7" t="n">
-        <v>37.494</v>
+        <v>22.002</v>
       </c>
       <c r="F7" t="n">
-        <v>23.041</v>
+        <v>27.599</v>
       </c>
       <c r="G7" t="n">
-        <v>71.32599999999999</v>
+        <v>9.705</v>
       </c>
       <c r="H7" t="n">
-        <v>58.094</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.773</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.976</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>82.589</v>
+        <v>1.393</v>
       </c>
       <c r="M7" t="n">
-        <v>73.333</v>
+        <v>8.205</v>
       </c>
       <c r="N7" t="n">
-        <v>72.935</v>
+        <v>6.315</v>
       </c>
       <c r="O7" t="n">
-        <v>73.756</v>
+        <v>8.747999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>24.398</v>
+        <v>22.865</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.54</v>
+        <v>26.479</v>
       </c>
       <c r="R7" t="n">
-        <v>15.903</v>
+        <v>26.163</v>
       </c>
       <c r="S7" t="n">
-        <v>17.712</v>
+        <v>25.601</v>
       </c>
       <c r="T7" t="n">
-        <v>14.24</v>
+        <v>25.937</v>
       </c>
       <c r="U7" t="n">
-        <v>15.052</v>
+        <v>25.658</v>
       </c>
       <c r="V7" t="n">
-        <v>14.548</v>
+        <v>25.468</v>
       </c>
       <c r="W7" t="n">
-        <v>18.621</v>
+        <v>24.768</v>
       </c>
       <c r="X7" t="n">
-        <v>17.108</v>
+        <v>24.705</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.322</v>
+        <v>24.355</v>
       </c>
     </row>
     <row r="8">
@@ -5254,76 +3891,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.181</v>
+        <v>1.121</v>
       </c>
       <c r="C8" t="n">
-        <v>72.922</v>
+        <v>10.831</v>
       </c>
       <c r="D8" t="n">
-        <v>65.36499999999999</v>
+        <v>13.854</v>
       </c>
       <c r="E8" t="n">
-        <v>64.60899999999999</v>
+        <v>8.089</v>
       </c>
       <c r="F8" t="n">
-        <v>69.845</v>
+        <v>9.047000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>61.937</v>
+        <v>11.218</v>
       </c>
       <c r="H8" t="n">
-        <v>65.898</v>
+        <v>11.083</v>
       </c>
       <c r="I8" t="n">
-        <v>83.21299999999999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>44.032</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>50.346</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>33.684</v>
       </c>
       <c r="M8" t="n">
-        <v>34.866</v>
+        <v>20.264</v>
       </c>
       <c r="N8" t="n">
-        <v>52.009</v>
+        <v>15.858</v>
       </c>
       <c r="O8" t="n">
-        <v>66.486</v>
+        <v>11.828</v>
       </c>
       <c r="P8" t="n">
-        <v>18.956</v>
+        <v>23.773</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.576</v>
+        <v>25.669</v>
       </c>
       <c r="R8" t="n">
-        <v>14.862</v>
+        <v>26.196</v>
       </c>
       <c r="S8" t="n">
-        <v>18.209</v>
+        <v>25.167</v>
       </c>
       <c r="T8" t="n">
-        <v>14.24</v>
+        <v>25.937</v>
       </c>
       <c r="U8" t="n">
-        <v>15.54</v>
+        <v>26.479</v>
       </c>
       <c r="V8" t="n">
-        <v>17.712</v>
+        <v>25.601</v>
       </c>
       <c r="W8" t="n">
-        <v>17.476</v>
+        <v>24.959</v>
       </c>
       <c r="X8" t="n">
-        <v>20.428</v>
+        <v>24.066</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.341</v>
+        <v>23.093</v>
       </c>
     </row>
     <row r="9">
@@ -5333,76 +3970,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.264</v>
+        <v>16.402</v>
       </c>
       <c r="C9" t="n">
-        <v>66.349</v>
+        <v>7.608</v>
       </c>
       <c r="D9" t="n">
-        <v>65.373</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>67.176</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>63.15</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03100000000001</v>
+        <v>1.843</v>
       </c>
       <c r="H9" t="n">
-        <v>55.332</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>79.321</v>
+        <v>1.273</v>
       </c>
       <c r="J9" t="n">
-        <v>46.415</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>63.253</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>33.333</v>
       </c>
       <c r="M9" t="n">
-        <v>18.956</v>
+        <v>24.493</v>
       </c>
       <c r="N9" t="n">
-        <v>19.304</v>
+        <v>24.209</v>
       </c>
       <c r="O9" t="n">
-        <v>23.956</v>
+        <v>23.175</v>
       </c>
       <c r="P9" t="n">
-        <v>18.263</v>
+        <v>25.091</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.896</v>
+        <v>26.257</v>
       </c>
       <c r="R9" t="n">
-        <v>18.617</v>
+        <v>24.802</v>
       </c>
       <c r="S9" t="n">
-        <v>18.617</v>
+        <v>24.802</v>
       </c>
       <c r="T9" t="n">
-        <v>17.476</v>
+        <v>25.764</v>
       </c>
       <c r="U9" t="n">
-        <v>15.576</v>
+        <v>25.729</v>
       </c>
       <c r="V9" t="n">
-        <v>12.242</v>
+        <v>26.745</v>
       </c>
       <c r="W9" t="n">
-        <v>13.399</v>
+        <v>25.98</v>
       </c>
       <c r="X9" t="n">
-        <v>26.062</v>
+        <v>23.66</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.201</v>
+        <v>22.781</v>
       </c>
     </row>
     <row r="10">
@@ -5412,76 +4049,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.654</v>
+        <v>5.692</v>
       </c>
       <c r="C10" t="n">
-        <v>78.592</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>45.507</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.932</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>76.352</v>
+        <v>3.153</v>
       </c>
       <c r="H10" t="n">
-        <v>58.195</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.18</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.356</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>53.404</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5.394</v>
+        <v>28.382</v>
       </c>
       <c r="M10" t="n">
-        <v>19.569</v>
+        <v>23.958</v>
       </c>
       <c r="N10" t="n">
-        <v>17.922</v>
+        <v>24.623</v>
       </c>
       <c r="O10" t="n">
-        <v>14.974</v>
+        <v>25.508</v>
       </c>
       <c r="P10" t="n">
-        <v>13.141</v>
+        <v>26.251</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.084</v>
+        <v>26.486</v>
       </c>
       <c r="R10" t="n">
-        <v>16.973</v>
+        <v>24.732</v>
       </c>
       <c r="S10" t="n">
-        <v>14.69</v>
+        <v>25.782</v>
       </c>
       <c r="T10" t="n">
-        <v>16.174</v>
+        <v>25.334</v>
       </c>
       <c r="U10" t="n">
-        <v>17.682</v>
+        <v>24.863</v>
       </c>
       <c r="V10" t="n">
-        <v>33.254</v>
+        <v>20.342</v>
       </c>
       <c r="W10" t="n">
-        <v>45.888</v>
+        <v>17.054</v>
       </c>
       <c r="X10" t="n">
-        <v>12.328</v>
+        <v>30.059</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.44799999999999</v>
+        <v>2.655</v>
       </c>
     </row>
     <row r="11">
@@ -5491,76 +4128,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.965</v>
+        <v>8.906000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>69.423</v>
+        <v>8.369</v>
       </c>
       <c r="D11" t="n">
-        <v>66.289</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>45.293</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.922</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>38.686</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>46.215</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>70.88</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>62.625</v>
+        <v>12.232</v>
       </c>
       <c r="K11" t="n">
-        <v>61.598</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>89.765</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
-        <v>45.849</v>
+        <v>16.623</v>
       </c>
       <c r="N11" t="n">
-        <v>49.825</v>
+        <v>15.61</v>
       </c>
       <c r="O11" t="n">
-        <v>48.869</v>
+        <v>15.907</v>
       </c>
       <c r="P11" t="n">
-        <v>51.687</v>
+        <v>15.147</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.125</v>
+        <v>14.583</v>
       </c>
       <c r="R11" t="n">
-        <v>51.293</v>
+        <v>15.27</v>
       </c>
       <c r="S11" t="n">
-        <v>56.657</v>
+        <v>13.66</v>
       </c>
       <c r="T11" t="n">
-        <v>63.229</v>
+        <v>11.665</v>
       </c>
       <c r="U11" t="n">
-        <v>85.783</v>
+        <v>3.981</v>
       </c>
       <c r="V11" t="n">
-        <v>88.43899999999999</v>
+        <v>1.156</v>
       </c>
       <c r="W11" t="n">
-        <v>14.699</v>
+        <v>28.099</v>
       </c>
       <c r="X11" t="n">
-        <v>62.653</v>
+        <v>8.298999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5570,76 +4207,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.565</v>
+        <v>2.083</v>
       </c>
       <c r="C12" t="n">
-        <v>75.24299999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>83.97199999999999</v>
+        <v>4.08</v>
       </c>
       <c r="E12" t="n">
-        <v>81.67400000000001</v>
+        <v>6.767</v>
       </c>
       <c r="F12" t="n">
-        <v>67.789</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>49.883</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>65.749</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.182</v>
       </c>
       <c r="J12" t="n">
-        <v>45.264</v>
+        <v>21.894</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.2</v>
       </c>
       <c r="L12" t="n">
-        <v>74.43600000000001</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>89.97199999999999</v>
+        <v>3.438</v>
       </c>
       <c r="N12" t="n">
-        <v>84.142</v>
+        <v>5.286</v>
       </c>
       <c r="O12" t="n">
-        <v>81.928</v>
+        <v>6.196</v>
       </c>
       <c r="P12" t="n">
-        <v>76.81699999999999</v>
+        <v>8.182</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.92</v>
+        <v>9.363</v>
       </c>
       <c r="R12" t="n">
-        <v>88.76900000000001</v>
+        <v>4.492</v>
       </c>
       <c r="S12" t="n">
-        <v>91.39700000000001</v>
+        <v>2.868</v>
       </c>
       <c r="T12" t="n">
-        <v>77.84099999999999</v>
+        <v>6.894</v>
       </c>
       <c r="U12" t="n">
-        <v>89.363</v>
+        <v>4.255</v>
       </c>
       <c r="V12" t="n">
-        <v>68.83199999999999</v>
+        <v>10.686</v>
       </c>
       <c r="W12" t="n">
-        <v>73.101</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>42.568</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5649,76 +4286,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.568</v>
+        <v>6.973</v>
       </c>
       <c r="C13" t="n">
-        <v>51.469</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>54.873</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.08799999999999</v>
+        <v>10.28</v>
       </c>
       <c r="F13" t="n">
-        <v>75.53400000000001</v>
+        <v>7.34</v>
       </c>
       <c r="G13" t="n">
-        <v>48.593</v>
+        <v>18.775</v>
       </c>
       <c r="H13" t="n">
-        <v>23.632</v>
+        <v>29.159</v>
       </c>
       <c r="I13" t="n">
-        <v>65.04300000000001</v>
+        <v>8.225</v>
       </c>
       <c r="J13" t="n">
-        <v>66.931</v>
+        <v>7.003</v>
       </c>
       <c r="K13" t="n">
-        <v>45.448</v>
+        <v>18.184</v>
       </c>
       <c r="L13" t="n">
-        <v>45.369</v>
+        <v>20.567</v>
       </c>
       <c r="M13" t="n">
-        <v>66.917</v>
+        <v>9.557</v>
       </c>
       <c r="N13" t="n">
-        <v>87.10299999999999</v>
+        <v>4.012</v>
       </c>
       <c r="O13" t="n">
-        <v>87.629</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>94.001</v>
+        <v>0.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.524</v>
+        <v>1.895</v>
       </c>
       <c r="R13" t="n">
-        <v>95.5</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>62.69</v>
+        <v>10.66</v>
       </c>
       <c r="T13" t="n">
-        <v>56.458</v>
+        <v>14.046</v>
       </c>
       <c r="U13" t="n">
-        <v>63.691</v>
+        <v>5.809</v>
       </c>
       <c r="V13" t="n">
-        <v>63.25</v>
+        <v>1.278</v>
       </c>
       <c r="W13" t="n">
-        <v>54.559</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>71.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.888</v>
+        <v>20.879</v>
       </c>
     </row>
     <row r="14">
@@ -5728,76 +4365,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.553</v>
+        <v>22.733</v>
       </c>
       <c r="C14" t="n">
-        <v>57.129</v>
+        <v>16.332</v>
       </c>
       <c r="D14" t="n">
-        <v>47.853</v>
+        <v>19.866</v>
       </c>
       <c r="E14" t="n">
-        <v>33.52</v>
+        <v>23.743</v>
       </c>
       <c r="F14" t="n">
-        <v>59.569</v>
+        <v>13.747</v>
       </c>
       <c r="G14" t="n">
-        <v>53.154</v>
+        <v>11.712</v>
       </c>
       <c r="H14" t="n">
-        <v>62.079</v>
+        <v>11.798</v>
       </c>
       <c r="I14" t="n">
-        <v>60.798</v>
+        <v>9.904</v>
       </c>
       <c r="J14" t="n">
-        <v>49.911</v>
+        <v>14.311</v>
       </c>
       <c r="K14" t="n">
-        <v>73.298</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>78.83799999999999</v>
+        <v>3.256</v>
       </c>
       <c r="M14" t="n">
-        <v>73.617</v>
+        <v>0.621</v>
       </c>
       <c r="N14" t="n">
-        <v>56.559</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>62.087</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>78.83799999999999</v>
+        <v>4.558</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.447</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>65.04300000000001</v>
+        <v>13.983</v>
       </c>
       <c r="S14" t="n">
-        <v>56.745</v>
+        <v>12.749</v>
       </c>
       <c r="T14" t="n">
-        <v>50.147</v>
+        <v>8.308999999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>52.776</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>49.727</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>70.95099999999999</v>
+        <v>1.835</v>
       </c>
       <c r="X14" t="n">
-        <v>65.12</v>
+        <v>1.744</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5807,76 +4444,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.66</v>
+        <v>19.278</v>
       </c>
       <c r="C15" t="n">
-        <v>77.352</v>
+        <v>4.228</v>
       </c>
       <c r="D15" t="n">
-        <v>76.928</v>
+        <v>1.154</v>
       </c>
       <c r="E15" t="n">
-        <v>66.21899999999999</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>71.34099999999999</v>
+        <v>5.732</v>
       </c>
       <c r="G15" t="n">
-        <v>61.264</v>
+        <v>11.621</v>
       </c>
       <c r="H15" t="n">
-        <v>55.034</v>
+        <v>13.704</v>
       </c>
       <c r="I15" t="n">
-        <v>69.06999999999999</v>
+        <v>6.186</v>
       </c>
       <c r="J15" t="n">
-        <v>61.379</v>
+        <v>10.57</v>
       </c>
       <c r="K15" t="n">
-        <v>83.011</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>55.907</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>87.56399999999999</v>
+        <v>2.487</v>
       </c>
       <c r="N15" t="n">
-        <v>59.738</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.973</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>57.829</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.926</v>
+        <v>2.478</v>
       </c>
       <c r="R15" t="n">
-        <v>69.18600000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>59.716</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>53.125</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>53.032</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>71.08799999999999</v>
+        <v>3.855</v>
       </c>
       <c r="W15" t="n">
-        <v>60.27</v>
+        <v>6.622</v>
       </c>
       <c r="X15" t="n">
-        <v>49.039</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5886,76 +4523,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.989</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>49.102</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.947</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>53.817</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.405</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.982</v>
+        <v>0.55</v>
       </c>
       <c r="H16" t="n">
-        <v>57.851</v>
+        <v>11.495</v>
       </c>
       <c r="I16" t="n">
-        <v>74.777</v>
+        <v>4.414</v>
       </c>
       <c r="J16" t="n">
-        <v>53.552</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>68.604</v>
+        <v>4.395</v>
       </c>
       <c r="L16" t="n">
-        <v>56.58</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>54.185</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>61.955</v>
+        <v>9.566000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>61.665</v>
+        <v>11.377</v>
       </c>
       <c r="P16" t="n">
-        <v>56.291</v>
+        <v>11.126</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.176</v>
+        <v>7.878</v>
       </c>
       <c r="R16" t="n">
-        <v>78.592</v>
+        <v>5.037</v>
       </c>
       <c r="S16" t="n">
-        <v>76.99299999999999</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>71.76300000000001</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.657</v>
+        <v>2.927</v>
       </c>
       <c r="V16" t="n">
-        <v>51.082</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>45.448</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>53.095</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5965,76 +4602,1481 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.753</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>44.968</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>41.877</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.261</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.107</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>77.06100000000001</v>
+        <v>2.294</v>
       </c>
       <c r="I17" t="n">
-        <v>81.249</v>
+        <v>1.154</v>
       </c>
       <c r="J17" t="n">
-        <v>84.364</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>50.686</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>74</v>
+        <v>3.467</v>
       </c>
       <c r="M17" t="n">
-        <v>75.82899999999999</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>65.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>89.87</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>84.11199999999999</v>
+        <v>4.044</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.346</v>
+        <v>10.79</v>
       </c>
       <c r="R17" t="n">
-        <v>43.758</v>
+        <v>18.64</v>
       </c>
       <c r="S17" t="n">
-        <v>56.764</v>
+        <v>16.543</v>
       </c>
       <c r="T17" t="n">
-        <v>76.648</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>64.069</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.389</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>58.27</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>52.17</v>
+        <v>13.194</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.185</v>
+        <v>11.931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.965</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.223</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.895</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.067</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.358</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.304</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.414</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.689</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.805</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.879</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.791</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.976000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.138</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.709</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.327</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.676</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.429</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.332</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.913</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.668</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.583</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.616</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.144</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.056</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.764</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.283</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.564</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.503</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27.533</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.328</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.261</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.641</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.782</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.794</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.478</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.592</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.589</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.471</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17.061</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.561</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.414</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.915</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31.109</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25.301</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.863</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.072</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26.279</v>
+      </c>
+      <c r="M5" t="n">
+        <v>28.615</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.289</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.789</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.367</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.736</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.343</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.268</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.889</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.866</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.586</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.355</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.404</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.444</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.975</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.517</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.901</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.049</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26.041</v>
+      </c>
+      <c r="N6" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.224</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.818</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.661</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.589</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.292</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.266</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.866</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.801</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>29.089</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.433</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.215999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.237</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.909</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="L7" t="n">
+        <v>33.036</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29.333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>29.174</v>
+      </c>
+      <c r="O7" t="n">
+        <v>29.503</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6.361</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.085</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.819</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.448</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.843</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.329</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>33.273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.169</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.146</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.844</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27.938</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.775</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.359</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33.285</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17.613</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.138</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13.946</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20.804</v>
+      </c>
+      <c r="O8" t="n">
+        <v>26.595</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.283</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.085</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.170999999999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.536</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21.706</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32.013</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.133</v>
+      </c>
+      <c r="I9" t="n">
+        <v>31.729</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.566</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.301</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.582</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.722</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.305</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.358</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.447</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.447</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.897</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>31.462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31.437</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.203</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.373</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31.628</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.541</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.278</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.072</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17.342</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.362</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.828</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.169</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.256</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.434</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.789</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.469</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7.073</v>
+      </c>
+      <c r="V10" t="n">
+        <v>13.302</v>
+      </c>
+      <c r="W10" t="n">
+        <v>18.355</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.931</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29.379</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.186</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.769</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.516</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18.117</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.569</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.474</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.486</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.352</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24.639</v>
+      </c>
+      <c r="L11" t="n">
+        <v>35.906</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="O11" t="n">
+        <v>19.548</v>
+      </c>
+      <c r="P11" t="n">
+        <v>20.675</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>20.517</v>
+      </c>
+      <c r="S11" t="n">
+        <v>22.663</v>
+      </c>
+      <c r="T11" t="n">
+        <v>25.292</v>
+      </c>
+      <c r="U11" t="n">
+        <v>34.313</v>
+      </c>
+      <c r="V11" t="n">
+        <v>35.376</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="X11" t="n">
+        <v>25.061</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30.626</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.097</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33.589</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27.116</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19.953</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18.106</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>29.774</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35.989</v>
+      </c>
+      <c r="N12" t="n">
+        <v>33.657</v>
+      </c>
+      <c r="O12" t="n">
+        <v>32.771</v>
+      </c>
+      <c r="P12" t="n">
+        <v>30.727</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>29.968</v>
+      </c>
+      <c r="R12" t="n">
+        <v>35.508</v>
+      </c>
+      <c r="S12" t="n">
+        <v>36.559</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31.136</v>
+      </c>
+      <c r="U12" t="n">
+        <v>35.745</v>
+      </c>
+      <c r="V12" t="n">
+        <v>27.533</v>
+      </c>
+      <c r="W12" t="n">
+        <v>29.241</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17.027</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>23.355</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>33.027</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.587</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.949</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28.435</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30.213</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19.437</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.452999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26.017</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26.772</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.179</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18.147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>26.767</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34.841</v>
+      </c>
+      <c r="O13" t="n">
+        <v>35.051</v>
+      </c>
+      <c r="P13" t="n">
+        <v>37.601</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="R13" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25.076</v>
+      </c>
+      <c r="T13" t="n">
+        <v>22.583</v>
+      </c>
+      <c r="U13" t="n">
+        <v>25.476</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>21.824</v>
+      </c>
+      <c r="X13" t="n">
+        <v>28.472</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11.421</v>
+      </c>
+      <c r="C14" t="n">
+        <v>22.852</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19.141</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.408</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23.827</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.261</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24.831</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24.319</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19.964</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29.319</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31.535</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29.447</v>
+      </c>
+      <c r="N14" t="n">
+        <v>22.624</v>
+      </c>
+      <c r="O14" t="n">
+        <v>24.835</v>
+      </c>
+      <c r="P14" t="n">
+        <v>31.535</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>29.779</v>
+      </c>
+      <c r="R14" t="n">
+        <v>26.017</v>
+      </c>
+      <c r="S14" t="n">
+        <v>22.698</v>
+      </c>
+      <c r="T14" t="n">
+        <v>20.059</v>
+      </c>
+      <c r="U14" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="V14" t="n">
+        <v>19.891</v>
+      </c>
+      <c r="W14" t="n">
+        <v>28.381</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26.048</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17.81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15.464</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30.771</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26.488</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.536</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.506</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22.014</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27.628</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.552</v>
+      </c>
+      <c r="K15" t="n">
+        <v>33.205</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22.363</v>
+      </c>
+      <c r="M15" t="n">
+        <v>35.026</v>
+      </c>
+      <c r="N15" t="n">
+        <v>23.895</v>
+      </c>
+      <c r="O15" t="n">
+        <v>17.989</v>
+      </c>
+      <c r="P15" t="n">
+        <v>23.132</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="R15" t="n">
+        <v>27.674</v>
+      </c>
+      <c r="S15" t="n">
+        <v>23.886</v>
+      </c>
+      <c r="T15" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>21.213</v>
+      </c>
+      <c r="V15" t="n">
+        <v>28.435</v>
+      </c>
+      <c r="W15" t="n">
+        <v>24.108</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19.616</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19.342</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>35.996</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.641</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17.179</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21.527</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24.162</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31.193</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29.911</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21.421</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27.442</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22.632</v>
+      </c>
+      <c r="M16" t="n">
+        <v>21.674</v>
+      </c>
+      <c r="N16" t="n">
+        <v>24.782</v>
+      </c>
+      <c r="O16" t="n">
+        <v>24.666</v>
+      </c>
+      <c r="P16" t="n">
+        <v>22.517</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="R16" t="n">
+        <v>31.437</v>
+      </c>
+      <c r="S16" t="n">
+        <v>30.797</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28.705</v>
+      </c>
+      <c r="U16" t="n">
+        <v>29.463</v>
+      </c>
+      <c r="V16" t="n">
+        <v>20.433</v>
+      </c>
+      <c r="W16" t="n">
+        <v>18.179</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21.238</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18.512</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.301</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17.987</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.751</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.704</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.243</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30.824</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>33.745</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.274</v>
+      </c>
+      <c r="L17" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>30.332</v>
+      </c>
+      <c r="N17" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="O17" t="n">
+        <v>35.948</v>
+      </c>
+      <c r="P17" t="n">
+        <v>33.645</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>26.938</v>
+      </c>
+      <c r="R17" t="n">
+        <v>17.503</v>
+      </c>
+      <c r="S17" t="n">
+        <v>22.705</v>
+      </c>
+      <c r="T17" t="n">
+        <v>30.659</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25.627</v>
+      </c>
+      <c r="V17" t="n">
+        <v>30.556</v>
+      </c>
+      <c r="W17" t="n">
+        <v>23.308</v>
+      </c>
+      <c r="X17" t="n">
+        <v>20.868</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23.674</v>
       </c>
     </row>
   </sheetData>
